--- a/FOMC1_coef.xlsx
+++ b/FOMC1_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0001618841973943682</v>
+        <v>-0.0006411309669078157</v>
       </c>
       <c r="C2">
-        <v>0.0007160694929322166</v>
+        <v>0.0009766200724454694</v>
       </c>
       <c r="D2">
-        <v>-2.976830119653633e-06</v>
+        <v>-8.682481121243529e-06</v>
       </c>
       <c r="E2">
-        <v>-9.534350930113719e-05</v>
+        <v>-0.0004414649576291035</v>
       </c>
       <c r="F2">
-        <v>1.183426562121313e-05</v>
+        <v>0.0001305406775715627</v>
       </c>
       <c r="G2">
-        <v>6.450546908404029e-08</v>
+        <v>1.84446606617228e-07</v>
       </c>
       <c r="H2">
-        <v>0.03352863282682408</v>
+        <v>0.03300389773082732</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0001492635881290491</v>
+        <v>-0.0001480329094459402</v>
       </c>
       <c r="C3">
-        <v>0.0004333544617745593</v>
+        <v>-0.0001944256308018842</v>
       </c>
       <c r="D3">
-        <v>4.858518589243683e-07</v>
+        <v>1.961287929986543e-07</v>
       </c>
       <c r="E3">
-        <v>0.0001567128281425856</v>
+        <v>0.0001518294903065064</v>
       </c>
       <c r="F3">
-        <v>-0.0003475872207935563</v>
+        <v>-0.0002284856983768993</v>
       </c>
       <c r="G3">
-        <v>3.037991416537406e-07</v>
+        <v>5.13633386690432e-07</v>
       </c>
       <c r="H3">
-        <v>0.03785312285375986</v>
+        <v>0.03605769316003216</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001100814117339893</v>
+        <v>-0.0001273443385683916</v>
       </c>
       <c r="C4">
-        <v>-0.001089923177761284</v>
+        <v>0.0005019476722342266</v>
       </c>
       <c r="D4">
-        <v>4.399076420517477e-06</v>
+        <v>3.06521691585197e-06</v>
       </c>
       <c r="E4">
-        <v>0.0006568124760835715</v>
+        <v>-0.0003788917770260851</v>
       </c>
       <c r="F4">
-        <v>-0.0001421619641756183</v>
+        <v>-0.0004455981084384112</v>
       </c>
       <c r="G4">
-        <v>6.98787440383568e-07</v>
+        <v>3.075324626346075e-07</v>
       </c>
       <c r="H4">
-        <v>0.03377362679781751</v>
+        <v>0.03865973736647831</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.290546696080391e-05</v>
+        <v>8.066745180550748e-05</v>
       </c>
       <c r="C5">
-        <v>0.0002329928371775382</v>
+        <v>-0.0007071299403750952</v>
       </c>
       <c r="D5">
-        <v>5.026720592802315e-06</v>
+        <v>-3.184247788066096e-06</v>
       </c>
       <c r="E5">
-        <v>-0.0005628024617513813</v>
+        <v>0.0002577327682207857</v>
       </c>
       <c r="F5">
-        <v>-0.0002837952599661884</v>
+        <v>-0.0001456772252418384</v>
       </c>
       <c r="G5">
-        <v>-4.884804672557616e-07</v>
+        <v>3.306387489195053e-07</v>
       </c>
       <c r="H5">
-        <v>0.03706735195939363</v>
+        <v>0.03561391420849273</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0003371162934352045</v>
+        <v>-0.0003054861900784267</v>
       </c>
       <c r="C6">
-        <v>-0.0001052410055477393</v>
+        <v>0.0002903501804260782</v>
       </c>
       <c r="D6">
-        <v>-1.917306918047298e-06</v>
+        <v>7.719078204068005e-07</v>
       </c>
       <c r="E6">
-        <v>0.0001035235895509821</v>
+        <v>-0.0004406324372329788</v>
       </c>
       <c r="F6">
-        <v>-6.891902346494328e-05</v>
+        <v>-0.0001849384947340111</v>
       </c>
       <c r="G6">
-        <v>3.60374801875015e-07</v>
+        <v>1.512807315564431e-06</v>
       </c>
       <c r="H6">
-        <v>0.03425250520136461</v>
+        <v>0.03483650699948888</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0008978166954352056</v>
+        <v>-0.0004596998213357616</v>
       </c>
       <c r="C7">
-        <v>-0.0003893102111965595</v>
+        <v>-8.755942228362026e-05</v>
       </c>
       <c r="D7">
-        <v>-7.851414294529802e-06</v>
+        <v>-2.297011154254195e-06</v>
       </c>
       <c r="E7">
-        <v>0.0002558947880355669</v>
+        <v>-0.0003766789217673171</v>
       </c>
       <c r="F7">
-        <v>-5.091549041316885e-05</v>
+        <v>-0.0001407124466293657</v>
       </c>
       <c r="G7">
-        <v>1.301171637433729e-06</v>
+        <v>1.122357081496408e-06</v>
       </c>
       <c r="H7">
-        <v>0.03467032293528395</v>
+        <v>0.03487450635611762</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.0006310818567503572</v>
+        <v>0.0002850015719910932</v>
       </c>
       <c r="C8">
-        <v>-0.0005844968013497366</v>
+        <v>0.0006158561271068892</v>
       </c>
       <c r="D8">
-        <v>5.090511366622634e-06</v>
+        <v>7.828002658747598e-06</v>
       </c>
       <c r="E8">
-        <v>0.0005407636886803104</v>
+        <v>0.0003808171087361922</v>
       </c>
       <c r="F8">
-        <v>-8.515176849474061e-05</v>
+        <v>3.103223078687514e-05</v>
       </c>
       <c r="G8">
-        <v>1.9035372759756e-06</v>
+        <v>-5.100683965747946e-07</v>
       </c>
       <c r="H8">
-        <v>0.03265283439649838</v>
+        <v>0.03238358718787228</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.0002072093163571216</v>
+        <v>-0.0005200978909040374</v>
       </c>
       <c r="C9">
-        <v>-5.981316961014638e-05</v>
+        <v>-3.799924421955337e-05</v>
       </c>
       <c r="D9">
-        <v>2.915187987770128e-06</v>
+        <v>2.571716251166107e-08</v>
       </c>
       <c r="E9">
-        <v>0.0004764562780873241</v>
+        <v>8.080071577203085e-06</v>
       </c>
       <c r="F9">
-        <v>-0.0001618072484005814</v>
+        <v>-4.519799022920145e-05</v>
       </c>
       <c r="G9">
-        <v>3.987481941310286e-07</v>
+        <v>8.909681465278446e-07</v>
       </c>
       <c r="H9">
-        <v>0.03514176432791041</v>
+        <v>0.0334656467035152</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0001047819622725706</v>
+        <v>-3.871610349836792e-05</v>
       </c>
       <c r="C10">
-        <v>-0.0004178488938566092</v>
+        <v>4.369112766575611e-05</v>
       </c>
       <c r="D10">
-        <v>6.635661036771396e-07</v>
+        <v>1.206066157888384e-06</v>
       </c>
       <c r="E10">
-        <v>0.0004203996521519628</v>
+        <v>-4.48370434139797e-05</v>
       </c>
       <c r="F10">
-        <v>-0.0001420905406905473</v>
+        <v>5.065966875908282e-05</v>
       </c>
       <c r="G10">
-        <v>8.276023346711378e-07</v>
+        <v>2.10232343534589e-07</v>
       </c>
       <c r="H10">
-        <v>0.03441625603772294</v>
+        <v>0.03252760955305299</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0002350666824581318</v>
+        <v>4.843737817888049e-05</v>
       </c>
       <c r="C11">
-        <v>-0.0005004807600128589</v>
+        <v>0.0007333227944401166</v>
       </c>
       <c r="D11">
-        <v>-4.871695513989428e-06</v>
+        <v>2.287324694919259e-06</v>
       </c>
       <c r="E11">
-        <v>0.0008731375675801942</v>
+        <v>0.0002714274625449792</v>
       </c>
       <c r="F11">
-        <v>9.428243069277463e-05</v>
+        <v>-7.807380571818435e-05</v>
       </c>
       <c r="G11">
-        <v>2.190666225423361e-07</v>
+        <v>3.685781614765128e-07</v>
       </c>
       <c r="H11">
-        <v>0.03249975614784925</v>
+        <v>0.03382283107210966</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.751230298062566e-05</v>
+        <v>0.0007189298945848041</v>
       </c>
       <c r="C12">
-        <v>-0.0002772497440716006</v>
+        <v>8.945787466618565e-05</v>
       </c>
       <c r="D12">
-        <v>8.328129875070233e-06</v>
+        <v>2.068926266815288e-06</v>
       </c>
       <c r="E12">
-        <v>-0.0005148719547048083</v>
+        <v>5.233633186801576e-05</v>
       </c>
       <c r="F12">
-        <v>-0.0001936214919389106</v>
+        <v>-8.259430047238597e-05</v>
       </c>
       <c r="G12">
-        <v>5.844928939600928e-07</v>
+        <v>-4.859096407233036e-08</v>
       </c>
       <c r="H12">
-        <v>0.034768825726063</v>
+        <v>0.03363839618124442</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0003136788717258297</v>
+        <v>-0.0006343648769895161</v>
       </c>
       <c r="C13">
-        <v>0.001050618714496888</v>
+        <v>-6.114466912039295e-06</v>
       </c>
       <c r="D13">
-        <v>-4.986065381155892e-06</v>
+        <v>-1.44480208589608e-07</v>
       </c>
       <c r="E13">
-        <v>-0.0001061575146463767</v>
+        <v>0.0001103460711190975</v>
       </c>
       <c r="F13">
-        <v>5.252605657382614e-05</v>
+        <v>5.46827118061042e-05</v>
       </c>
       <c r="G13">
-        <v>3.888379055327695e-07</v>
+        <v>5.87958378957069e-07</v>
       </c>
       <c r="H13">
-        <v>0.03285740682661901</v>
+        <v>0.03279925457986096</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-9.088110663942961e-05</v>
+        <v>0.0001985460185701365</v>
       </c>
       <c r="C14">
-        <v>-0.0002669613690229823</v>
+        <v>-0.0005851494622838683</v>
       </c>
       <c r="D14">
-        <v>-3.423647852560878e-06</v>
+        <v>6.531119025173876e-06</v>
       </c>
       <c r="E14">
-        <v>0.0005461602347214892</v>
+        <v>0.000461807027374278</v>
       </c>
       <c r="F14">
-        <v>3.985051725307492e-05</v>
+        <v>3.933893625583434e-05</v>
       </c>
       <c r="G14">
-        <v>6.973308492545178e-08</v>
+        <v>-1.460060932158146e-07</v>
       </c>
       <c r="H14">
-        <v>0.03317720376507344</v>
+        <v>0.03251406279941953</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.000130309201408235</v>
+        <v>0.0002494777812336948</v>
       </c>
       <c r="C15">
-        <v>0.0004809628456160387</v>
+        <v>-0.0008075642782676772</v>
       </c>
       <c r="D15">
-        <v>2.185673847111771e-06</v>
+        <v>3.520243371497415e-06</v>
       </c>
       <c r="E15">
-        <v>0.0003956254573307429</v>
+        <v>-0.0002691536600124625</v>
       </c>
       <c r="F15">
-        <v>-0.0003041016571092262</v>
+        <v>-0.0002955635101244126</v>
       </c>
       <c r="G15">
-        <v>5.94566951332398e-07</v>
+        <v>7.619644761830836e-08</v>
       </c>
       <c r="H15">
-        <v>0.03644993350823184</v>
+        <v>0.03676671198062764</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0001767725156369177</v>
+        <v>2.923852959247405e-05</v>
       </c>
       <c r="C16">
-        <v>-0.001245045925593563</v>
+        <v>-0.001164435141317769</v>
       </c>
       <c r="D16">
-        <v>1.697233647993175e-06</v>
+        <v>-6.324470444150128e-06</v>
       </c>
       <c r="E16">
-        <v>-0.0001302443688869018</v>
+        <v>0.0003280700385743449</v>
       </c>
       <c r="F16">
-        <v>-6.938234165929135e-05</v>
+        <v>-0.000285427766294723</v>
       </c>
       <c r="G16">
-        <v>1.158230778762292e-06</v>
+        <v>7.733934399601793e-07</v>
       </c>
       <c r="H16">
-        <v>0.03343943098779383</v>
+        <v>0.0370552877803503</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0004362833442676278</v>
+        <v>0.0002277482331868351</v>
       </c>
       <c r="C17">
-        <v>-0.000707109815628839</v>
+        <v>3.446738209503025e-05</v>
       </c>
       <c r="D17">
-        <v>-6.818035738690958e-06</v>
+        <v>-1.15476607323467e-06</v>
       </c>
       <c r="E17">
-        <v>0.0001311962480933133</v>
+        <v>2.120032764698493e-06</v>
       </c>
       <c r="F17">
-        <v>-3.108073727302427e-05</v>
+        <v>-0.0002801329023999581</v>
       </c>
       <c r="G17">
-        <v>6.468395157563748e-07</v>
+        <v>2.652464200957307e-07</v>
       </c>
       <c r="H17">
-        <v>0.03438295507178499</v>
+        <v>0.0367046654600872</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.000414868266299398</v>
+        <v>0.0003507611434649229</v>
       </c>
       <c r="C18">
-        <v>-9.526944549282057e-05</v>
+        <v>0.0008090383810481993</v>
       </c>
       <c r="D18">
-        <v>8.929214012070585e-07</v>
+        <v>1.299910587041166e-06</v>
       </c>
       <c r="E18">
-        <v>0.0002106568201765587</v>
+        <v>-0.0005037119210559091</v>
       </c>
       <c r="F18">
-        <v>-0.0003670556692947011</v>
+        <v>-0.0002819231609679519</v>
       </c>
       <c r="G18">
-        <v>4.774851637772245e-07</v>
+        <v>-4.822151299725246e-08</v>
       </c>
       <c r="H18">
-        <v>0.03758977503460234</v>
+        <v>0.03700998629418534</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0008506647333025304</v>
+        <v>8.382221315203454e-05</v>
       </c>
       <c r="C19">
-        <v>0.0002403583354141255</v>
+        <v>0.0009911140925536021</v>
       </c>
       <c r="D19">
-        <v>-4.215887274629506e-06</v>
+        <v>6.350029952976943e-06</v>
       </c>
       <c r="E19">
-        <v>-0.0006008675041126628</v>
+        <v>-2.91382346361696e-05</v>
       </c>
       <c r="F19">
-        <v>0.0002371076693588462</v>
+        <v>0.0001490361010287229</v>
       </c>
       <c r="G19">
-        <v>8.637251237213202e-07</v>
+        <v>1.108944535231318e-06</v>
       </c>
       <c r="H19">
-        <v>0.03077365157855949</v>
+        <v>0.0297050008108188</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0007212190049108705</v>
+        <v>0.0002330996475096538</v>
       </c>
       <c r="C20">
-        <v>0.000548502139908394</v>
+        <v>3.405117210970301e-05</v>
       </c>
       <c r="D20">
-        <v>-7.27529818206376e-07</v>
+        <v>1.446974000657002e-06</v>
       </c>
       <c r="E20">
-        <v>-0.0001096630170143685</v>
+        <v>0.0002966376781693841</v>
       </c>
       <c r="F20">
-        <v>-1.630164334530653e-06</v>
+        <v>-3.672140925057861e-05</v>
       </c>
       <c r="G20">
-        <v>1.096520012548639e-06</v>
+        <v>3.574321578812241e-07</v>
       </c>
       <c r="H20">
-        <v>0.03317728179436251</v>
+        <v>0.03348754695336186</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.970943015330145e-05</v>
+        <v>0.0002922028771271809</v>
       </c>
       <c r="C21">
-        <v>-0.0002114468683222301</v>
+        <v>-0.0004545640578500603</v>
       </c>
       <c r="D21">
-        <v>4.748864166764339e-06</v>
+        <v>-5.621286008106102e-06</v>
       </c>
       <c r="E21">
-        <v>-9.991661142106853e-05</v>
+        <v>-0.000176133234421838</v>
       </c>
       <c r="F21">
-        <v>-0.0001201627612291828</v>
+        <v>0.0001156900588321759</v>
       </c>
       <c r="G21">
-        <v>7.36303130001424e-07</v>
+        <v>1.984892975225265e-07</v>
       </c>
       <c r="H21">
-        <v>0.03409202338007244</v>
+        <v>0.03246286195943879</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.0003494942912238336</v>
+        <v>0.0001198943277416103</v>
       </c>
       <c r="C22">
-        <v>9.10983905665103e-05</v>
+        <v>-6.389876835033291e-05</v>
       </c>
       <c r="D22">
-        <v>-4.098723963546511e-06</v>
+        <v>-7.155701510695783e-06</v>
       </c>
       <c r="E22">
-        <v>-3.846603880238927e-05</v>
+        <v>-0.0002646607572583531</v>
       </c>
       <c r="F22">
-        <v>0.0001239569284890423</v>
+        <v>4.720639846754211e-05</v>
       </c>
       <c r="G22">
-        <v>6.500610400431089e-07</v>
+        <v>9.228478294737841e-10</v>
       </c>
       <c r="H22">
-        <v>0.03218372972059801</v>
+        <v>0.03345853010699679</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.00038308520051999</v>
+        <v>0.0003481598444898312</v>
       </c>
       <c r="C23">
-        <v>0.0001829105241858322</v>
+        <v>0.0008179722717539711</v>
       </c>
       <c r="D23">
-        <v>1.190187821897863e-05</v>
+        <v>-4.264098556761288e-06</v>
       </c>
       <c r="E23">
-        <v>0.0001859161681134099</v>
+        <v>5.424364890597305e-06</v>
       </c>
       <c r="F23">
-        <v>-0.0003085423030345545</v>
+        <v>-5.527110620040293e-05</v>
       </c>
       <c r="G23">
-        <v>3.857104560864552e-08</v>
+        <v>6.90595307740764e-07</v>
       </c>
       <c r="H23">
-        <v>0.03569262917591107</v>
+        <v>0.03378312061161734</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0003863356729442895</v>
+        <v>-0.0005293939155438228</v>
       </c>
       <c r="C24">
-        <v>-0.0001152036355766624</v>
+        <v>0.0001732241834828543</v>
       </c>
       <c r="D24">
-        <v>1.528443412862272e-05</v>
+        <v>-4.309206939200605e-06</v>
       </c>
       <c r="E24">
-        <v>2.018710236091278e-05</v>
+        <v>-0.0001410426093292616</v>
       </c>
       <c r="F24">
-        <v>-0.000269968652851869</v>
+        <v>3.74860966468743e-05</v>
       </c>
       <c r="G24">
-        <v>2.544711184298018e-07</v>
+        <v>1.137560036155709e-06</v>
       </c>
       <c r="H24">
-        <v>0.03503655083848601</v>
+        <v>0.03271835494192472</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.0003265150803172133</v>
+        <v>-0.0003955459050192503</v>
       </c>
       <c r="C25">
-        <v>0.001524290920430548</v>
+        <v>-0.0001149605802305439</v>
       </c>
       <c r="D25">
-        <v>3.654748440765489e-07</v>
+        <v>-9.633837212110252e-06</v>
       </c>
       <c r="E25">
-        <v>0.0001445530511491114</v>
+        <v>-0.0001217920895932902</v>
       </c>
       <c r="F25">
-        <v>0.0001822452221783414</v>
+        <v>9.522707560197111e-05</v>
       </c>
       <c r="G25">
-        <v>1.683261576117548e-07</v>
+        <v>1.372575202923564e-07</v>
       </c>
       <c r="H25">
-        <v>0.03098518683898122</v>
+        <v>0.03332848540319644</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.0004271684396946567</v>
+        <v>-0.0001605734498366282</v>
       </c>
       <c r="C26">
-        <v>0.000385020782181384</v>
+        <v>-0.0003191486353720461</v>
       </c>
       <c r="D26">
-        <v>-8.420954201886854e-06</v>
+        <v>3.600624725856395e-06</v>
       </c>
       <c r="E26">
-        <v>0.000222918081852843</v>
+        <v>0.0002873327855783918</v>
       </c>
       <c r="F26">
-        <v>-9.839223724411377e-06</v>
+        <v>-0.0001037984040582699</v>
       </c>
       <c r="G26">
-        <v>5.905232305123832e-07</v>
+        <v>7.530806683470423e-07</v>
       </c>
       <c r="H26">
-        <v>0.03415876003378891</v>
+        <v>0.03365738928426311</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0001658738506426531</v>
+        <v>-8.013788696756329e-05</v>
       </c>
       <c r="C27">
-        <v>-0.0006917138815512268</v>
+        <v>0.0002351254702808942</v>
       </c>
       <c r="D27">
-        <v>-8.295416420745858e-07</v>
+        <v>5.857842224514504e-06</v>
       </c>
       <c r="E27">
-        <v>-5.672365725926248e-05</v>
+        <v>-0.0003795518520396009</v>
       </c>
       <c r="F27">
-        <v>6.867821253129895e-05</v>
+        <v>-0.0001142045111724103</v>
       </c>
       <c r="G27">
-        <v>3.826125844362265e-07</v>
+        <v>2.716654031911764e-08</v>
       </c>
       <c r="H27">
-        <v>0.03278422471511405</v>
+        <v>0.03458251882063054</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.0002961443655140241</v>
+        <v>-8.700489181133367e-05</v>
       </c>
       <c r="C28">
-        <v>0.0007981390258905576</v>
+        <v>0.0005760483310907679</v>
       </c>
       <c r="D28">
-        <v>-1.459675912868945e-06</v>
+        <v>-2.661983140453087e-06</v>
       </c>
       <c r="E28">
-        <v>-0.0001555675850326878</v>
+        <v>-0.0002836740739277956</v>
       </c>
       <c r="F28">
-        <v>4.273926837780931e-05</v>
+        <v>0.0001842945919040185</v>
       </c>
       <c r="G28">
-        <v>1.244487350155569e-07</v>
+        <v>-6.232334057833506e-07</v>
       </c>
       <c r="H28">
-        <v>0.03329511327934002</v>
+        <v>0.03201605771308307</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.0002274950116784023</v>
+        <v>-0.0004789207973782828</v>
       </c>
       <c r="C29">
-        <v>0.0001294826142559579</v>
+        <v>-0.0001154789480471434</v>
       </c>
       <c r="D29">
-        <v>-4.266183459496697e-06</v>
+        <v>-1.329629361796776e-05</v>
       </c>
       <c r="E29">
-        <v>1.415730384225766e-05</v>
+        <v>0.000344751058020034</v>
       </c>
       <c r="F29">
-        <v>2.625424813482396e-05</v>
+        <v>0.0001212936951937644</v>
       </c>
       <c r="G29">
-        <v>9.356917357406079e-07</v>
+        <v>8.211707316447722e-07</v>
       </c>
       <c r="H29">
-        <v>0.03312492017462395</v>
+        <v>0.03287403629187466</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.000555691842059777</v>
+        <v>0.0004430300083582488</v>
       </c>
       <c r="C30">
-        <v>0.0007068062688338419</v>
+        <v>0.0002579046689574964</v>
       </c>
       <c r="D30">
-        <v>4.403213467030326e-06</v>
+        <v>-5.195238479963188e-06</v>
       </c>
       <c r="E30">
-        <v>0.0004544184611162926</v>
+        <v>0.0001439339757771871</v>
       </c>
       <c r="F30">
-        <v>-0.0001556306231826276</v>
+        <v>-0.0002761746609431435</v>
       </c>
       <c r="G30">
-        <v>2.121969636438615e-08</v>
+        <v>1.391954572423535e-06</v>
       </c>
       <c r="H30">
-        <v>0.03457778222769884</v>
+        <v>0.03600647564439653</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0005080932197488071</v>
+        <v>-0.0002082931174762848</v>
       </c>
       <c r="C31">
-        <v>-0.000847504052728199</v>
+        <v>0.0004070546862201052</v>
       </c>
       <c r="D31">
-        <v>1.026715148769937e-05</v>
+        <v>-1.970041828392105e-06</v>
       </c>
       <c r="E31">
-        <v>0.0007858611425533429</v>
+        <v>-4.578759473246666e-05</v>
       </c>
       <c r="F31">
-        <v>-0.0003268847393428187</v>
+        <v>-6.684150793889558e-05</v>
       </c>
       <c r="G31">
-        <v>6.954942355303425e-07</v>
+        <v>1.320694278438025e-06</v>
       </c>
       <c r="H31">
-        <v>0.03542340575995619</v>
+        <v>0.03356500860884239</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-4.686792954600259e-05</v>
+        <v>0.0001976023588754552</v>
       </c>
       <c r="C32">
-        <v>2.093543049967728e-05</v>
+        <v>5.487723165877641e-06</v>
       </c>
       <c r="D32">
-        <v>4.551863506582051e-06</v>
+        <v>2.672887343372082e-06</v>
       </c>
       <c r="E32">
-        <v>0.0005834013918715984</v>
+        <v>3.332698087211289e-06</v>
       </c>
       <c r="F32">
-        <v>-3.279571660017163e-05</v>
+        <v>-0.0002148591718830069</v>
       </c>
       <c r="G32">
-        <v>3.232046047902418e-07</v>
+        <v>7.207688416551257e-07</v>
       </c>
       <c r="H32">
-        <v>0.0332052103871629</v>
+        <v>0.03554469149311514</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-2.275090695381564e-05</v>
+        <v>-0.0005260195825700941</v>
       </c>
       <c r="C33">
-        <v>-4.37313522019811e-06</v>
+        <v>-0.0007909384401578078</v>
       </c>
       <c r="D33">
-        <v>-7.38577933982462e-07</v>
+        <v>8.924595031287448e-06</v>
       </c>
       <c r="E33">
-        <v>-0.0009239877061697176</v>
+        <v>-0.0002998804230763263</v>
       </c>
       <c r="F33">
-        <v>-0.0001055499281732836</v>
+        <v>-0.0003249272209094274</v>
       </c>
       <c r="G33">
-        <v>7.422471789947429e-07</v>
+        <v>1.267959263780051e-06</v>
       </c>
       <c r="H33">
-        <v>0.03493177400235008</v>
+        <v>0.03621950855554863</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.721925550874894e-05</v>
+        <v>-0.0001204763149929055</v>
       </c>
       <c r="C34">
-        <v>-0.0004971954247216521</v>
+        <v>0.0006281060564394752</v>
       </c>
       <c r="D34">
-        <v>2.172947341856134e-06</v>
+        <v>2.50702685535418e-06</v>
       </c>
       <c r="E34">
-        <v>0.0001872137081783722</v>
+        <v>-7.057984823544833e-05</v>
       </c>
       <c r="F34">
-        <v>-0.0002048546724485318</v>
+        <v>0.0001304510394066743</v>
       </c>
       <c r="G34">
-        <v>8.803811872554242e-07</v>
+        <v>-4.109204876483479e-07</v>
       </c>
       <c r="H34">
-        <v>0.03505321035858805</v>
+        <v>0.03193784527882823</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0004948399458946096</v>
+        <v>-0.0002653128392592877</v>
       </c>
       <c r="C35">
-        <v>0.0001035529053958394</v>
+        <v>0.0004413012969512343</v>
       </c>
       <c r="D35">
-        <v>-4.527259554689699e-06</v>
+        <v>-5.537412102300079e-06</v>
       </c>
       <c r="E35">
-        <v>-5.684408695421847e-05</v>
+        <v>0.0002310082122837995</v>
       </c>
       <c r="F35">
-        <v>-3.614943840918598e-05</v>
+        <v>0.0001679678695615803</v>
       </c>
       <c r="G35">
-        <v>6.308668706302023e-07</v>
+        <v>8.856534263411443e-08</v>
       </c>
       <c r="H35">
-        <v>0.03374023832791585</v>
+        <v>0.03197001353026852</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.0002905630360232423</v>
+        <v>-0.0001260135658383481</v>
       </c>
       <c r="C36">
-        <v>-0.0005865816268048891</v>
+        <v>-0.0005480689863609703</v>
       </c>
       <c r="D36">
-        <v>8.267579777300619e-06</v>
+        <v>-1.799858088581382e-06</v>
       </c>
       <c r="E36">
-        <v>-0.0002225262365598384</v>
+        <v>-0.0003559393501176775</v>
       </c>
       <c r="F36">
-        <v>9.041065779670239e-05</v>
+        <v>-0.0002679748332991494</v>
       </c>
       <c r="G36">
-        <v>-3.91095413285759e-07</v>
+        <v>2.342754033664123e-07</v>
       </c>
       <c r="H36">
-        <v>0.03253351510742048</v>
+        <v>0.03714104842831691</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.0006461959112286399</v>
+        <v>0.0006134009652072165</v>
       </c>
       <c r="C37">
-        <v>-0.0003825172538322086</v>
+        <v>0.0003101695532924621</v>
       </c>
       <c r="D37">
-        <v>9.195269353604433e-07</v>
+        <v>-7.409968332897916e-06</v>
       </c>
       <c r="E37">
-        <v>8.070190965887847e-06</v>
+        <v>6.385223553529926e-05</v>
       </c>
       <c r="F37">
-        <v>-0.0001795739164760896</v>
+        <v>-0.0001022574850098369</v>
       </c>
       <c r="G37">
-        <v>1.489685174839026e-06</v>
+        <v>6.452215434680205e-08</v>
       </c>
       <c r="H37">
-        <v>0.03486014468396183</v>
+        <v>0.03502512215401631</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-7.468657508519477e-06</v>
+        <v>-0.0007685452012397317</v>
       </c>
       <c r="C38">
-        <v>0.0001329540345696373</v>
+        <v>-0.0002406654646917338</v>
       </c>
       <c r="D38">
-        <v>4.418512521486872e-06</v>
+        <v>3.152131571751635e-06</v>
       </c>
       <c r="E38">
-        <v>-0.0002321201400027652</v>
+        <v>0.0001683513983565289</v>
       </c>
       <c r="F38">
-        <v>-0.0002220103564941932</v>
+        <v>-7.769511038333531e-08</v>
       </c>
       <c r="G38">
-        <v>4.162664681024347e-07</v>
+        <v>6.02652223102099e-07</v>
       </c>
       <c r="H38">
-        <v>0.0356446192321546</v>
+        <v>0.03325161843206158</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.0001642285434424555</v>
+        <v>-0.001141632435559127</v>
       </c>
       <c r="C39">
-        <v>-0.000311236085575917</v>
+        <v>6.499408354833537e-05</v>
       </c>
       <c r="D39">
-        <v>-2.414639345750574e-07</v>
+        <v>-8.102545733865833e-06</v>
       </c>
       <c r="E39">
-        <v>-0.0004714680085464301</v>
+        <v>0.0002265250450573623</v>
       </c>
       <c r="F39">
-        <v>-1.109399259474793e-05</v>
+        <v>0.0002295698552595567</v>
       </c>
       <c r="G39">
-        <v>2.648317778187369e-07</v>
+        <v>9.661526567673309e-07</v>
       </c>
       <c r="H39">
-        <v>0.0336673507410043</v>
+        <v>0.03101040369840749</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.0003517300918319875</v>
+        <v>3.677291532710883e-05</v>
       </c>
       <c r="C40">
-        <v>-0.0007624644331830637</v>
+        <v>-0.0004105582898099474</v>
       </c>
       <c r="D40">
-        <v>6.162313905835369e-06</v>
+        <v>-6.01072137988291e-06</v>
       </c>
       <c r="E40">
-        <v>-0.0003875126875319927</v>
+        <v>-0.0004767536189219657</v>
       </c>
       <c r="F40">
-        <v>-0.0001537190824990917</v>
+        <v>-3.573074120466664e-05</v>
       </c>
       <c r="G40">
-        <v>2.3766957381455e-07</v>
+        <v>6.007601584279616e-07</v>
       </c>
       <c r="H40">
-        <v>0.03503081216431708</v>
+        <v>0.0344283232393837</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.000609312890358313</v>
+        <v>0.0006863308749551307</v>
       </c>
       <c r="C41">
-        <v>0.0007516825406834154</v>
+        <v>-0.0001033991213120267</v>
       </c>
       <c r="D41">
-        <v>-5.028659567995859e-06</v>
+        <v>3.049006229624237e-06</v>
       </c>
       <c r="E41">
-        <v>0.0001724559394278256</v>
+        <v>4.853574440341624e-06</v>
       </c>
       <c r="F41">
-        <v>-0.0001904056305011075</v>
+        <v>5.012696379960084e-05</v>
       </c>
       <c r="G41">
-        <v>3.656984482560428e-07</v>
+        <v>-2.247595465234871e-07</v>
       </c>
       <c r="H41">
-        <v>0.03657661537068183</v>
+        <v>0.03230290371072855</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0002348385494384706</v>
+        <v>-7.784156774975817e-05</v>
       </c>
       <c r="C42">
-        <v>-0.001616620955974183</v>
+        <v>0.000773683406993867</v>
       </c>
       <c r="D42">
-        <v>8.498483416994259e-06</v>
+        <v>-2.715827862333465e-06</v>
       </c>
       <c r="E42">
-        <v>-0.0002801417722573217</v>
+        <v>0.0006837242985472357</v>
       </c>
       <c r="F42">
-        <v>-0.0003717071584177607</v>
+        <v>-0.00029679146280907</v>
       </c>
       <c r="G42">
-        <v>6.617886138576093e-07</v>
+        <v>3.220408950659892e-07</v>
       </c>
       <c r="H42">
-        <v>0.03659606123460573</v>
+        <v>0.03698677793333174</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.0007289129162881029</v>
+        <v>-0.0003246810117389981</v>
       </c>
       <c r="C43">
-        <v>-0.000394641376794579</v>
+        <v>0.0002622061062637043</v>
       </c>
       <c r="D43">
-        <v>-4.237290099053213e-06</v>
+        <v>1.403796933908358e-06</v>
       </c>
       <c r="E43">
-        <v>-0.0002875708397844234</v>
+        <v>-0.0001734082566406218</v>
       </c>
       <c r="F43">
-        <v>0.0002875698621494037</v>
+        <v>-0.0001582019990519236</v>
       </c>
       <c r="G43">
-        <v>6.237037652006778e-07</v>
+        <v>2.335015207522406e-07</v>
       </c>
       <c r="H43">
-        <v>0.03066775933736696</v>
+        <v>0.03537197756183316</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.0002135054377061351</v>
+        <v>-0.0002875852540681421</v>
       </c>
       <c r="C44">
-        <v>-0.0006036730172318096</v>
+        <v>-2.570151752501427e-05</v>
       </c>
       <c r="D44">
-        <v>-6.116446318769239e-06</v>
+        <v>-5.402570356948897e-06</v>
       </c>
       <c r="E44">
-        <v>-0.0001471600895284336</v>
+        <v>-0.0001804003630951241</v>
       </c>
       <c r="F44">
-        <v>-2.564267830750238e-05</v>
+        <v>3.518350631395023e-05</v>
       </c>
       <c r="G44">
-        <v>3.054488030874652e-07</v>
+        <v>6.728543673664452e-08</v>
       </c>
       <c r="H44">
-        <v>0.03420116328360158</v>
+        <v>0.03389494137104525</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9.648172222529155e-05</v>
+        <v>-0.000827673832357231</v>
       </c>
       <c r="C45">
-        <v>-0.0006309548738132296</v>
+        <v>0.0007420061287307835</v>
       </c>
       <c r="D45">
-        <v>8.990899270223469e-06</v>
+        <v>-2.725349482092824e-06</v>
       </c>
       <c r="E45">
-        <v>0.0002700951015877744</v>
+        <v>-0.0002086903516905041</v>
       </c>
       <c r="F45">
-        <v>-0.0001439345020203369</v>
+        <v>-0.0002269850829765045</v>
       </c>
       <c r="G45">
-        <v>-8.815468372666988e-08</v>
+        <v>1.919633179766554e-06</v>
       </c>
       <c r="H45">
-        <v>0.03452995149559202</v>
+        <v>0.03533807005480996</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.000235819772066213</v>
+        <v>0.000391488397213733</v>
       </c>
       <c r="C46">
-        <v>-0.0005125916196213572</v>
+        <v>0.0001845411050243095</v>
       </c>
       <c r="D46">
-        <v>5.653276131882718e-06</v>
+        <v>1.485212197479999e-06</v>
       </c>
       <c r="E46">
-        <v>-0.0001751457069755352</v>
+        <v>-0.0004932938873668524</v>
       </c>
       <c r="F46">
-        <v>-0.0001249318749134264</v>
+        <v>-7.828082027999412e-05</v>
       </c>
       <c r="G46">
-        <v>1.702609613270428e-07</v>
+        <v>-7.721904619789202e-08</v>
       </c>
       <c r="H46">
-        <v>0.0347037379271287</v>
+        <v>0.03411758098105153</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.0005099166283370304</v>
+        <v>0.0005599973747837995</v>
       </c>
       <c r="C47">
-        <v>-0.000736642350209659</v>
+        <v>0.0002967174807040434</v>
       </c>
       <c r="D47">
-        <v>2.463467006264402e-07</v>
+        <v>1.736853822779664e-06</v>
       </c>
       <c r="E47">
-        <v>-0.0001811832106214314</v>
+        <v>-0.000370910326575425</v>
       </c>
       <c r="F47">
-        <v>0.0001741981924410595</v>
+        <v>-0.0004216130305705342</v>
       </c>
       <c r="G47">
-        <v>5.816542970940829e-07</v>
+        <v>2.324617194348333e-07</v>
       </c>
       <c r="H47">
-        <v>0.03114115397962013</v>
+        <v>0.03815416408802273</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.0002612162311549605</v>
+        <v>-0.0004683671318443346</v>
       </c>
       <c r="C48">
-        <v>0.0002538548053680623</v>
+        <v>0.00119478834310909</v>
       </c>
       <c r="D48">
-        <v>-9.479373693619191e-06</v>
+        <v>-4.290167010572281e-06</v>
       </c>
       <c r="E48">
-        <v>0.0004109006214891089</v>
+        <v>0.0001240580520981173</v>
       </c>
       <c r="F48">
-        <v>-3.690884785040207e-05</v>
+        <v>-0.0001012222188528559</v>
       </c>
       <c r="G48">
-        <v>2.694807597856196e-07</v>
+        <v>5.084939573633012e-07</v>
       </c>
       <c r="H48">
-        <v>0.0347288586550751</v>
+        <v>0.03492707934831857</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.0007268911060478061</v>
+        <v>1.784390765657666e-05</v>
       </c>
       <c r="C49">
-        <v>-0.0005880518525207786</v>
+        <v>0.0002306371363790085</v>
       </c>
       <c r="D49">
-        <v>-6.033505041052767e-06</v>
+        <v>-3.950009877531937e-06</v>
       </c>
       <c r="E49">
-        <v>-0.0003140948882425602</v>
+        <v>0.0005045081234045096</v>
       </c>
       <c r="F49">
-        <v>5.52621232551468e-05</v>
+        <v>2.403775232641186e-05</v>
       </c>
       <c r="G49">
-        <v>7.980912637854132e-07</v>
+        <v>-3.495693987063494e-08</v>
       </c>
       <c r="H49">
-        <v>0.03327393036063757</v>
+        <v>0.03324697007936064</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-7.598469157421529e-05</v>
+        <v>-0.0003210290371806152</v>
       </c>
       <c r="C50">
-        <v>0.0007800509688112188</v>
+        <v>0.0005499332801557606</v>
       </c>
       <c r="D50">
-        <v>-2.243029960048009e-06</v>
+        <v>5.424878883755664e-07</v>
       </c>
       <c r="E50">
-        <v>-9.172074133620423e-05</v>
+        <v>0.0001319686763438452</v>
       </c>
       <c r="F50">
-        <v>-0.0001577237555354614</v>
+        <v>-3.584250837232157e-05</v>
       </c>
       <c r="G50">
-        <v>1.007464593649092e-06</v>
+        <v>4.252530535848922e-07</v>
       </c>
       <c r="H50">
-        <v>0.03489586685657008</v>
+        <v>0.03364114117819185</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0001918323095008861</v>
+        <v>-0.0005542744020978858</v>
       </c>
       <c r="C51">
-        <v>0.0003362305383601697</v>
+        <v>-0.001056266717300358</v>
       </c>
       <c r="D51">
-        <v>7.542962291551378e-06</v>
+        <v>6.272849957691455e-07</v>
       </c>
       <c r="E51">
-        <v>-0.0002191563649224723</v>
+        <v>0.000426840980660325</v>
       </c>
       <c r="F51">
-        <v>-0.0001887703931356477</v>
+        <v>-0.0001018350395737101</v>
       </c>
       <c r="G51">
-        <v>-1.432872498295389e-07</v>
+        <v>9.185180090275355e-07</v>
       </c>
       <c r="H51">
-        <v>0.03515304090787476</v>
+        <v>0.0341115589443656</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0003310403928010717</v>
+        <v>1.90024492579086e-05</v>
       </c>
       <c r="C52">
-        <v>-0.0005623084132198383</v>
+        <v>-4.405098191590461e-05</v>
       </c>
       <c r="D52">
-        <v>7.130348847772431e-06</v>
+        <v>-4.003129419792527e-07</v>
       </c>
       <c r="E52">
-        <v>0.0002281419776434847</v>
+        <v>-0.000352980799977462</v>
       </c>
       <c r="F52">
-        <v>-0.0003785777310006912</v>
+        <v>-0.000190841433322103</v>
       </c>
       <c r="G52">
-        <v>-2.061467243010314e-07</v>
+        <v>5.181198675582018e-07</v>
       </c>
       <c r="H52">
-        <v>0.03729987774156263</v>
+        <v>0.03543208675681244</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-2.67953503200202e-05</v>
+        <v>-0.000278728880556378</v>
       </c>
       <c r="C53">
-        <v>-1.449693297489105e-05</v>
+        <v>-0.0008786385597452569</v>
       </c>
       <c r="D53">
-        <v>-6.541987129294386e-06</v>
+        <v>3.491125280306e-06</v>
       </c>
       <c r="E53">
-        <v>0.0002649817045542839</v>
+        <v>-2.495723450094203e-05</v>
       </c>
       <c r="F53">
-        <v>4.886700573580524e-05</v>
+        <v>-0.0001193076094994043</v>
       </c>
       <c r="G53">
-        <v>6.418898290924553e-07</v>
+        <v>7.617028905672833e-07</v>
       </c>
       <c r="H53">
-        <v>0.03270908441994162</v>
+        <v>0.03417809667367231</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.0004146557304219626</v>
+        <v>0.0003962355569994446</v>
       </c>
       <c r="C54">
-        <v>-0.001359267962261603</v>
+        <v>-0.0008069317091561752</v>
       </c>
       <c r="D54">
-        <v>5.955056460330209e-06</v>
+        <v>2.014475637466408e-06</v>
       </c>
       <c r="E54">
-        <v>-0.000258130220063546</v>
+        <v>0.0004111966207033906</v>
       </c>
       <c r="F54">
-        <v>-0.0001418290464995269</v>
+        <v>-0.0002538256925790568</v>
       </c>
       <c r="G54">
-        <v>1.455343648499468e-06</v>
+        <v>4.064142028417836e-07</v>
       </c>
       <c r="H54">
-        <v>0.03412518306002567</v>
+        <v>0.03588655586174078</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0002196966250594674</v>
+        <v>-0.0001002010624052624</v>
       </c>
       <c r="C55">
-        <v>7.334559223498972e-05</v>
+        <v>-5.5931957470284e-05</v>
       </c>
       <c r="D55">
-        <v>4.499307845980956e-06</v>
+        <v>1.632909222001273e-07</v>
       </c>
       <c r="E55">
-        <v>-3.869210628372824e-05</v>
+        <v>-0.0006766951321096129</v>
       </c>
       <c r="F55">
-        <v>-4.71089777536193e-05</v>
+        <v>-4.974824568115474e-05</v>
       </c>
       <c r="G55">
-        <v>4.788521940350043e-07</v>
+        <v>2.528770392913251e-07</v>
       </c>
       <c r="H55">
-        <v>0.03303940630383535</v>
+        <v>0.03414904452505595</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.0001221035829003965</v>
+        <v>-0.0001691055897357287</v>
       </c>
       <c r="C56">
-        <v>-0.0003139270209589098</v>
+        <v>-0.0002344652823026163</v>
       </c>
       <c r="D56">
-        <v>-3.409671781938761e-06</v>
+        <v>1.255505431046785e-06</v>
       </c>
       <c r="E56">
-        <v>-0.000105588933194626</v>
+        <v>0.0006284427807765752</v>
       </c>
       <c r="F56">
-        <v>-0.0004649794857990825</v>
+        <v>-0.0002149448347596476</v>
       </c>
       <c r="G56">
-        <v>1.139163156171369e-06</v>
+        <v>1.688717031680143e-06</v>
       </c>
       <c r="H56">
-        <v>0.03900797369937115</v>
+        <v>0.03475187779936895</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0001736558944982266</v>
+        <v>-0.001058945402121631</v>
       </c>
       <c r="C57">
-        <v>1.80432122059925e-05</v>
+        <v>0.001187679650154924</v>
       </c>
       <c r="D57">
-        <v>1.354788555850061e-05</v>
+        <v>-6.532671594337447e-06</v>
       </c>
       <c r="E57">
-        <v>0.0006830208011955503</v>
+        <v>0.0002191353377531194</v>
       </c>
       <c r="F57">
-        <v>-0.0003548420347285843</v>
+        <v>0.0001746543457382278</v>
       </c>
       <c r="G57">
-        <v>7.369792593444876e-07</v>
+        <v>6.628835286484313e-07</v>
       </c>
       <c r="H57">
-        <v>0.03576704102269711</v>
+        <v>0.03197327467292391</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.0002448488155240823</v>
+        <v>0.0002576461333145842</v>
       </c>
       <c r="C58">
-        <v>0.0001394380525212707</v>
+        <v>-0.0004730313913814932</v>
       </c>
       <c r="D58">
-        <v>-1.090269768501139e-06</v>
+        <v>-4.1727455578098e-06</v>
       </c>
       <c r="E58">
-        <v>7.046227546796818e-05</v>
+        <v>-0.0002034112065161416</v>
       </c>
       <c r="F58">
-        <v>0.0001794136887700824</v>
+        <v>0.0001565088706698255</v>
       </c>
       <c r="G58">
-        <v>8.912264019553045e-07</v>
+        <v>-9.283028493176337e-07</v>
       </c>
       <c r="H58">
-        <v>0.0307037728956671</v>
+        <v>0.03268660254123575</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0002677472290659808</v>
+        <v>-0.0004129893151986045</v>
       </c>
       <c r="C59">
-        <v>-0.001180002448223191</v>
+        <v>6.46389484828779e-06</v>
       </c>
       <c r="D59">
-        <v>-1.61750268869102e-06</v>
+        <v>-5.515505800441028e-06</v>
       </c>
       <c r="E59">
-        <v>-0.0002467996620547849</v>
+        <v>0.0004511643985374465</v>
       </c>
       <c r="F59">
-        <v>-0.0001176343664222707</v>
+        <v>7.348008410395233e-05</v>
       </c>
       <c r="G59">
-        <v>1.408406082063952e-07</v>
+        <v>-5.068252587803375e-09</v>
       </c>
       <c r="H59">
-        <v>0.03526003098189362</v>
+        <v>0.03326588583331022</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0004780436263566027</v>
+        <v>-0.0003589268783653933</v>
       </c>
       <c r="C60">
-        <v>0.00108419341455594</v>
+        <v>1.13991903973017e-05</v>
       </c>
       <c r="D60">
-        <v>-4.305253058017062e-06</v>
+        <v>-2.346134286183794e-06</v>
       </c>
       <c r="E60">
-        <v>-0.0005127781418512653</v>
+        <v>0.0009325448540912565</v>
       </c>
       <c r="F60">
-        <v>5.421945534303855e-05</v>
+        <v>1.492306681281702e-05</v>
       </c>
       <c r="G60">
-        <v>1.752155915400876e-07</v>
+        <v>7.246365007295881e-07</v>
       </c>
       <c r="H60">
-        <v>0.03357675596794583</v>
+        <v>0.0332470574728224</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.0006095771783746666</v>
+        <v>-0.000827732535250221</v>
       </c>
       <c r="C61">
-        <v>0.0003894710316759442</v>
+        <v>0.0007234007465496571</v>
       </c>
       <c r="D61">
-        <v>-6.228357312173504e-06</v>
+        <v>1.474185644613629e-06</v>
       </c>
       <c r="E61">
-        <v>-0.0005228089104004734</v>
+        <v>-0.0001637369145431923</v>
       </c>
       <c r="F61">
-        <v>-0.000136043789955451</v>
+        <v>-8.669347826820357e-05</v>
       </c>
       <c r="G61">
-        <v>1.076165245064708e-06</v>
+        <v>1.149227626612121e-06</v>
       </c>
       <c r="H61">
-        <v>0.03574289973431763</v>
+        <v>0.03402847273145108</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0007326582041565599</v>
+        <v>-0.0003396685570607955</v>
       </c>
       <c r="C62">
-        <v>-0.000840577467258253</v>
+        <v>-0.0005105234864672436</v>
       </c>
       <c r="D62">
-        <v>4.660262733710841e-06</v>
+        <v>-5.565686324576402e-06</v>
       </c>
       <c r="E62">
-        <v>-0.0003085690632793486</v>
+        <v>-8.966559151551284e-05</v>
       </c>
       <c r="F62">
-        <v>-7.975581577488334e-05</v>
+        <v>-6.324041679038085e-05</v>
       </c>
       <c r="G62">
-        <v>-8.371215066779837e-07</v>
+        <v>1.781009335390478e-06</v>
       </c>
       <c r="H62">
-        <v>0.03465576444910756</v>
+        <v>0.03341811923670709</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.000344545358962948</v>
+        <v>-0.0008392623299835062</v>
       </c>
       <c r="C63">
-        <v>0.0005548237364762277</v>
+        <v>-0.001162138282759326</v>
       </c>
       <c r="D63">
-        <v>-2.513595539657852e-07</v>
+        <v>9.146047096713675e-06</v>
       </c>
       <c r="E63">
-        <v>0.0001985597362159919</v>
+        <v>9.857114168710171e-05</v>
       </c>
       <c r="F63">
-        <v>2.424500965029401e-05</v>
+        <v>-1.005954974195983e-05</v>
       </c>
       <c r="G63">
-        <v>8.725417536593955e-07</v>
+        <v>4.073914869521577e-07</v>
       </c>
       <c r="H63">
-        <v>0.03258596669747982</v>
+        <v>0.03288467106349402</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.0001031981898851452</v>
+        <v>-0.0003231599397337829</v>
       </c>
       <c r="C64">
-        <v>1.652547397070273e-05</v>
+        <v>-0.0008688286170890312</v>
       </c>
       <c r="D64">
-        <v>1.219406399150138e-06</v>
+        <v>6.490722275044354e-06</v>
       </c>
       <c r="E64">
-        <v>0.0002370262913728056</v>
+        <v>0.0002419090639376974</v>
       </c>
       <c r="F64">
-        <v>-9.057088505690547e-05</v>
+        <v>-2.438202749349163e-05</v>
       </c>
       <c r="G64">
-        <v>3.539786170269257e-07</v>
+        <v>-1.058120329664455e-08</v>
       </c>
       <c r="H64">
-        <v>0.03426968511474952</v>
+        <v>0.0337906742236971</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0002798113943727437</v>
+        <v>0.0008297445373310203</v>
       </c>
       <c r="C65">
-        <v>-0.0002926657982943255</v>
+        <v>-0.0005079005708146249</v>
       </c>
       <c r="D65">
-        <v>4.125375550651276e-06</v>
+        <v>-8.824341485296963e-07</v>
       </c>
       <c r="E65">
-        <v>-0.0002373614794105514</v>
+        <v>0.0003220333545612755</v>
       </c>
       <c r="F65">
-        <v>-0.0002251088196171104</v>
+        <v>-4.273749157765873e-05</v>
       </c>
       <c r="G65">
-        <v>9.068565428379568e-07</v>
+        <v>-6.564719847477806e-07</v>
       </c>
       <c r="H65">
-        <v>0.03512443777783643</v>
+        <v>0.03402156822888767</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.0002419545839814478</v>
+        <v>-0.001103017803098959</v>
       </c>
       <c r="C66">
-        <v>-9.347788337175141e-05</v>
+        <v>0.001092848955314406</v>
       </c>
       <c r="D66">
-        <v>7.751083247605658e-07</v>
+        <v>-6.034608205513273e-06</v>
       </c>
       <c r="E66">
-        <v>-0.0004563479113785483</v>
+        <v>-0.0005892892041700001</v>
       </c>
       <c r="F66">
-        <v>-0.0001077730466426953</v>
+        <v>-0.0002459380481641188</v>
       </c>
       <c r="G66">
-        <v>2.242525884129422e-07</v>
+        <v>2.11898928751966e-06</v>
       </c>
       <c r="H66">
-        <v>0.03512445490131707</v>
+        <v>0.03621325709944177</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.0009275594125102873</v>
+        <v>-0.0009038316217331605</v>
       </c>
       <c r="C67">
-        <v>-0.0004062429578765843</v>
+        <v>-0.0003240779057422946</v>
       </c>
       <c r="D67">
-        <v>-4.143301955803491e-06</v>
+        <v>3.552312757171807e-08</v>
       </c>
       <c r="E67">
-        <v>-0.0002635100606565612</v>
+        <v>0.0001417141039162829</v>
       </c>
       <c r="F67">
-        <v>-2.584847345536408e-05</v>
+        <v>1.014876954614748e-06</v>
       </c>
       <c r="G67">
-        <v>3.233351476921306e-07</v>
+        <v>1.133199221713769e-06</v>
       </c>
       <c r="H67">
-        <v>0.03491513592915949</v>
+        <v>0.03311146254935958</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.000434370538070977</v>
+        <v>-0.0007750086559995899</v>
       </c>
       <c r="C68">
-        <v>-0.0001209129519617383</v>
+        <v>-0.0001088780001403014</v>
       </c>
       <c r="D68">
-        <v>5.253293294103209e-06</v>
+        <v>2.639287275917378e-06</v>
       </c>
       <c r="E68">
-        <v>-0.0001964756627030537</v>
+        <v>-2.255497669686329e-06</v>
       </c>
       <c r="F68">
-        <v>-0.0002892134973613761</v>
+        <v>-0.0002488225840605518</v>
       </c>
       <c r="G68">
-        <v>-4.281732578500292e-07</v>
+        <v>1.188080543083424e-06</v>
       </c>
       <c r="H68">
-        <v>0.03682053647635299</v>
+        <v>0.0360234475530821</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.00055036483918473</v>
+        <v>-0.000949505767389909</v>
       </c>
       <c r="C69">
-        <v>-6.353760435315694e-05</v>
+        <v>0.0007080602251956622</v>
       </c>
       <c r="D69">
-        <v>-7.929911053306049e-06</v>
+        <v>-4.371372220710479e-06</v>
       </c>
       <c r="E69">
-        <v>0.000405218935895419</v>
+        <v>-0.0003181025418079395</v>
       </c>
       <c r="F69">
-        <v>2.493637588721581e-05</v>
+        <v>-0.0001686977192432125</v>
       </c>
       <c r="G69">
-        <v>5.944448794824704e-07</v>
+        <v>1.611566802740898e-06</v>
       </c>
       <c r="H69">
-        <v>0.03380638201063894</v>
+        <v>0.03556813597076056</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.001163513177927461</v>
+        <v>-0.001023061590993608</v>
       </c>
       <c r="C70">
-        <v>-0.0002124562996013076</v>
+        <v>0.0003352951708211328</v>
       </c>
       <c r="D70">
-        <v>-9.318647211970945e-06</v>
+        <v>-1.68020879161925e-06</v>
       </c>
       <c r="E70">
-        <v>-0.0004120174550285259</v>
+        <v>8.08312202676964e-06</v>
       </c>
       <c r="F70">
-        <v>-0.0001407998357545584</v>
+        <v>0.0001024725394591765</v>
       </c>
       <c r="G70">
-        <v>1.288026282767854e-06</v>
+        <v>7.346570062057808e-07</v>
       </c>
       <c r="H70">
-        <v>0.03624339539485893</v>
+        <v>0.03236909448591427</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.386820473304822e-05</v>
+        <v>-0.0007567395223513677</v>
       </c>
       <c r="C71">
-        <v>0.001256112499118287</v>
+        <v>-0.0003491283725804211</v>
       </c>
       <c r="D71">
-        <v>-5.067608464268396e-06</v>
+        <v>-6.539598975355354e-07</v>
       </c>
       <c r="E71">
-        <v>0.0001584366233424485</v>
+        <v>0.0004131629083894313</v>
       </c>
       <c r="F71">
-        <v>-0.0001987674437761625</v>
+        <v>-0.0002036068521885822</v>
       </c>
       <c r="G71">
-        <v>6.287443843343066e-07</v>
+        <v>8.699354568359349e-07</v>
       </c>
       <c r="H71">
-        <v>0.03600690188595684</v>
+        <v>0.03560623446627745</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.0003642164408201834</v>
+        <v>-0.0004180828300669327</v>
       </c>
       <c r="C72">
-        <v>-7.818510941971291e-05</v>
+        <v>-0.0003561922049987776</v>
       </c>
       <c r="D72">
-        <v>-4.418475243782898e-07</v>
+        <v>-2.570979335316947e-06</v>
       </c>
       <c r="E72">
-        <v>-3.331488588947246e-05</v>
+        <v>0.000433219609216294</v>
       </c>
       <c r="F72">
-        <v>-7.882687560526033e-05</v>
+        <v>-0.0002716994963453863</v>
       </c>
       <c r="G72">
-        <v>1.034951708823158e-06</v>
+        <v>9.176870996716146e-07</v>
       </c>
       <c r="H72">
-        <v>0.03385416013115454</v>
+        <v>0.03651394270998011</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.0005983948882523024</v>
+        <v>-0.0007492655039121282</v>
       </c>
       <c r="C73">
-        <v>0.0009954993131953708</v>
+        <v>0.0006019401559777546</v>
       </c>
       <c r="D73">
-        <v>-3.061307799824033e-06</v>
+        <v>-3.151712246667567e-06</v>
       </c>
       <c r="E73">
-        <v>0.0002948371619690346</v>
+        <v>0.0006623118218082938</v>
       </c>
       <c r="F73">
-        <v>-0.0002258994770302706</v>
+        <v>-4.875361613797995e-05</v>
       </c>
       <c r="G73">
-        <v>2.68966843675394e-07</v>
+        <v>1.062948672314558e-06</v>
       </c>
       <c r="H73">
-        <v>0.0368486005654911</v>
+        <v>0.03411173591513354</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.0004486729004077161</v>
+        <v>-0.0005765293769519788</v>
       </c>
       <c r="C74">
-        <v>-3.547789593693436e-05</v>
+        <v>0.0005707629069664455</v>
       </c>
       <c r="D74">
-        <v>4.922945099609473e-06</v>
+        <v>-1.340633449323409e-05</v>
       </c>
       <c r="E74">
-        <v>0.0001485977677005527</v>
+        <v>0.0003122213611160621</v>
       </c>
       <c r="F74">
-        <v>-0.0001694708243218404</v>
+        <v>-5.894494161996647e-05</v>
       </c>
       <c r="G74">
-        <v>1.183397922424976e-07</v>
+        <v>1.006418112351504e-06</v>
       </c>
       <c r="H74">
-        <v>0.03557822439488801</v>
+        <v>0.03503021782909967</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.0005116329040026101</v>
+        <v>-0.0007509677649975017</v>
       </c>
       <c r="C75">
-        <v>-0.0005990560675014924</v>
+        <v>0.0001558043266324333</v>
       </c>
       <c r="D75">
-        <v>-2.617545009158277e-06</v>
+        <v>-5.663919731378137e-07</v>
       </c>
       <c r="E75">
-        <v>-0.0005135386661918491</v>
+        <v>-4.204083786884041e-05</v>
       </c>
       <c r="F75">
-        <v>-0.0001801492571958164</v>
+        <v>6.232302092186513e-05</v>
       </c>
       <c r="G75">
-        <v>6.71732052388432e-07</v>
+        <v>7.304022452943527e-07</v>
       </c>
       <c r="H75">
-        <v>0.03625737798185924</v>
+        <v>0.03281015475241406</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0002620203633972805</v>
+        <v>0.0005005961826937693</v>
       </c>
       <c r="C76">
-        <v>0.0008589115847050533</v>
+        <v>-0.0005216987153415282</v>
       </c>
       <c r="D76">
-        <v>-7.192491090172208e-06</v>
+        <v>5.537331718004737e-06</v>
       </c>
       <c r="E76">
-        <v>-0.0001997172638775919</v>
+        <v>-0.0005726817511144955</v>
       </c>
       <c r="F76">
-        <v>-0.0001858767297068685</v>
+        <v>-0.0002169062161666662</v>
       </c>
       <c r="G76">
-        <v>2.601066301882463e-07</v>
+        <v>3.883449062186067e-07</v>
       </c>
       <c r="H76">
-        <v>0.03633139832558106</v>
+        <v>0.03522439642202765</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.0001563082615256553</v>
+        <v>8.492029862522182e-05</v>
       </c>
       <c r="C77">
-        <v>0.0005661124655566827</v>
+        <v>-0.0005023614053357996</v>
       </c>
       <c r="D77">
-        <v>-2.960455137177367e-06</v>
+        <v>-1.485853918324473e-06</v>
       </c>
       <c r="E77">
-        <v>0.0003629888593637658</v>
+        <v>-0.0005412957620375761</v>
       </c>
       <c r="F77">
-        <v>-0.000156683527778423</v>
+        <v>-0.0001747778472537052</v>
       </c>
       <c r="G77">
-        <v>1.275899050860124e-06</v>
+        <v>-5.906022316521654e-07</v>
       </c>
       <c r="H77">
-        <v>0.03453194428653703</v>
+        <v>0.03689084440176039</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.0003880738973166232</v>
+        <v>-0.001217741416921283</v>
       </c>
       <c r="C78">
-        <v>-0.0003690011804292884</v>
+        <v>-0.0003855437039497877</v>
       </c>
       <c r="D78">
-        <v>3.874268481406392e-06</v>
+        <v>-7.517535326314221e-06</v>
       </c>
       <c r="E78">
-        <v>-0.0002369800415396792</v>
+        <v>-0.0001903644751522528</v>
       </c>
       <c r="F78">
-        <v>-0.00012501025860709</v>
+        <v>0.0001730389528105765</v>
       </c>
       <c r="G78">
-        <v>9.476654778146876e-07</v>
+        <v>8.946010205979296e-08</v>
       </c>
       <c r="H78">
-        <v>0.03420841422923323</v>
+        <v>0.03293666382986248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0004803901534944138</v>
+        <v>-0.0005332283092362496</v>
       </c>
       <c r="C79">
-        <v>-0.0002063431021516139</v>
+        <v>0.0006070625184299639</v>
       </c>
       <c r="D79">
-        <v>3.708281052105185e-06</v>
+        <v>-5.368926725149621e-06</v>
       </c>
       <c r="E79">
-        <v>-0.0002399882747621575</v>
+        <v>-0.0001893101735670373</v>
       </c>
       <c r="F79">
-        <v>-6.681480907039879e-05</v>
+        <v>-9.514394468592411e-06</v>
       </c>
       <c r="G79">
-        <v>-4.260371843792743e-07</v>
+        <v>1.219367390186639e-06</v>
       </c>
       <c r="H79">
-        <v>0.0340930857134534</v>
+        <v>0.0334919048232548</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0001719456287379302</v>
+        <v>-0.0001222909950726609</v>
       </c>
       <c r="C80">
-        <v>-0.0009930199755900878</v>
+        <v>-0.0003309668974154575</v>
       </c>
       <c r="D80">
-        <v>2.971337084639017e-06</v>
+        <v>1.008165031200891e-06</v>
       </c>
       <c r="E80">
-        <v>-0.0002575713465846653</v>
+        <v>-0.0003213852397704955</v>
       </c>
       <c r="F80">
-        <v>-0.0002676257165726345</v>
+        <v>0.0001927941308491612</v>
       </c>
       <c r="G80">
-        <v>1.242500737737596e-06</v>
+        <v>7.285909709319626e-07</v>
       </c>
       <c r="H80">
-        <v>0.03581480732840765</v>
+        <v>0.0305112222029622</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.0005044285784637542</v>
+        <v>-0.0002198051672305892</v>
       </c>
       <c r="C81">
-        <v>0.0005902806010681749</v>
+        <v>0.0005642773646779094</v>
       </c>
       <c r="D81">
-        <v>-5.81185830941598e-06</v>
+        <v>2.327823331491556e-07</v>
       </c>
       <c r="E81">
-        <v>4.329967249422015e-05</v>
+        <v>-3.777796857197188e-05</v>
       </c>
       <c r="F81">
-        <v>2.819472248772616e-05</v>
+        <v>0.0001560114818811058</v>
       </c>
       <c r="G81">
-        <v>1.146688733384518e-06</v>
+        <v>3.711618771320876e-07</v>
       </c>
       <c r="H81">
-        <v>0.03317130126103054</v>
+        <v>0.03128570206561346</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.0002326227073457562</v>
+        <v>-0.0002235383348250988</v>
       </c>
       <c r="C82">
-        <v>0.0006974229648507936</v>
+        <v>0.00139899867881984</v>
       </c>
       <c r="D82">
-        <v>-3.91704573428273e-06</v>
+        <v>4.038293257118741e-06</v>
       </c>
       <c r="E82">
-        <v>0.0001154868242061041</v>
+        <v>0.0003123427781443304</v>
       </c>
       <c r="F82">
-        <v>0.0001852523312492332</v>
+        <v>2.080804928760588e-05</v>
       </c>
       <c r="G82">
-        <v>5.692926974691562e-07</v>
+        <v>1.036644461123398e-07</v>
       </c>
       <c r="H82">
-        <v>0.03102755408440535</v>
+        <v>0.03278898741632433</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.0004415155658692932</v>
+        <v>-0.000296777775882925</v>
       </c>
       <c r="C83">
-        <v>0.0004808086521350479</v>
+        <v>-0.001481169251559435</v>
       </c>
       <c r="D83">
-        <v>5.162021704076619e-06</v>
+        <v>4.452324457073592e-06</v>
       </c>
       <c r="E83">
-        <v>-0.0002948222181648336</v>
+        <v>0.0003128243892814853</v>
       </c>
       <c r="F83">
-        <v>0.0001161898501604665</v>
+        <v>-0.000325409699733598</v>
       </c>
       <c r="G83">
-        <v>5.233955373588406e-07</v>
+        <v>8.313993628604265e-07</v>
       </c>
       <c r="H83">
-        <v>0.0316048457640723</v>
+        <v>0.03680270926537874</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0005987053895188626</v>
+        <v>-0.0004466576100660502</v>
       </c>
       <c r="C84">
-        <v>-0.0006709197862617355</v>
+        <v>0.0005483528149050604</v>
       </c>
       <c r="D84">
-        <v>-1.509034567286426e-06</v>
+        <v>2.342782099123581e-06</v>
       </c>
       <c r="E84">
-        <v>-6.868799271443279e-05</v>
+        <v>-5.49193506149577e-05</v>
       </c>
       <c r="F84">
-        <v>-0.0001111812975493588</v>
+        <v>-2.539069502270109e-05</v>
       </c>
       <c r="G84">
-        <v>-4.347091248762267e-07</v>
+        <v>6.630155892400398e-07</v>
       </c>
       <c r="H84">
-        <v>0.03515848827325042</v>
+        <v>0.03346008093148874</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.0007902012413931957</v>
+        <v>-9.503148879690354e-05</v>
       </c>
       <c r="C85">
-        <v>0.0001502772095904078</v>
+        <v>0.0008130038401451164</v>
       </c>
       <c r="D85">
-        <v>-7.362796751435714e-06</v>
+        <v>-5.357390698759953e-06</v>
       </c>
       <c r="E85">
-        <v>-0.0005002908571526757</v>
+        <v>-0.0003540013749063313</v>
       </c>
       <c r="F85">
-        <v>-8.669838828352628e-05</v>
+        <v>1.818559810728331e-05</v>
       </c>
       <c r="G85">
-        <v>1.140729397870651e-06</v>
+        <v>2.593336277106042e-07</v>
       </c>
       <c r="H85">
-        <v>0.0353362231277571</v>
+        <v>0.03379144256240644</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0001663752456064957</v>
+        <v>-0.0004778226427680455</v>
       </c>
       <c r="C86">
-        <v>0.0004532410802132715</v>
+        <v>-9.558942474187447e-05</v>
       </c>
       <c r="D86">
-        <v>6.44439943601452e-06</v>
+        <v>-8.459458416045854e-06</v>
       </c>
       <c r="E86">
-        <v>-0.0002245146659199913</v>
+        <v>0.0009980368509209039</v>
       </c>
       <c r="F86">
-        <v>-0.0001083133526457263</v>
+        <v>0.000241037221716949</v>
       </c>
       <c r="G86">
-        <v>1.527208014736377e-06</v>
+        <v>9.459977429036897e-08</v>
       </c>
       <c r="H86">
-        <v>0.03283161277038051</v>
+        <v>0.03120877345994157</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0002204626659648408</v>
+        <v>-0.001179125621245591</v>
       </c>
       <c r="C87">
-        <v>0.0004596425094618866</v>
+        <v>0.000488333778075077</v>
       </c>
       <c r="D87">
-        <v>-5.442120908556518e-07</v>
+        <v>7.736201527658507e-07</v>
       </c>
       <c r="E87">
-        <v>-3.826396840383647e-05</v>
+        <v>-0.0001044364931025513</v>
       </c>
       <c r="F87">
-        <v>1.209984793011437e-05</v>
+        <v>-0.0001605020557873648</v>
       </c>
       <c r="G87">
-        <v>-3.758622495229876e-07</v>
+        <v>1.325059382196441e-06</v>
       </c>
       <c r="H87">
-        <v>0.03347101228374257</v>
+        <v>0.03471348716810091</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.0001136390996059101</v>
+        <v>2.4932607468883e-05</v>
       </c>
       <c r="C88">
-        <v>-0.0004149091285653538</v>
+        <v>-0.0001598914548956294</v>
       </c>
       <c r="D88">
-        <v>9.626159278824006e-06</v>
+        <v>8.096898605560501e-07</v>
       </c>
       <c r="E88">
-        <v>-8.791600469524458e-05</v>
+        <v>-0.0001124386655363407</v>
       </c>
       <c r="F88">
-        <v>4.296719953247245e-05</v>
+        <v>6.259122033199448e-05</v>
       </c>
       <c r="G88">
-        <v>-2.72757364953345e-07</v>
+        <v>-4.164157648542522e-07</v>
       </c>
       <c r="H88">
-        <v>0.0324352912412564</v>
+        <v>0.03319605201162509</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.0002422733630096088</v>
+        <v>0.0007273376364199319</v>
       </c>
       <c r="C89">
-        <v>0.000456601191880574</v>
+        <v>-0.0002180781363720777</v>
       </c>
       <c r="D89">
-        <v>-4.797772228768618e-06</v>
+        <v>2.370303293030097e-06</v>
       </c>
       <c r="E89">
-        <v>0.00011315137254592</v>
+        <v>-1.625735678158907e-05</v>
       </c>
       <c r="F89">
-        <v>6.408042477808878e-08</v>
+        <v>-0.0001593829559947752</v>
       </c>
       <c r="G89">
-        <v>4.738405407268751e-07</v>
+        <v>2.995064858857279e-07</v>
       </c>
       <c r="H89">
-        <v>0.03358139289156983</v>
+        <v>0.03456842861561</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0003287556770810271</v>
+        <v>-0.0008745475160119921</v>
       </c>
       <c r="C90">
-        <v>0.0004978407779818045</v>
+        <v>0.0009895337539255638</v>
       </c>
       <c r="D90">
-        <v>-3.208144494012969e-07</v>
+        <v>-7.91072009148151e-06</v>
       </c>
       <c r="E90">
-        <v>0.0002101598470263498</v>
+        <v>-0.0002070466329334372</v>
       </c>
       <c r="F90">
-        <v>-0.0002541892494176976</v>
+        <v>3.251578016208456e-05</v>
       </c>
       <c r="G90">
-        <v>6.108932932895934e-07</v>
+        <v>1.060965153380219e-06</v>
       </c>
       <c r="H90">
-        <v>0.03621011265027145</v>
+        <v>0.0335881174908442</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.0005228737902093967</v>
+        <v>0.0002824414958080283</v>
       </c>
       <c r="C91">
-        <v>0.000397745869470027</v>
+        <v>-0.001085968800538065</v>
       </c>
       <c r="D91">
-        <v>-1.015494319200193e-05</v>
+        <v>5.532348534492965e-06</v>
       </c>
       <c r="E91">
-        <v>0.0009848606577384303</v>
+        <v>0.0001569930251417509</v>
       </c>
       <c r="F91">
-        <v>0.0002289007792858875</v>
+        <v>-0.0002024081363337914</v>
       </c>
       <c r="G91">
-        <v>8.91906552198431e-07</v>
+        <v>1.921414731309066e-07</v>
       </c>
       <c r="H91">
-        <v>0.03075441096429086</v>
+        <v>0.03500558177872258</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-2.720412561924728e-05</v>
+        <v>-0.0004970354710415496</v>
       </c>
       <c r="C92">
-        <v>-0.0003977118750602753</v>
+        <v>-0.0009814280800900265</v>
       </c>
       <c r="D92">
-        <v>-5.982324888452395e-07</v>
+        <v>-1.034855342557249e-06</v>
       </c>
       <c r="E92">
-        <v>0.0002102181919336962</v>
+        <v>-0.0006809943578865163</v>
       </c>
       <c r="F92">
-        <v>-3.039470412758739e-05</v>
+        <v>-0.0002516539639390156</v>
       </c>
       <c r="G92">
-        <v>4.639167778065161e-07</v>
+        <v>1.060554133417165e-06</v>
       </c>
       <c r="H92">
-        <v>0.03345863678620378</v>
+        <v>0.03642529742863868</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0003619620987297088</v>
+        <v>0.0002115917924401748</v>
       </c>
       <c r="C93">
-        <v>0.001249607451242958</v>
+        <v>-5.44213240479872e-05</v>
       </c>
       <c r="D93">
-        <v>-3.60983900494378e-06</v>
+        <v>4.930675852169491e-06</v>
       </c>
       <c r="E93">
-        <v>2.588476827948549e-05</v>
+        <v>0.0003486867596731551</v>
       </c>
       <c r="F93">
-        <v>7.799523360981853e-05</v>
+        <v>-7.116896614601273e-05</v>
       </c>
       <c r="G93">
-        <v>1.083524644720195e-06</v>
+        <v>4.538415688184208e-07</v>
       </c>
       <c r="H93">
-        <v>0.03199164095581582</v>
+        <v>0.03349243080055517</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0002802688288029978</v>
+        <v>-0.0007381248800734477</v>
       </c>
       <c r="C94">
-        <v>0.0002787429308280511</v>
+        <v>-0.0006442864831567376</v>
       </c>
       <c r="D94">
-        <v>-6.580331460473443e-06</v>
+        <v>-2.262024787324367e-06</v>
       </c>
       <c r="E94">
-        <v>0.0002634088300396374</v>
+        <v>0.0005527014505227329</v>
       </c>
       <c r="F94">
-        <v>-5.445298982671449e-05</v>
+        <v>-0.0001125403178378907</v>
       </c>
       <c r="G94">
-        <v>1.078415696681188e-07</v>
+        <v>1.206631012125623e-06</v>
       </c>
       <c r="H94">
-        <v>0.03427593108014088</v>
+        <v>0.03488946213209274</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0001351830936945049</v>
+        <v>-0.0004250586407819699</v>
       </c>
       <c r="C95">
-        <v>-0.001530872692463363</v>
+        <v>0.00112285992541951</v>
       </c>
       <c r="D95">
-        <v>9.56479289806559e-07</v>
+        <v>-4.389356919211445e-06</v>
       </c>
       <c r="E95">
-        <v>-7.93516317731148e-05</v>
+        <v>0.0001429441392902971</v>
       </c>
       <c r="F95">
-        <v>-2.976852401059349e-05</v>
+        <v>8.51903537054631e-05</v>
       </c>
       <c r="G95">
-        <v>3.105423504123157e-07</v>
+        <v>4.51078505240272e-07</v>
       </c>
       <c r="H95">
-        <v>0.03382996370783477</v>
+        <v>0.03269806686964968</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.517470886842735e-05</v>
+        <v>-0.000186492167708758</v>
       </c>
       <c r="C96">
-        <v>0.0006638351198783855</v>
+        <v>0.0001077325658973591</v>
       </c>
       <c r="D96">
-        <v>4.53459600526444e-06</v>
+        <v>-8.119918413217653e-07</v>
       </c>
       <c r="E96">
-        <v>0.0003028535128156637</v>
+        <v>-1.192298527494598e-05</v>
       </c>
       <c r="F96">
-        <v>-0.0001585725192728854</v>
+        <v>-9.512238647660408e-05</v>
       </c>
       <c r="G96">
-        <v>-3.57864105509399e-07</v>
+        <v>2.091606021793936e-09</v>
       </c>
       <c r="H96">
-        <v>0.03527010919795864</v>
+        <v>0.0348372937251565</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0003436893825527882</v>
+        <v>-0.0009860893267376351</v>
       </c>
       <c r="C97">
-        <v>0.000441154832955323</v>
+        <v>0.0007826671860486265</v>
       </c>
       <c r="D97">
-        <v>2.008573586139048e-06</v>
+        <v>-9.584360203259201e-06</v>
       </c>
       <c r="E97">
-        <v>0.0004896758645622917</v>
+        <v>-0.0005314311432179086</v>
       </c>
       <c r="F97">
-        <v>-0.0001701932475165386</v>
+        <v>-0.0002214957331276999</v>
       </c>
       <c r="G97">
-        <v>9.276884539363813e-07</v>
+        <v>1.880084906415726e-06</v>
       </c>
       <c r="H97">
-        <v>0.03474692227483496</v>
+        <v>0.0363986453272038</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.607533997519727e-05</v>
+        <v>-6.352001649626666e-05</v>
       </c>
       <c r="C98">
-        <v>-0.0007057786489858414</v>
+        <v>-0.0001669019835553026</v>
       </c>
       <c r="D98">
-        <v>1.961001319326412e-06</v>
+        <v>-1.06610420891113e-06</v>
       </c>
       <c r="E98">
-        <v>0.0002971751101731313</v>
+        <v>-0.0005823912675802824</v>
       </c>
       <c r="F98">
-        <v>1.984366260909289e-05</v>
+        <v>7.873924333498918e-05</v>
       </c>
       <c r="G98">
-        <v>7.602227901777277e-07</v>
+        <v>-1.535700989765141e-07</v>
       </c>
       <c r="H98">
-        <v>0.03216273056550673</v>
+        <v>0.03315520354357077</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.000132813162375554</v>
+        <v>0.000120842290933806</v>
       </c>
       <c r="C99">
-        <v>-0.0004448527124435726</v>
+        <v>0.0005345303400705169</v>
       </c>
       <c r="D99">
-        <v>-6.072176150892687e-07</v>
+        <v>-7.577759676841201e-08</v>
       </c>
       <c r="E99">
-        <v>7.081764975361976e-05</v>
+        <v>-0.0002031183530533491</v>
       </c>
       <c r="F99">
-        <v>-0.0001224537102521856</v>
+        <v>9.391514500022837e-05</v>
       </c>
       <c r="G99">
-        <v>5.733210416423412e-07</v>
+        <v>-2.332665539339437e-07</v>
       </c>
       <c r="H99">
-        <v>0.03477956388661787</v>
+        <v>0.03263962629728327</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.0001131241622052491</v>
+        <v>-0.0005531285774983158</v>
       </c>
       <c r="C100">
-        <v>-0.0006599831052539755</v>
+        <v>-0.001536063913964776</v>
       </c>
       <c r="D100">
-        <v>5.680939739249377e-06</v>
+        <v>8.27280487114699e-06</v>
       </c>
       <c r="E100">
-        <v>0.0006408705347549191</v>
+        <v>0.0003303111041306935</v>
       </c>
       <c r="F100">
-        <v>-0.0001892775608715142</v>
+        <v>2.714491653980347e-05</v>
       </c>
       <c r="G100">
-        <v>1.121729352194977e-07</v>
+        <v>8.951239655129891e-07</v>
       </c>
       <c r="H100">
-        <v>0.03494871138487719</v>
+        <v>0.0321411449484706</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0004777635828321406</v>
+        <v>-0.0003465131941476729</v>
       </c>
       <c r="C101">
-        <v>-0.001292500747037077</v>
+        <v>0.0002293294736519757</v>
       </c>
       <c r="D101">
-        <v>2.97562183152018e-06</v>
+        <v>-6.858339199329148e-06</v>
       </c>
       <c r="E101">
-        <v>-0.0003130981121062977</v>
+        <v>0.0006210467239578556</v>
       </c>
       <c r="F101">
-        <v>-5.14080611938052e-05</v>
+        <v>2.362571738891834e-05</v>
       </c>
       <c r="G101">
-        <v>4.80816364422291e-07</v>
+        <v>6.570303600282399e-07</v>
       </c>
       <c r="H101">
-        <v>0.0340440105650068</v>
+        <v>0.03329071708160627</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.0001386147752077157</v>
+        <v>0.0006573122469852107</v>
       </c>
       <c r="C102">
-        <v>-0.0006177165586690522</v>
+        <v>-0.0001625257955987472</v>
       </c>
       <c r="D102">
-        <v>8.946746886839177e-06</v>
+        <v>1.25251135819403e-05</v>
       </c>
       <c r="E102">
-        <v>-8.870049179158027e-05</v>
+        <v>-0.0005987420219408165</v>
       </c>
       <c r="F102">
-        <v>-3.418437790065709e-05</v>
+        <v>-0.0002197073659088226</v>
       </c>
       <c r="G102">
-        <v>9.417369687094944e-07</v>
+        <v>-3.536039684260816e-07</v>
       </c>
       <c r="H102">
-        <v>0.03224802430034604</v>
+        <v>0.03535848710400487</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.0002259463641338974</v>
+        <v>-0.0002012447570284401</v>
       </c>
       <c r="C103">
-        <v>-0.001211011928291815</v>
+        <v>0.001329975683802886</v>
       </c>
       <c r="D103">
-        <v>-2.731534389258849e-06</v>
+        <v>-5.353825121554846e-06</v>
       </c>
       <c r="E103">
-        <v>2.730348035125466e-05</v>
+        <v>0.0001486096063444443</v>
       </c>
       <c r="F103">
-        <v>-0.0002214679722828147</v>
+        <v>7.796969355352863e-05</v>
       </c>
       <c r="G103">
-        <v>3.014069762479673e-07</v>
+        <v>-3.82580748646932e-07</v>
       </c>
       <c r="H103">
-        <v>0.03655828329342243</v>
+        <v>0.03332867491030369</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0006408914763039318</v>
+        <v>-0.0005161774999388972</v>
       </c>
       <c r="C104">
-        <v>-0.0001559348958983964</v>
+        <v>0.0005016516114216427</v>
       </c>
       <c r="D104">
-        <v>1.290209164010196e-05</v>
+        <v>-5.630392521889858e-07</v>
       </c>
       <c r="E104">
-        <v>-0.0002831239911232145</v>
+        <v>7.182575794373314e-05</v>
       </c>
       <c r="F104">
-        <v>-0.000309603460480171</v>
+        <v>-6.993068576195065e-05</v>
       </c>
       <c r="G104">
-        <v>-6.906004072123936e-07</v>
+        <v>1.24210164014644e-06</v>
       </c>
       <c r="H104">
-        <v>0.036611852083892</v>
+        <v>0.03349271776228769</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.0002340588807490625</v>
+        <v>-0.000184683361108307</v>
       </c>
       <c r="C105">
-        <v>-0.001582959318611895</v>
+        <v>-0.0001369509215433352</v>
       </c>
       <c r="D105">
-        <v>-2.402315116801244e-06</v>
+        <v>-1.504537647967562e-06</v>
       </c>
       <c r="E105">
-        <v>0.0001203471641825146</v>
+        <v>4.486328233852671e-05</v>
       </c>
       <c r="F105">
-        <v>-0.0001067486843425957</v>
+        <v>0.000125070071663064</v>
       </c>
       <c r="G105">
-        <v>1.265810109583142e-06</v>
+        <v>3.419263546224038e-08</v>
       </c>
       <c r="H105">
-        <v>0.03430805682776136</v>
+        <v>0.0321919900040387</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.0005513472835648543</v>
+        <v>9.664555696137981e-05</v>
       </c>
       <c r="C106">
-        <v>0.0003797519772042339</v>
+        <v>0.0001541367832579605</v>
       </c>
       <c r="D106">
-        <v>-2.126403213984299e-06</v>
+        <v>4.572910692889611e-06</v>
       </c>
       <c r="E106">
-        <v>0.0003386487032023024</v>
+        <v>-5.207060787552897e-05</v>
       </c>
       <c r="F106">
-        <v>-3.789106191174024e-05</v>
+        <v>-9.717716936435473e-05</v>
       </c>
       <c r="G106">
-        <v>1.581782477052688e-06</v>
+        <v>1.003931303521518e-06</v>
       </c>
       <c r="H106">
-        <v>0.03276760641523281</v>
+        <v>0.03312980897978854</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.0006545896187146127</v>
+        <v>-0.0006855600638548116</v>
       </c>
       <c r="C107">
-        <v>-0.0006659761799906488</v>
+        <v>-0.0002153938188720426</v>
       </c>
       <c r="D107">
-        <v>-2.26847470073581e-06</v>
+        <v>-1.647084921197495e-07</v>
       </c>
       <c r="E107">
-        <v>0.0002621323659797205</v>
+        <v>-1.201326722244031e-05</v>
       </c>
       <c r="F107">
-        <v>0.0001165047359877199</v>
+        <v>-1.688296253913885e-06</v>
       </c>
       <c r="G107">
-        <v>1.201993055895513e-06</v>
+        <v>1.12141285864447e-06</v>
       </c>
       <c r="H107">
-        <v>0.03181903263502647</v>
+        <v>0.03314079478536257</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3.465728299498335e-05</v>
+        <v>-0.0001658155001021725</v>
       </c>
       <c r="C108">
-        <v>7.374493617222355e-05</v>
+        <v>-0.001032219537472954</v>
       </c>
       <c r="D108">
-        <v>1.980808308021542e-06</v>
+        <v>5.895491223363784e-06</v>
       </c>
       <c r="E108">
-        <v>0.0004017683765679993</v>
+        <v>-0.0003479665074068682</v>
       </c>
       <c r="F108">
-        <v>-0.0002270065835319968</v>
+        <v>6.041297440594539e-06</v>
       </c>
       <c r="G108">
-        <v>7.464456897814652e-07</v>
+        <v>4.453274604416818e-07</v>
       </c>
       <c r="H108">
-        <v>0.03541533617215502</v>
+        <v>0.03275533278981054</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.00044383503701487</v>
+        <v>-0.0001117541493213772</v>
       </c>
       <c r="C109">
-        <v>0.0006761786532333339</v>
+        <v>0.0004549631602981825</v>
       </c>
       <c r="D109">
-        <v>-5.086326265600567e-06</v>
+        <v>8.458186070451573e-07</v>
       </c>
       <c r="E109">
-        <v>-0.0008630480903539933</v>
+        <v>0.0002534755432523732</v>
       </c>
       <c r="F109">
-        <v>-9.108281779906082e-05</v>
+        <v>-8.071787610058065e-05</v>
       </c>
       <c r="G109">
-        <v>7.630764681117187e-07</v>
+        <v>6.954938673448968e-07</v>
       </c>
       <c r="H109">
-        <v>0.03513516608457266</v>
+        <v>0.03358626718004606</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0001300365807450641</v>
+        <v>-6.588938826249005e-05</v>
       </c>
       <c r="C110">
-        <v>-0.0007364034946278668</v>
+        <v>-0.0005648897889470631</v>
       </c>
       <c r="D110">
-        <v>3.565896811331582e-06</v>
+        <v>-3.963982066216154e-06</v>
       </c>
       <c r="E110">
-        <v>0.0003676000757523237</v>
+        <v>0.0002947035249336212</v>
       </c>
       <c r="F110">
-        <v>-0.0002327970994033437</v>
+        <v>-8.770767573927445e-05</v>
       </c>
       <c r="G110">
-        <v>8.403853644508895e-07</v>
+        <v>8.519595006298288e-07</v>
       </c>
       <c r="H110">
-        <v>0.03550718310158322</v>
+        <v>0.03405787567002637</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.378816895350844e-05</v>
+        <v>-0.0002138430330922054</v>
       </c>
       <c r="C111">
-        <v>0.0005584316282806442</v>
+        <v>-0.0001487546553448074</v>
       </c>
       <c r="D111">
-        <v>-3.224889831059094e-06</v>
+        <v>6.421724267186449e-06</v>
       </c>
       <c r="E111">
-        <v>0.0004649062407030835</v>
+        <v>-0.0004087527745527467</v>
       </c>
       <c r="F111">
-        <v>0.00032696040514601</v>
+        <v>-0.0001103878354276555</v>
       </c>
       <c r="G111">
-        <v>-6.770755457168655e-07</v>
+        <v>8.001663245041716e-07</v>
       </c>
       <c r="H111">
-        <v>0.03028626925577363</v>
+        <v>0.0339226799726112</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.000316822776329783</v>
+        <v>9.90985089631205e-05</v>
       </c>
       <c r="C112">
-        <v>-0.0005412867986483062</v>
+        <v>0.0004228558137543235</v>
       </c>
       <c r="D112">
-        <v>1.243592345594648e-06</v>
+        <v>6.16208478905798e-06</v>
       </c>
       <c r="E112">
-        <v>0.0001205004532869626</v>
+        <v>0.000279880623332656</v>
       </c>
       <c r="F112">
-        <v>-0.0001020129733523924</v>
+        <v>0.0001850217983040744</v>
       </c>
       <c r="G112">
-        <v>9.04451325665429e-08</v>
+        <v>-7.382876778716505e-07</v>
       </c>
       <c r="H112">
-        <v>0.03433508972772931</v>
+        <v>0.0313023344712647</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.670013806332281e-06</v>
+        <v>0.0004630399054977707</v>
       </c>
       <c r="C113">
-        <v>-6.589623809919939e-05</v>
+        <v>0.0004912386443981351</v>
       </c>
       <c r="D113">
-        <v>4.057766844832062e-06</v>
+        <v>1.354337871832663e-06</v>
       </c>
       <c r="E113">
-        <v>-0.0005361508179481493</v>
+        <v>-0.0002212985037433474</v>
       </c>
       <c r="F113">
-        <v>0.0001340043651145357</v>
+        <v>-0.0001042837163438394</v>
       </c>
       <c r="G113">
-        <v>4.527106182780327e-07</v>
+        <v>-1.12261467657755e-06</v>
       </c>
       <c r="H113">
-        <v>0.03114990253611648</v>
+        <v>0.03565763395895979</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.0002687831999571933</v>
+        <v>-9.923226534942872e-05</v>
       </c>
       <c r="C114">
-        <v>-0.00158410182367419</v>
+        <v>-0.0001146117764552847</v>
       </c>
       <c r="D114">
-        <v>6.758876129846387e-07</v>
+        <v>6.517551198222114e-06</v>
       </c>
       <c r="E114">
-        <v>-0.0001290293439196663</v>
+        <v>-0.0003141057974684405</v>
       </c>
       <c r="F114">
-        <v>-0.0003750113440989893</v>
+        <v>-9.809625336475256e-05</v>
       </c>
       <c r="G114">
-        <v>1.438159776458539e-06</v>
+        <v>-1.655561001153457e-07</v>
       </c>
       <c r="H114">
-        <v>0.03724539218682177</v>
+        <v>0.03437381236429085</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0001420628352428071</v>
+        <v>-0.0005198224404647433</v>
       </c>
       <c r="C115">
-        <v>-0.0008858460766486228</v>
+        <v>-0.0008674489277899932</v>
       </c>
       <c r="D115">
-        <v>-5.620740642463753e-06</v>
+        <v>1.479335021525898e-06</v>
       </c>
       <c r="E115">
-        <v>-0.0001519595840392442</v>
+        <v>-0.000107984133840687</v>
       </c>
       <c r="F115">
-        <v>-0.0001919311434912316</v>
+        <v>-0.0001053811668565714</v>
       </c>
       <c r="G115">
-        <v>9.081261761567069e-07</v>
+        <v>1.467774709333383e-06</v>
       </c>
       <c r="H115">
-        <v>0.03561875932633127</v>
+        <v>0.03373530805882216</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.0008589059246984522</v>
+        <v>0.0003874208910832856</v>
       </c>
       <c r="C116">
-        <v>-0.0004514041089805972</v>
+        <v>8.717895595803824e-05</v>
       </c>
       <c r="D116">
-        <v>-3.749507884920913e-06</v>
+        <v>-9.598080976505651e-07</v>
       </c>
       <c r="E116">
-        <v>-0.0003109640358705257</v>
+        <v>9.271261639719197e-05</v>
       </c>
       <c r="F116">
-        <v>-9.566049280284445e-05</v>
+        <v>-9.03547957209755e-05</v>
       </c>
       <c r="G116">
-        <v>1.998044705038027e-06</v>
+        <v>4.599631150599064e-07</v>
       </c>
       <c r="H116">
-        <v>0.03393525651065785</v>
+        <v>0.03404151670148923</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0001238356165786231</v>
+        <v>-0.0009360813163477714</v>
       </c>
       <c r="C117">
-        <v>-0.0002790402917411865</v>
+        <v>-0.0009413554805335819</v>
       </c>
       <c r="D117">
-        <v>8.35162247070103e-07</v>
+        <v>6.588803117664539e-07</v>
       </c>
       <c r="E117">
-        <v>0.0006007850414318748</v>
+        <v>0.0001880522761643771</v>
       </c>
       <c r="F117">
-        <v>-0.0003505326544498155</v>
+        <v>7.551696722960205e-05</v>
       </c>
       <c r="G117">
-        <v>2.050424818791787e-08</v>
+        <v>1.277322364741769e-06</v>
       </c>
       <c r="H117">
-        <v>0.03761467267699022</v>
+        <v>0.03221671337489438</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.0004319818915608192</v>
+        <v>-0.0004359642326521322</v>
       </c>
       <c r="C118">
-        <v>4.973271633903174e-05</v>
+        <v>8.167699266721956e-05</v>
       </c>
       <c r="D118">
-        <v>-8.38907536624231e-07</v>
+        <v>-4.735239618225298e-07</v>
       </c>
       <c r="E118">
-        <v>-0.0005206606207458254</v>
+        <v>0.0002533972447725102</v>
       </c>
       <c r="F118">
-        <v>-0.0001769075480292221</v>
+        <v>0.0001095386992094965</v>
       </c>
       <c r="G118">
-        <v>1.07264586038064e-06</v>
+        <v>9.056506898833485e-07</v>
       </c>
       <c r="H118">
-        <v>0.03527557446707187</v>
+        <v>0.03173045360128141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.0001832831566255255</v>
+        <v>0.0002580673559391818</v>
       </c>
       <c r="C119">
-        <v>-0.0007485831365045314</v>
+        <v>-0.0006760611274330085</v>
       </c>
       <c r="D119">
-        <v>6.980672851173952e-06</v>
+        <v>-2.298808717109625e-06</v>
       </c>
       <c r="E119">
-        <v>0.0007882724934678252</v>
+        <v>-0.0001389270680672919</v>
       </c>
       <c r="F119">
-        <v>-0.0002721034033138932</v>
+        <v>-0.0001722106044821938</v>
       </c>
       <c r="G119">
-        <v>4.580303358573525e-07</v>
+        <v>-6.070738445316411e-07</v>
       </c>
       <c r="H119">
-        <v>0.03574482018848361</v>
+        <v>0.03663123997324581</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.0003478495688068644</v>
+        <v>-0.000160286401803161</v>
       </c>
       <c r="C120">
-        <v>0.000180420505787504</v>
+        <v>-0.0001888554529288284</v>
       </c>
       <c r="D120">
-        <v>2.90928252242342e-06</v>
+        <v>-5.929269012092306e-07</v>
       </c>
       <c r="E120">
-        <v>0.000902942917103966</v>
+        <v>-0.0001692565423378999</v>
       </c>
       <c r="F120">
-        <v>-0.0001836068390961417</v>
+        <v>0.0001725875739807557</v>
       </c>
       <c r="G120">
-        <v>1.372198980863426e-06</v>
+        <v>5.308524627630344e-07</v>
       </c>
       <c r="H120">
-        <v>0.03440708327228614</v>
+        <v>0.03126080305179934</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.0007378717375747174</v>
+        <v>-9.600688276619309e-05</v>
       </c>
       <c r="C121">
-        <v>0.0007668316486925436</v>
+        <v>-0.0009948330707635763</v>
       </c>
       <c r="D121">
-        <v>-2.172159116626667e-06</v>
+        <v>3.171078004299973e-06</v>
       </c>
       <c r="E121">
-        <v>-0.0006013326942986771</v>
+        <v>0.0006034728246734761</v>
       </c>
       <c r="F121">
-        <v>9.310736534558076e-05</v>
+        <v>-3.157828555268609e-06</v>
       </c>
       <c r="G121">
-        <v>6.427526145585008e-07</v>
+        <v>-5.835843287336819e-07</v>
       </c>
       <c r="H121">
-        <v>0.03271646607540059</v>
+        <v>0.03379028119740684</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC1_coef.xlsx
+++ b/FOMC1_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0006411309669078157</v>
+        <v>-0.008962161746070152</v>
       </c>
       <c r="C2">
-        <v>0.0009766200724454694</v>
+        <v>-0.004114178301239027</v>
       </c>
       <c r="D2">
-        <v>-8.682481121243529e-06</v>
+        <v>4.22019669784823e-05</v>
       </c>
       <c r="E2">
-        <v>-0.0004414649576291035</v>
+        <v>0.001003290019686409</v>
       </c>
       <c r="F2">
-        <v>0.0001305406775715627</v>
+        <v>-0.00195627796660739</v>
       </c>
       <c r="G2">
-        <v>1.84446606617228e-07</v>
+        <v>-2.066587340370709e-06</v>
       </c>
       <c r="H2">
-        <v>0.03300389773082732</v>
+        <v>0.1119410494237765</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0001480329094459402</v>
+        <v>-0.01740474383562774</v>
       </c>
       <c r="C3">
-        <v>-0.0001944256308018842</v>
+        <v>-0.0004064324525183331</v>
       </c>
       <c r="D3">
-        <v>1.961287929986543e-07</v>
+        <v>-5.016247044714123e-05</v>
       </c>
       <c r="E3">
-        <v>0.0001518294903065064</v>
+        <v>-0.003820649592568275</v>
       </c>
       <c r="F3">
-        <v>-0.0002284856983768993</v>
+        <v>-0.00129174217889599</v>
       </c>
       <c r="G3">
-        <v>5.13633386690432e-07</v>
+        <v>-4.517376597869655e-06</v>
       </c>
       <c r="H3">
-        <v>0.03605769316003216</v>
+        <v>0.1271771922526961</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0001273443385683916</v>
+        <v>-0.01403021030880936</v>
       </c>
       <c r="C4">
-        <v>0.0005019476722342266</v>
+        <v>-0.005155073551671567</v>
       </c>
       <c r="D4">
-        <v>3.06521691585197e-06</v>
+        <v>5.818449200699597e-05</v>
       </c>
       <c r="E4">
-        <v>-0.0003788917770260851</v>
+        <v>-0.0006058108882178032</v>
       </c>
       <c r="F4">
-        <v>-0.0004455981084384112</v>
+        <v>-0.001721083098263161</v>
       </c>
       <c r="G4">
-        <v>3.075324626346075e-07</v>
+        <v>-2.037610692006475e-06</v>
       </c>
       <c r="H4">
-        <v>0.03865973736647831</v>
+        <v>0.1118032718441743</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.066745180550748e-05</v>
+        <v>-0.0146077826860845</v>
       </c>
       <c r="C5">
-        <v>-0.0007071299403750952</v>
+        <v>-0.003764590839605818</v>
       </c>
       <c r="D5">
-        <v>-3.184247788066096e-06</v>
+        <v>5.837795747919058e-05</v>
       </c>
       <c r="E5">
-        <v>0.0002577327682207857</v>
+        <v>0.003552447622625736</v>
       </c>
       <c r="F5">
-        <v>-0.0001456772252418384</v>
+        <v>-0.001534795597872471</v>
       </c>
       <c r="G5">
-        <v>3.306387489195053e-07</v>
+        <v>-3.237548632058972e-06</v>
       </c>
       <c r="H5">
-        <v>0.03561391420849273</v>
+        <v>0.1131934472495081</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0003054861900784267</v>
+        <v>-0.00951932835681946</v>
       </c>
       <c r="C6">
-        <v>0.0002903501804260782</v>
+        <v>-0.00287465777621727</v>
       </c>
       <c r="D6">
-        <v>7.719078204068005e-07</v>
+        <v>8.616505278185685e-05</v>
       </c>
       <c r="E6">
-        <v>-0.0004406324372329788</v>
+        <v>0.003547993180396045</v>
       </c>
       <c r="F6">
-        <v>-0.0001849384947340111</v>
+        <v>-0.003614851433557935</v>
       </c>
       <c r="G6">
-        <v>1.512807315564431e-06</v>
+        <v>-2.200203397501144e-06</v>
       </c>
       <c r="H6">
-        <v>0.03483650699948888</v>
+        <v>0.1303854950071082</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0004596998213357616</v>
+        <v>-0.01135670353533322</v>
       </c>
       <c r="C7">
-        <v>-8.755942228362026e-05</v>
+        <v>-0.002689174759181752</v>
       </c>
       <c r="D7">
-        <v>-2.297011154254195e-06</v>
+        <v>8.431850108290016e-05</v>
       </c>
       <c r="E7">
-        <v>-0.0003766789217673171</v>
+        <v>0.001158150370463344</v>
       </c>
       <c r="F7">
-        <v>-0.0001407124466293657</v>
+        <v>-0.002820571963503665</v>
       </c>
       <c r="G7">
-        <v>1.122357081496408e-06</v>
+        <v>-2.41564680936558e-06</v>
       </c>
       <c r="H7">
-        <v>0.03487450635611762</v>
+        <v>0.1214044420998368</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0002850015719910932</v>
+        <v>-0.007269443230913119</v>
       </c>
       <c r="C8">
-        <v>0.0006158561271068892</v>
+        <v>0.0009007361226410914</v>
       </c>
       <c r="D8">
-        <v>7.828002658747598e-06</v>
+        <v>8.183016150312825e-05</v>
       </c>
       <c r="E8">
-        <v>0.0003808171087361922</v>
+        <v>0.001790800589888376</v>
       </c>
       <c r="F8">
-        <v>3.103223078687514e-05</v>
+        <v>-0.002611663909631051</v>
       </c>
       <c r="G8">
-        <v>-5.100683965747946e-07</v>
+        <v>-5.090100979173567e-06</v>
       </c>
       <c r="H8">
-        <v>0.03238358718787228</v>
+        <v>0.1221803625556205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.0005200978909040374</v>
+        <v>-0.01223713378661134</v>
       </c>
       <c r="C9">
-        <v>-3.799924421955337e-05</v>
+        <v>0.002603567781803989</v>
       </c>
       <c r="D9">
-        <v>2.571716251166107e-08</v>
+        <v>3.534085090972965e-05</v>
       </c>
       <c r="E9">
-        <v>8.080071577203085e-06</v>
+        <v>0.0005194737073815001</v>
       </c>
       <c r="F9">
-        <v>-4.519799022920145e-05</v>
+        <v>-0.002683510756694116</v>
       </c>
       <c r="G9">
-        <v>8.909681465278446e-07</v>
+        <v>-4.461350212775772e-06</v>
       </c>
       <c r="H9">
-        <v>0.0334656467035152</v>
+        <v>0.1317085845462192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.871610349836792e-05</v>
+        <v>-0.01104701928673903</v>
       </c>
       <c r="C10">
-        <v>4.369112766575611e-05</v>
+        <v>0.004327480430737758</v>
       </c>
       <c r="D10">
-        <v>1.206066157888384e-06</v>
+        <v>1.365636476200563e-05</v>
       </c>
       <c r="E10">
-        <v>-4.48370434139797e-05</v>
+        <v>0.0007715828025411237</v>
       </c>
       <c r="F10">
-        <v>5.065966875908282e-05</v>
+        <v>-0.001046979809561365</v>
       </c>
       <c r="G10">
-        <v>2.10232343534589e-07</v>
+        <v>-6.85854327667463e-06</v>
       </c>
       <c r="H10">
-        <v>0.03252760955305299</v>
+        <v>0.1149653990822564</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.843737817888049e-05</v>
+        <v>-0.007219137190332756</v>
       </c>
       <c r="C11">
-        <v>0.0007333227944401166</v>
+        <v>-0.002555780041048409</v>
       </c>
       <c r="D11">
-        <v>2.287324694919259e-06</v>
+        <v>6.362116222456593e-05</v>
       </c>
       <c r="E11">
-        <v>0.0002714274625449792</v>
+        <v>0.003703199287867845</v>
       </c>
       <c r="F11">
-        <v>-7.807380571818435e-05</v>
+        <v>-0.002653516237889301</v>
       </c>
       <c r="G11">
-        <v>3.685781614765128e-07</v>
+        <v>-3.459180581595969e-06</v>
       </c>
       <c r="H11">
-        <v>0.03382283107210966</v>
+        <v>0.1219899547612889</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0007189298945848041</v>
+        <v>-0.01076827821021049</v>
       </c>
       <c r="C12">
-        <v>8.945787466618565e-05</v>
+        <v>0.005225255170453501</v>
       </c>
       <c r="D12">
-        <v>2.068926266815288e-06</v>
+        <v>8.525080441243983e-05</v>
       </c>
       <c r="E12">
-        <v>5.233633186801576e-05</v>
+        <v>0.001629251628907126</v>
       </c>
       <c r="F12">
-        <v>-8.259430047238597e-05</v>
+        <v>-0.0028450519767358</v>
       </c>
       <c r="G12">
-        <v>-4.859096407233036e-08</v>
+        <v>-4.776476667901005e-06</v>
       </c>
       <c r="H12">
-        <v>0.03363839618124442</v>
+        <v>0.1283017257369815</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0006343648769895161</v>
+        <v>-0.01174414062094468</v>
       </c>
       <c r="C13">
-        <v>-6.114466912039295e-06</v>
+        <v>0.003764699482574069</v>
       </c>
       <c r="D13">
-        <v>-1.44480208589608e-07</v>
+        <v>7.543884764939506e-05</v>
       </c>
       <c r="E13">
-        <v>0.0001103460711190975</v>
+        <v>0.000279335658978544</v>
       </c>
       <c r="F13">
-        <v>5.46827118061042e-05</v>
+        <v>-0.003731074781503768</v>
       </c>
       <c r="G13">
-        <v>5.87958378957069e-07</v>
+        <v>-1.959077621728146e-06</v>
       </c>
       <c r="H13">
-        <v>0.03279925457986096</v>
+        <v>0.1344458721884979</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0001985460185701365</v>
+        <v>-0.01020086357700235</v>
       </c>
       <c r="C14">
-        <v>-0.0005851494622838683</v>
+        <v>-0.001398019340891304</v>
       </c>
       <c r="D14">
-        <v>6.531119025173876e-06</v>
+        <v>4.794858418363907e-05</v>
       </c>
       <c r="E14">
-        <v>0.000461807027374278</v>
+        <v>0.0007868896201023642</v>
       </c>
       <c r="F14">
-        <v>3.933893625583434e-05</v>
+        <v>-0.002878496162490149</v>
       </c>
       <c r="G14">
-        <v>-1.460060932158146e-07</v>
+        <v>-4.467376841345038e-06</v>
       </c>
       <c r="H14">
-        <v>0.03251406279941953</v>
+        <v>0.1303947523285051</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0002494777812336948</v>
+        <v>-0.01191384359144771</v>
       </c>
       <c r="C15">
-        <v>-0.0008075642782676772</v>
+        <v>-0.005535268095224557</v>
       </c>
       <c r="D15">
-        <v>3.520243371497415e-06</v>
+        <v>8.914196191390803e-05</v>
       </c>
       <c r="E15">
-        <v>-0.0002691536600124625</v>
+        <v>0.0002726356351209283</v>
       </c>
       <c r="F15">
-        <v>-0.0002955635101244126</v>
+        <v>-0.002013519316748601</v>
       </c>
       <c r="G15">
-        <v>7.619644761830836e-08</v>
+        <v>-2.014901392688977e-06</v>
       </c>
       <c r="H15">
-        <v>0.03676671198062764</v>
+        <v>0.109835641312468</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.923852959247405e-05</v>
+        <v>-0.01301661749924324</v>
       </c>
       <c r="C16">
-        <v>-0.001164435141317769</v>
+        <v>0.001844199768883321</v>
       </c>
       <c r="D16">
-        <v>-6.324470444150128e-06</v>
+        <v>1.356283836911689e-05</v>
       </c>
       <c r="E16">
-        <v>0.0003280700385743449</v>
+        <v>0.004435199153394347</v>
       </c>
       <c r="F16">
-        <v>-0.000285427766294723</v>
+        <v>-0.003475074018999928</v>
       </c>
       <c r="G16">
-        <v>7.733934399601793e-07</v>
+        <v>-2.998881680255693e-06</v>
       </c>
       <c r="H16">
-        <v>0.0370552877803503</v>
+        <v>0.1406925262693937</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0002277482331868351</v>
+        <v>-0.01273295686469289</v>
       </c>
       <c r="C17">
-        <v>3.446738209503025e-05</v>
+        <v>-0.003982230431513081</v>
       </c>
       <c r="D17">
-        <v>-1.15476607323467e-06</v>
+        <v>5.445766918730204e-05</v>
       </c>
       <c r="E17">
-        <v>2.120032764698493e-06</v>
+        <v>0.001572771838778221</v>
       </c>
       <c r="F17">
-        <v>-0.0002801329023999581</v>
+        <v>-0.002055167482928714</v>
       </c>
       <c r="G17">
-        <v>2.652464200957307e-07</v>
+        <v>-2.33670045978633e-06</v>
       </c>
       <c r="H17">
-        <v>0.0367046654600872</v>
+        <v>0.1136895036222129</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003507611434649229</v>
+        <v>-0.007866447673795648</v>
       </c>
       <c r="C18">
-        <v>0.0008090383810481993</v>
+        <v>-0.001805173107608643</v>
       </c>
       <c r="D18">
-        <v>1.299910587041166e-06</v>
+        <v>3.878867325942517e-05</v>
       </c>
       <c r="E18">
-        <v>-0.0005037119210559091</v>
+        <v>0.001812032604151775</v>
       </c>
       <c r="F18">
-        <v>-0.0002819231609679519</v>
+        <v>-0.002984880366587687</v>
       </c>
       <c r="G18">
-        <v>-4.822151299725246e-08</v>
+        <v>-2.636045380811554e-06</v>
       </c>
       <c r="H18">
-        <v>0.03700998629418534</v>
+        <v>0.125829513690235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.382221315203454e-05</v>
+        <v>-0.01003992966753052</v>
       </c>
       <c r="C19">
-        <v>0.0009911140925536021</v>
+        <v>-0.005321868779041386</v>
       </c>
       <c r="D19">
-        <v>6.350029952976943e-06</v>
+        <v>7.389384925450622e-05</v>
       </c>
       <c r="E19">
-        <v>-2.91382346361696e-05</v>
+        <v>0.0007860409876359609</v>
       </c>
       <c r="F19">
-        <v>0.0001490361010287229</v>
+        <v>-0.002523111066781013</v>
       </c>
       <c r="G19">
-        <v>1.108944535231318e-06</v>
+        <v>-5.132714528619294e-06</v>
       </c>
       <c r="H19">
-        <v>0.0297050008108188</v>
+        <v>0.1267703475304802</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0002330996475096538</v>
+        <v>-0.0148409584151293</v>
       </c>
       <c r="C20">
-        <v>3.405117210970301e-05</v>
+        <v>0.01747891407436826</v>
       </c>
       <c r="D20">
-        <v>1.446974000657002e-06</v>
+        <v>2.390748511468393e-05</v>
       </c>
       <c r="E20">
-        <v>0.0002966376781693841</v>
+        <v>0.004020644282649311</v>
       </c>
       <c r="F20">
-        <v>-3.672140925057861e-05</v>
+        <v>-0.0004223024602040444</v>
       </c>
       <c r="G20">
-        <v>3.574321578812241e-07</v>
+        <v>-4.500905990452317e-06</v>
       </c>
       <c r="H20">
-        <v>0.03348754695336186</v>
+        <v>0.1023561452522066</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0002922028771271809</v>
+        <v>-0.01359804413690465</v>
       </c>
       <c r="C21">
-        <v>-0.0004545640578500603</v>
+        <v>0.003358188290501272</v>
       </c>
       <c r="D21">
-        <v>-5.621286008106102e-06</v>
+        <v>1.889356728158731e-05</v>
       </c>
       <c r="E21">
-        <v>-0.000176133234421838</v>
+        <v>0.003031175559728698</v>
       </c>
       <c r="F21">
-        <v>0.0001156900588321759</v>
+        <v>-0.001696349124883791</v>
       </c>
       <c r="G21">
-        <v>1.984892975225265e-07</v>
+        <v>-2.901836806785411e-06</v>
       </c>
       <c r="H21">
-        <v>0.03246286195943879</v>
+        <v>0.1157254569912591</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0001198943277416103</v>
+        <v>-0.006603039561087013</v>
       </c>
       <c r="C22">
-        <v>-6.389876835033291e-05</v>
+        <v>0.001275343720576555</v>
       </c>
       <c r="D22">
-        <v>-7.155701510695783e-06</v>
+        <v>5.34049408239301e-05</v>
       </c>
       <c r="E22">
-        <v>-0.0002646607572583531</v>
+        <v>0.001447840628322344</v>
       </c>
       <c r="F22">
-        <v>4.720639846754211e-05</v>
+        <v>-0.00334231272532893</v>
       </c>
       <c r="G22">
-        <v>9.228478294737841e-10</v>
+        <v>-3.623026443061454e-06</v>
       </c>
       <c r="H22">
-        <v>0.03345853010699679</v>
+        <v>0.1306651606404081</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003481598444898312</v>
+        <v>-0.008078452597900729</v>
       </c>
       <c r="C23">
-        <v>0.0008179722717539711</v>
+        <v>-0.002248434129105667</v>
       </c>
       <c r="D23">
-        <v>-4.264098556761288e-06</v>
+        <v>4.762895787318736e-05</v>
       </c>
       <c r="E23">
-        <v>5.424364890597305e-06</v>
+        <v>0.001762956593700959</v>
       </c>
       <c r="F23">
-        <v>-5.527110620040293e-05</v>
+        <v>-0.001488154051151486</v>
       </c>
       <c r="G23">
-        <v>6.90595307740764e-07</v>
+        <v>-5.520713765887603e-06</v>
       </c>
       <c r="H23">
-        <v>0.03378312061161734</v>
+        <v>0.1156724123289466</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.0005293939155438228</v>
+        <v>-0.01290239791574484</v>
       </c>
       <c r="C24">
-        <v>0.0001732241834828543</v>
+        <v>0.00378456039959682</v>
       </c>
       <c r="D24">
-        <v>-4.309206939200605e-06</v>
+        <v>1.346265005070028e-05</v>
       </c>
       <c r="E24">
-        <v>-0.0001410426093292616</v>
+        <v>0.003967159411370963</v>
       </c>
       <c r="F24">
-        <v>3.74860966468743e-05</v>
+        <v>-0.001318159526650273</v>
       </c>
       <c r="G24">
-        <v>1.137560036155709e-06</v>
+        <v>-2.194041993602414e-06</v>
       </c>
       <c r="H24">
-        <v>0.03271835494192472</v>
+        <v>0.1105084971389652</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.0003955459050192503</v>
+        <v>-0.008375024838237481</v>
       </c>
       <c r="C25">
-        <v>-0.0001149605802305439</v>
+        <v>0.001368872822580716</v>
       </c>
       <c r="D25">
-        <v>-9.633837212110252e-06</v>
+        <v>7.363616723104531e-05</v>
       </c>
       <c r="E25">
-        <v>-0.0001217920895932902</v>
+        <v>0.0005506921333246484</v>
       </c>
       <c r="F25">
-        <v>9.522707560197111e-05</v>
+        <v>-0.002549986588574828</v>
       </c>
       <c r="G25">
-        <v>1.372575202923564e-07</v>
+        <v>-4.529792427320804e-06</v>
       </c>
       <c r="H25">
-        <v>0.03332848540319644</v>
+        <v>0.1234971238404726</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.0001605734498366282</v>
+        <v>-0.01311033325310604</v>
       </c>
       <c r="C26">
-        <v>-0.0003191486353720461</v>
+        <v>0.003323968529951516</v>
       </c>
       <c r="D26">
-        <v>3.600624725856395e-06</v>
+        <v>4.613350578302028e-05</v>
       </c>
       <c r="E26">
-        <v>0.0002873327855783918</v>
+        <v>0.0007324516168284098</v>
       </c>
       <c r="F26">
-        <v>-0.0001037984040582699</v>
+        <v>-0.001504303996951033</v>
       </c>
       <c r="G26">
-        <v>7.530806683470423e-07</v>
+        <v>-1.340423296228414e-06</v>
       </c>
       <c r="H26">
-        <v>0.03365738928426311</v>
+        <v>0.1053083089939503</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-8.013788696756329e-05</v>
+        <v>-0.01437113058017977</v>
       </c>
       <c r="C27">
-        <v>0.0002351254702808942</v>
+        <v>-0.0008199839697048301</v>
       </c>
       <c r="D27">
-        <v>5.857842224514504e-06</v>
+        <v>3.729505988931597e-05</v>
       </c>
       <c r="E27">
-        <v>-0.0003795518520396009</v>
+        <v>-0.00255734345340821</v>
       </c>
       <c r="F27">
-        <v>-0.0001142045111724103</v>
+        <v>-0.002040529105260884</v>
       </c>
       <c r="G27">
-        <v>2.716654031911764e-08</v>
+        <v>-2.060973749993584e-06</v>
       </c>
       <c r="H27">
-        <v>0.03458251882063054</v>
+        <v>0.1176833054838768</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-8.700489181133367e-05</v>
+        <v>-0.008194860745543918</v>
       </c>
       <c r="C28">
-        <v>0.0005760483310907679</v>
+        <v>0.003349770293105703</v>
       </c>
       <c r="D28">
-        <v>-2.661983140453087e-06</v>
+        <v>4.013227543446979e-05</v>
       </c>
       <c r="E28">
-        <v>-0.0002836740739277956</v>
+        <v>0.0004753482215211213</v>
       </c>
       <c r="F28">
-        <v>0.0001842945919040185</v>
+        <v>-0.001891798457985215</v>
       </c>
       <c r="G28">
-        <v>-6.232334057833506e-07</v>
+        <v>-4.201175204023647e-06</v>
       </c>
       <c r="H28">
-        <v>0.03201605771308307</v>
+        <v>0.1180657462417706</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.0004789207973782828</v>
+        <v>-0.01154417187175802</v>
       </c>
       <c r="C29">
-        <v>-0.0001154789480471434</v>
+        <v>0.0003577085187255845</v>
       </c>
       <c r="D29">
-        <v>-1.329629361796776e-05</v>
+        <v>2.255541147801431e-05</v>
       </c>
       <c r="E29">
-        <v>0.000344751058020034</v>
+        <v>0.0006294994654096192</v>
       </c>
       <c r="F29">
-        <v>0.0001212936951937644</v>
+        <v>-0.002824911953700583</v>
       </c>
       <c r="G29">
-        <v>8.211707316447722e-07</v>
+        <v>-1.286753092404939e-06</v>
       </c>
       <c r="H29">
-        <v>0.03287403629187466</v>
+        <v>0.1259920824949988</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0004430300083582488</v>
+        <v>-0.01269159876273719</v>
       </c>
       <c r="C30">
-        <v>0.0002579046689574964</v>
+        <v>-0.001301171003569232</v>
       </c>
       <c r="D30">
-        <v>-5.195238479963188e-06</v>
+        <v>6.014372126873321e-05</v>
       </c>
       <c r="E30">
-        <v>0.0001439339757771871</v>
+        <v>0.001317114371970587</v>
       </c>
       <c r="F30">
-        <v>-0.0002761746609431435</v>
+        <v>-0.00143673785386261</v>
       </c>
       <c r="G30">
-        <v>1.391954572423535e-06</v>
+        <v>-3.678743552014225e-07</v>
       </c>
       <c r="H30">
-        <v>0.03600647564439653</v>
+        <v>0.1004974050824056</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.0002082931174762848</v>
+        <v>-0.009679820730771659</v>
       </c>
       <c r="C31">
-        <v>0.0004070546862201052</v>
+        <v>0.001834771181112812</v>
       </c>
       <c r="D31">
-        <v>-1.970041828392105e-06</v>
+        <v>4.29002303507409e-05</v>
       </c>
       <c r="E31">
-        <v>-4.578759473246666e-05</v>
+        <v>0.001407790862007076</v>
       </c>
       <c r="F31">
-        <v>-6.684150793889558e-05</v>
+        <v>-0.003190745100224219</v>
       </c>
       <c r="G31">
-        <v>1.320694278438025e-06</v>
+        <v>-1.914718220176111e-06</v>
       </c>
       <c r="H31">
-        <v>0.03356500860884239</v>
+        <v>0.1317283011739032</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0001976023588754552</v>
+        <v>-0.01240663297907452</v>
       </c>
       <c r="C32">
-        <v>5.487723165877641e-06</v>
+        <v>-0.002038440167447019</v>
       </c>
       <c r="D32">
-        <v>2.672887343372082e-06</v>
+        <v>6.497709061840351e-05</v>
       </c>
       <c r="E32">
-        <v>3.332698087211289e-06</v>
+        <v>0.003277873065941773</v>
       </c>
       <c r="F32">
-        <v>-0.0002148591718830069</v>
+        <v>-0.003313933461475345</v>
       </c>
       <c r="G32">
-        <v>7.207688416551257e-07</v>
+        <v>-8.732636287676248e-07</v>
       </c>
       <c r="H32">
-        <v>0.03554469149311514</v>
+        <v>0.1271696145677756</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0005260195825700941</v>
+        <v>-0.009924086856693983</v>
       </c>
       <c r="C33">
-        <v>-0.0007909384401578078</v>
+        <v>0.003316669830600267</v>
       </c>
       <c r="D33">
-        <v>8.924595031287448e-06</v>
+        <v>2.764343864864323e-05</v>
       </c>
       <c r="E33">
-        <v>-0.0002998804230763263</v>
+        <v>-0.0003157164271178764</v>
       </c>
       <c r="F33">
-        <v>-0.0003249272209094274</v>
+        <v>-0.0009945695660122343</v>
       </c>
       <c r="G33">
-        <v>1.267959263780051e-06</v>
+        <v>-4.873346958525663e-06</v>
       </c>
       <c r="H33">
-        <v>0.03621950855554863</v>
+        <v>0.1123199787863448</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.0001204763149929055</v>
+        <v>-0.01175969497507068</v>
       </c>
       <c r="C34">
-        <v>0.0006281060564394752</v>
+        <v>0.00735274043828417</v>
       </c>
       <c r="D34">
-        <v>2.50702685535418e-06</v>
+        <v>5.847503914675429e-05</v>
       </c>
       <c r="E34">
-        <v>-7.057984823544833e-05</v>
+        <v>-0.001681122094608058</v>
       </c>
       <c r="F34">
-        <v>0.0001304510394066743</v>
+        <v>-0.002865430561724422</v>
       </c>
       <c r="G34">
-        <v>-4.109204876483479e-07</v>
+        <v>-2.440573690998532e-06</v>
       </c>
       <c r="H34">
-        <v>0.03193784527882823</v>
+        <v>0.1258479752469569</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.0002653128392592877</v>
+        <v>-0.0087369879331444</v>
       </c>
       <c r="C35">
-        <v>0.0004413012969512343</v>
+        <v>-0.002156139274669886</v>
       </c>
       <c r="D35">
-        <v>-5.537412102300079e-06</v>
+        <v>4.919502102141266e-05</v>
       </c>
       <c r="E35">
-        <v>0.0002310082122837995</v>
+        <v>0.00120581571063974</v>
       </c>
       <c r="F35">
-        <v>0.0001679678695615803</v>
+        <v>-0.002478570737356058</v>
       </c>
       <c r="G35">
-        <v>8.856534263411443e-08</v>
+        <v>-3.173703084096338e-06</v>
       </c>
       <c r="H35">
-        <v>0.03197001353026852</v>
+        <v>0.1205113083542726</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.0001260135658383481</v>
+        <v>-0.01280384599931352</v>
       </c>
       <c r="C36">
-        <v>-0.0005480689863609703</v>
+        <v>0.001213258754888554</v>
       </c>
       <c r="D36">
-        <v>-1.799858088581382e-06</v>
+        <v>6.156894686669329e-05</v>
       </c>
       <c r="E36">
-        <v>-0.0003559393501176775</v>
+        <v>0.002374965762458783</v>
       </c>
       <c r="F36">
-        <v>-0.0002679748332991494</v>
+        <v>-0.002860078251611281</v>
       </c>
       <c r="G36">
-        <v>2.342754033664123e-07</v>
+        <v>-6.048799305299357e-07</v>
       </c>
       <c r="H36">
-        <v>0.03714104842831691</v>
+        <v>0.1234727594016741</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0006134009652072165</v>
+        <v>-0.006404297676278364</v>
       </c>
       <c r="C37">
-        <v>0.0003101695532924621</v>
+        <v>-0.0008126225477233704</v>
       </c>
       <c r="D37">
-        <v>-7.409968332897916e-06</v>
+        <v>8.66170305628718e-05</v>
       </c>
       <c r="E37">
-        <v>6.385223553529926e-05</v>
+        <v>0.0009670903015192162</v>
       </c>
       <c r="F37">
-        <v>-0.0001022574850098369</v>
+        <v>-0.003393440897287049</v>
       </c>
       <c r="G37">
-        <v>6.452215434680205e-08</v>
+        <v>-3.586792557959433e-06</v>
       </c>
       <c r="H37">
-        <v>0.03502512215401631</v>
+        <v>0.1283028272288229</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.0007685452012397317</v>
+        <v>-0.01159795746343003</v>
       </c>
       <c r="C38">
-        <v>-0.0002406654646917338</v>
+        <v>0.005720463668250179</v>
       </c>
       <c r="D38">
-        <v>3.152131571751635e-06</v>
+        <v>1.65483222715482e-05</v>
       </c>
       <c r="E38">
-        <v>0.0001683513983565289</v>
+        <v>0.001543969732517275</v>
       </c>
       <c r="F38">
-        <v>-7.769511038333531e-08</v>
+        <v>-0.002427564985185519</v>
       </c>
       <c r="G38">
-        <v>6.02652223102099e-07</v>
+        <v>-2.805876049757547e-06</v>
       </c>
       <c r="H38">
-        <v>0.03325161843206158</v>
+        <v>0.1234918814940329</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.001141632435559127</v>
+        <v>-0.008849338917550308</v>
       </c>
       <c r="C39">
-        <v>6.499408354833537e-05</v>
+        <v>-0.00561494543460464</v>
       </c>
       <c r="D39">
-        <v>-8.102545733865833e-06</v>
+        <v>4.556361749299819e-05</v>
       </c>
       <c r="E39">
-        <v>0.0002265250450573623</v>
+        <v>0.0008973100244812834</v>
       </c>
       <c r="F39">
-        <v>0.0002295698552595567</v>
+        <v>-0.002622664248127229</v>
       </c>
       <c r="G39">
-        <v>9.661526567673309e-07</v>
+        <v>-3.915686106884369e-06</v>
       </c>
       <c r="H39">
-        <v>0.03101040369840749</v>
+        <v>0.1283367143198857</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.677291532710883e-05</v>
+        <v>-0.008612810113688097</v>
       </c>
       <c r="C40">
-        <v>-0.0004105582898099474</v>
+        <v>-0.003194313694818938</v>
       </c>
       <c r="D40">
-        <v>-6.01072137988291e-06</v>
+        <v>5.136101614191165e-05</v>
       </c>
       <c r="E40">
-        <v>-0.0004767536189219657</v>
+        <v>-0.00199672039180597</v>
       </c>
       <c r="F40">
-        <v>-3.573074120466664e-05</v>
+        <v>-0.002174499732823828</v>
       </c>
       <c r="G40">
-        <v>6.007601584279616e-07</v>
+        <v>-4.150542206830748e-06</v>
       </c>
       <c r="H40">
-        <v>0.0344283232393837</v>
+        <v>0.118332815485469</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0006863308749551307</v>
+        <v>-0.0117770444719837</v>
       </c>
       <c r="C41">
-        <v>-0.0001033991213120267</v>
+        <v>-0.003630325822532737</v>
       </c>
       <c r="D41">
-        <v>3.049006229624237e-06</v>
+        <v>1.725572038020272e-05</v>
       </c>
       <c r="E41">
-        <v>4.853574440341624e-06</v>
+        <v>0.002024825415999569</v>
       </c>
       <c r="F41">
-        <v>5.012696379960084e-05</v>
+        <v>-0.002417133600657766</v>
       </c>
       <c r="G41">
-        <v>-2.247595465234871e-07</v>
+        <v>-3.598050173939558e-06</v>
       </c>
       <c r="H41">
-        <v>0.03230290371072855</v>
+        <v>0.1257637616594645</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-7.784156774975817e-05</v>
+        <v>-0.01665540000752357</v>
       </c>
       <c r="C42">
-        <v>0.000773683406993867</v>
+        <v>-0.000538724797021471</v>
       </c>
       <c r="D42">
-        <v>-2.715827862333465e-06</v>
+        <v>5.420693542995506e-05</v>
       </c>
       <c r="E42">
-        <v>0.0006837242985472357</v>
+        <v>0.001583735584113455</v>
       </c>
       <c r="F42">
-        <v>-0.00029679146280907</v>
+        <v>-0.0014058864325731</v>
       </c>
       <c r="G42">
-        <v>3.220408950659892e-07</v>
+        <v>-1.539383948790797e-06</v>
       </c>
       <c r="H42">
-        <v>0.03698677793333174</v>
+        <v>0.1092730538798685</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.0003246810117389981</v>
+        <v>-0.009200997316000213</v>
       </c>
       <c r="C43">
-        <v>0.0002622061062637043</v>
+        <v>0.0003755625453527358</v>
       </c>
       <c r="D43">
-        <v>1.403796933908358e-06</v>
+        <v>4.371152827658431e-05</v>
       </c>
       <c r="E43">
-        <v>-0.0001734082566406218</v>
+        <v>0.001028202703160883</v>
       </c>
       <c r="F43">
-        <v>-0.0001582019990519236</v>
+        <v>-0.002372097645842645</v>
       </c>
       <c r="G43">
-        <v>2.335015207522406e-07</v>
+        <v>-4.394172116480352e-06</v>
       </c>
       <c r="H43">
-        <v>0.03537197756183316</v>
+        <v>0.1227066598009902</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.0002875852540681421</v>
+        <v>-0.009331943084466738</v>
       </c>
       <c r="C44">
-        <v>-2.570151752501427e-05</v>
+        <v>0.0006098017682551952</v>
       </c>
       <c r="D44">
-        <v>-5.402570356948897e-06</v>
+        <v>7.429133671218004e-05</v>
       </c>
       <c r="E44">
-        <v>-0.0001804003630951241</v>
+        <v>0.002948019402185934</v>
       </c>
       <c r="F44">
-        <v>3.518350631395023e-05</v>
+        <v>-0.002236562654860273</v>
       </c>
       <c r="G44">
-        <v>6.728543673664452e-08</v>
+        <v>-4.407478187602105e-06</v>
       </c>
       <c r="H44">
-        <v>0.03389494137104525</v>
+        <v>0.1189571209576932</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.000827673832357231</v>
+        <v>-0.009759452595649008</v>
       </c>
       <c r="C45">
-        <v>0.0007420061287307835</v>
+        <v>0.005055423883593233</v>
       </c>
       <c r="D45">
-        <v>-2.725349482092824e-06</v>
+        <v>0.0001034053365740509</v>
       </c>
       <c r="E45">
-        <v>-0.0002086903516905041</v>
+        <v>0.001685690819777833</v>
       </c>
       <c r="F45">
-        <v>-0.0002269850829765045</v>
+        <v>-0.001382160040333877</v>
       </c>
       <c r="G45">
-        <v>1.919633179766554e-06</v>
+        <v>-3.924663814071208e-06</v>
       </c>
       <c r="H45">
-        <v>0.03533807005480996</v>
+        <v>0.103830397852184</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.000391488397213733</v>
+        <v>-0.011795368323271</v>
       </c>
       <c r="C46">
-        <v>0.0001845411050243095</v>
+        <v>-0.00467470581710429</v>
       </c>
       <c r="D46">
-        <v>1.485212197479999e-06</v>
+        <v>4.57606353187161e-05</v>
       </c>
       <c r="E46">
-        <v>-0.0004932938873668524</v>
+        <v>-0.0009565053196958564</v>
       </c>
       <c r="F46">
-        <v>-7.828082027999412e-05</v>
+        <v>-0.003085191930807175</v>
       </c>
       <c r="G46">
-        <v>-7.721904619789202e-08</v>
+        <v>-1.071139483885478e-06</v>
       </c>
       <c r="H46">
-        <v>0.03411758098105153</v>
+        <v>0.1276914124182995</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0005599973747837995</v>
+        <v>-0.008903348808830565</v>
       </c>
       <c r="C47">
-        <v>0.0002967174807040434</v>
+        <v>-0.001738029505634679</v>
       </c>
       <c r="D47">
-        <v>1.736853822779664e-06</v>
+        <v>3.29695810510993e-05</v>
       </c>
       <c r="E47">
-        <v>-0.000370910326575425</v>
+        <v>0.000355034037049215</v>
       </c>
       <c r="F47">
-        <v>-0.0004216130305705342</v>
+        <v>-0.001942821205182891</v>
       </c>
       <c r="G47">
-        <v>2.324617194348333e-07</v>
+        <v>-2.844843367680764e-06</v>
       </c>
       <c r="H47">
-        <v>0.03815416408802273</v>
+        <v>0.1153682254915093</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.0004683671318443346</v>
+        <v>-0.01169069776586186</v>
       </c>
       <c r="C48">
-        <v>0.00119478834310909</v>
+        <v>-0.004418421215549665</v>
       </c>
       <c r="D48">
-        <v>-4.290167010572281e-06</v>
+        <v>6.424480865459031e-05</v>
       </c>
       <c r="E48">
-        <v>0.0001240580520981173</v>
+        <v>0.0009783195012740137</v>
       </c>
       <c r="F48">
-        <v>-0.0001012222188528559</v>
+        <v>-0.002858819119564269</v>
       </c>
       <c r="G48">
-        <v>5.084939573633012e-07</v>
+        <v>-2.548804841155302e-06</v>
       </c>
       <c r="H48">
-        <v>0.03492707934831857</v>
+        <v>0.125049255492617</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.784390765657666e-05</v>
+        <v>-0.004747531186613406</v>
       </c>
       <c r="C49">
-        <v>0.0002306371363790085</v>
+        <v>-0.001939605889911388</v>
       </c>
       <c r="D49">
-        <v>-3.950009877531937e-06</v>
+        <v>7.520999110048108e-05</v>
       </c>
       <c r="E49">
-        <v>0.0005045081234045096</v>
+        <v>-0.001569635256848757</v>
       </c>
       <c r="F49">
-        <v>2.403775232641186e-05</v>
+        <v>-0.002367567670652843</v>
       </c>
       <c r="G49">
-        <v>-3.495693987063494e-08</v>
+        <v>-8.983460607055742e-06</v>
       </c>
       <c r="H49">
-        <v>0.03324697007936064</v>
+        <v>0.1302290519581003</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.0003210290371806152</v>
+        <v>-0.01255745569511222</v>
       </c>
       <c r="C50">
-        <v>0.0005499332801557606</v>
+        <v>0.002625227820596429</v>
       </c>
       <c r="D50">
-        <v>5.424878883755664e-07</v>
+        <v>9.273607280342843e-05</v>
       </c>
       <c r="E50">
-        <v>0.0001319686763438452</v>
+        <v>8.667249415126449e-05</v>
       </c>
       <c r="F50">
-        <v>-3.584250837232157e-05</v>
+        <v>-0.001587024076970383</v>
       </c>
       <c r="G50">
-        <v>4.252530535848922e-07</v>
+        <v>-2.659879372617109e-06</v>
       </c>
       <c r="H50">
-        <v>0.03364114117819185</v>
+        <v>0.1082069979846552</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.0005542744020978858</v>
+        <v>-0.00821544792645092</v>
       </c>
       <c r="C51">
-        <v>-0.001056266717300358</v>
+        <v>0.001269540988665579</v>
       </c>
       <c r="D51">
-        <v>6.272849957691455e-07</v>
+        <v>3.380140335942594e-05</v>
       </c>
       <c r="E51">
-        <v>0.000426840980660325</v>
+        <v>0.000377216046752088</v>
       </c>
       <c r="F51">
-        <v>-0.0001018350395737101</v>
+        <v>-0.001742268627726061</v>
       </c>
       <c r="G51">
-        <v>9.185180090275355e-07</v>
+        <v>-3.546902192340793e-06</v>
       </c>
       <c r="H51">
-        <v>0.0341115589443656</v>
+        <v>0.113653799515598</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.90024492579086e-05</v>
+        <v>-0.01055591177571549</v>
       </c>
       <c r="C52">
-        <v>-4.405098191590461e-05</v>
+        <v>-0.0003294811169704717</v>
       </c>
       <c r="D52">
-        <v>-4.003129419792527e-07</v>
+        <v>2.712154010860203e-05</v>
       </c>
       <c r="E52">
-        <v>-0.000352980799977462</v>
+        <v>-0.001443393777806924</v>
       </c>
       <c r="F52">
-        <v>-0.000190841433322103</v>
+        <v>-0.001333190119770611</v>
       </c>
       <c r="G52">
-        <v>5.181198675582018e-07</v>
+        <v>-2.232381188351293e-06</v>
       </c>
       <c r="H52">
-        <v>0.03543208675681244</v>
+        <v>0.1071778034149647</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.000278728880556378</v>
+        <v>-0.01098636536017987</v>
       </c>
       <c r="C53">
-        <v>-0.0008786385597452569</v>
+        <v>-0.003173872370667336</v>
       </c>
       <c r="D53">
-        <v>3.491125280306e-06</v>
+        <v>1.804801434220274e-05</v>
       </c>
       <c r="E53">
-        <v>-2.495723450094203e-05</v>
+        <v>0.003646091811574562</v>
       </c>
       <c r="F53">
-        <v>-0.0001193076094994043</v>
+        <v>-0.002147928722350026</v>
       </c>
       <c r="G53">
-        <v>7.617028905672833e-07</v>
+        <v>-2.387282336749582e-06</v>
       </c>
       <c r="H53">
-        <v>0.03417809667367231</v>
+        <v>0.1184815865397923</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0003962355569994446</v>
+        <v>-0.009394139213958515</v>
       </c>
       <c r="C54">
-        <v>-0.0008069317091561752</v>
+        <v>0.002388607719473428</v>
       </c>
       <c r="D54">
-        <v>2.014475637466408e-06</v>
+        <v>8.489451584515913e-05</v>
       </c>
       <c r="E54">
-        <v>0.0004111966207033906</v>
+        <v>0.001023692164903847</v>
       </c>
       <c r="F54">
-        <v>-0.0002538256925790568</v>
+        <v>-0.001964020869123745</v>
       </c>
       <c r="G54">
-        <v>4.064142028417836e-07</v>
+        <v>-3.402969180857827e-06</v>
       </c>
       <c r="H54">
-        <v>0.03588655586174078</v>
+        <v>0.110966799442577</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0001002010624052624</v>
+        <v>-0.007806685229383043</v>
       </c>
       <c r="C55">
-        <v>-5.5931957470284e-05</v>
+        <v>0.003718484702382039</v>
       </c>
       <c r="D55">
-        <v>1.632909222001273e-07</v>
+        <v>3.134201930840429e-05</v>
       </c>
       <c r="E55">
-        <v>-0.0006766951321096129</v>
+        <v>0.0005642577041729616</v>
       </c>
       <c r="F55">
-        <v>-4.974824568115474e-05</v>
+        <v>-0.003052116588433109</v>
       </c>
       <c r="G55">
-        <v>2.528770392913251e-07</v>
+        <v>-4.080208873573761e-06</v>
       </c>
       <c r="H55">
-        <v>0.03414904452505595</v>
+        <v>0.1327202672307488</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.0001691055897357287</v>
+        <v>-0.00926225308585288</v>
       </c>
       <c r="C56">
-        <v>-0.0002344652823026163</v>
+        <v>0.002303310548985076</v>
       </c>
       <c r="D56">
-        <v>1.255505431046785e-06</v>
+        <v>9.152482862229139e-05</v>
       </c>
       <c r="E56">
-        <v>0.0006284427807765752</v>
+        <v>0.002705138715935529</v>
       </c>
       <c r="F56">
-        <v>-0.0002149448347596476</v>
+        <v>-0.002524412373976333</v>
       </c>
       <c r="G56">
-        <v>1.688717031680143e-06</v>
+        <v>-2.616493509504457e-06</v>
       </c>
       <c r="H56">
-        <v>0.03475187779936895</v>
+        <v>0.1199079215844988</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.001058945402121631</v>
+        <v>-0.008284253983021784</v>
       </c>
       <c r="C57">
-        <v>0.001187679650154924</v>
+        <v>0.002036663349306245</v>
       </c>
       <c r="D57">
-        <v>-6.532671594337447e-06</v>
+        <v>2.226693258529692e-05</v>
       </c>
       <c r="E57">
-        <v>0.0002191353377531194</v>
+        <v>0.0005011943526017637</v>
       </c>
       <c r="F57">
-        <v>0.0001746543457382278</v>
+        <v>-0.002207059327411248</v>
       </c>
       <c r="G57">
-        <v>6.628835286484313e-07</v>
+        <v>-4.931786044244077e-06</v>
       </c>
       <c r="H57">
-        <v>0.03197327467292391</v>
+        <v>0.122784223649299</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0002576461333145842</v>
+        <v>-0.006389196479497537</v>
       </c>
       <c r="C58">
-        <v>-0.0004730313913814932</v>
+        <v>0.001155717638786362</v>
       </c>
       <c r="D58">
-        <v>-4.1727455578098e-06</v>
+        <v>9.71900786793148e-05</v>
       </c>
       <c r="E58">
-        <v>-0.0002034112065161416</v>
+        <v>0.0005276625060187251</v>
       </c>
       <c r="F58">
-        <v>0.0001565088706698255</v>
+        <v>-0.00258101672690111</v>
       </c>
       <c r="G58">
-        <v>-9.283028493176337e-07</v>
+        <v>-4.129008441261162e-06</v>
       </c>
       <c r="H58">
-        <v>0.03268660254123575</v>
+        <v>0.1165630328181602</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.0004129893151986045</v>
+        <v>-0.01452398459308704</v>
       </c>
       <c r="C59">
-        <v>6.46389484828779e-06</v>
+        <v>-0.0005257245846820065</v>
       </c>
       <c r="D59">
-        <v>-5.515505800441028e-06</v>
+        <v>4.047104155586649e-05</v>
       </c>
       <c r="E59">
-        <v>0.0004511643985374465</v>
+        <v>0.003040966693530926</v>
       </c>
       <c r="F59">
-        <v>7.348008410395233e-05</v>
+        <v>-0.002694338266174584</v>
       </c>
       <c r="G59">
-        <v>-5.068252587803375e-09</v>
+        <v>-3.521639420548376e-06</v>
       </c>
       <c r="H59">
-        <v>0.03326588583331022</v>
+        <v>0.1320562154045707</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0003589268783653933</v>
+        <v>-0.0134076230095584</v>
       </c>
       <c r="C60">
-        <v>1.13991903973017e-05</v>
+        <v>0.006086123042424244</v>
       </c>
       <c r="D60">
-        <v>-2.346134286183794e-06</v>
+        <v>2.792034441810835e-05</v>
       </c>
       <c r="E60">
-        <v>0.0009325448540912565</v>
+        <v>0.0008008937270466282</v>
       </c>
       <c r="F60">
-        <v>1.492306681281702e-05</v>
+        <v>-0.001868349693923244</v>
       </c>
       <c r="G60">
-        <v>7.246365007295881e-07</v>
+        <v>-5.55765932807765e-06</v>
       </c>
       <c r="H60">
-        <v>0.0332470574728224</v>
+        <v>0.1260200566650469</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.000827732535250221</v>
+        <v>-0.01224078554818197</v>
       </c>
       <c r="C61">
-        <v>0.0007234007465496571</v>
+        <v>-0.000990539646288888</v>
       </c>
       <c r="D61">
-        <v>1.474185644613629e-06</v>
+        <v>1.215159306672718e-05</v>
       </c>
       <c r="E61">
-        <v>-0.0001637369145431923</v>
+        <v>0.003306067828837411</v>
       </c>
       <c r="F61">
-        <v>-8.669347826820357e-05</v>
+        <v>-0.001786595865684509</v>
       </c>
       <c r="G61">
-        <v>1.149227626612121e-06</v>
+        <v>-2.455668824885207e-06</v>
       </c>
       <c r="H61">
-        <v>0.03402847273145108</v>
+        <v>0.1151159528850689</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.0003396685570607955</v>
+        <v>-0.00779798150511065</v>
       </c>
       <c r="C62">
-        <v>-0.0005105234864672436</v>
+        <v>-8.194922483895366e-05</v>
       </c>
       <c r="D62">
-        <v>-5.565686324576402e-06</v>
+        <v>6.573937684629239e-05</v>
       </c>
       <c r="E62">
-        <v>-8.966559151551284e-05</v>
+        <v>0.0001702069722733027</v>
       </c>
       <c r="F62">
-        <v>-6.324041679038085e-05</v>
+        <v>-0.002706124629839613</v>
       </c>
       <c r="G62">
-        <v>1.781009335390478e-06</v>
+        <v>-2.42849070278523e-06</v>
       </c>
       <c r="H62">
-        <v>0.03341811923670709</v>
+        <v>0.1203291097112586</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.0008392623299835062</v>
+        <v>-0.007759167357999358</v>
       </c>
       <c r="C63">
-        <v>-0.001162138282759326</v>
+        <v>-0.005174994425992396</v>
       </c>
       <c r="D63">
-        <v>9.146047096713675e-06</v>
+        <v>0.0001160867354523503</v>
       </c>
       <c r="E63">
-        <v>9.857114168710171e-05</v>
+        <v>0.003698540158318664</v>
       </c>
       <c r="F63">
-        <v>-1.005954974195983e-05</v>
+        <v>-0.002601688574672057</v>
       </c>
       <c r="G63">
-        <v>4.073914869521577e-07</v>
+        <v>-6.646083143760791e-06</v>
       </c>
       <c r="H63">
-        <v>0.03288467106349402</v>
+        <v>0.1265681416104459</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.0003231599397337829</v>
+        <v>-0.009706688686842595</v>
       </c>
       <c r="C64">
-        <v>-0.0008688286170890312</v>
+        <v>0.004164842759606061</v>
       </c>
       <c r="D64">
-        <v>6.490722275044354e-06</v>
+        <v>4.221728898730069e-05</v>
       </c>
       <c r="E64">
-        <v>0.0002419090639376974</v>
+        <v>0.0003173693387896748</v>
       </c>
       <c r="F64">
-        <v>-2.438202749349163e-05</v>
+        <v>-0.001666494942668321</v>
       </c>
       <c r="G64">
-        <v>-1.058120329664455e-08</v>
+        <v>-4.310128203915838e-06</v>
       </c>
       <c r="H64">
-        <v>0.0337906742236971</v>
+        <v>0.1131670787446045</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0008297445373310203</v>
+        <v>-0.01117886127752354</v>
       </c>
       <c r="C65">
-        <v>-0.0005079005708146249</v>
+        <v>0.001847489951036012</v>
       </c>
       <c r="D65">
-        <v>-8.824341485296963e-07</v>
+        <v>7.752267100664831e-07</v>
       </c>
       <c r="E65">
-        <v>0.0003220333545612755</v>
+        <v>9.020160673878924e-05</v>
       </c>
       <c r="F65">
-        <v>-4.273749157765873e-05</v>
+        <v>-0.001426530586654288</v>
       </c>
       <c r="G65">
-        <v>-6.564719847477806e-07</v>
+        <v>-6.676914053202253e-06</v>
       </c>
       <c r="H65">
-        <v>0.03402156822888767</v>
+        <v>0.1219395874281803</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.001103017803098959</v>
+        <v>-0.00715487338504001</v>
       </c>
       <c r="C66">
-        <v>0.001092848955314406</v>
+        <v>0.005705969741838455</v>
       </c>
       <c r="D66">
-        <v>-6.034608205513273e-06</v>
+        <v>2.732711462458738e-05</v>
       </c>
       <c r="E66">
-        <v>-0.0005892892041700001</v>
+        <v>0.001573887677955257</v>
       </c>
       <c r="F66">
-        <v>-0.0002459380481641188</v>
+        <v>-0.001769025370958043</v>
       </c>
       <c r="G66">
-        <v>2.11898928751966e-06</v>
+        <v>-5.75565272149607e-06</v>
       </c>
       <c r="H66">
-        <v>0.03621325709944177</v>
+        <v>0.118460454330638</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.0009038316217331605</v>
+        <v>-0.01010953893549122</v>
       </c>
       <c r="C67">
-        <v>-0.0003240779057422946</v>
+        <v>0.009954015298772656</v>
       </c>
       <c r="D67">
-        <v>3.552312757171807e-08</v>
+        <v>2.332055339985302e-05</v>
       </c>
       <c r="E67">
-        <v>0.0001417141039162829</v>
+        <v>0.004790375488606537</v>
       </c>
       <c r="F67">
-        <v>1.014876954614748e-06</v>
+        <v>-0.001529210258599979</v>
       </c>
       <c r="G67">
-        <v>1.133199221713769e-06</v>
+        <v>-4.218685234489521e-06</v>
       </c>
       <c r="H67">
-        <v>0.03311146254935958</v>
+        <v>0.1119850425949975</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.0007750086559995899</v>
+        <v>-0.007705059167224219</v>
       </c>
       <c r="C68">
-        <v>-0.0001088780001403014</v>
+        <v>0.0009865564338436398</v>
       </c>
       <c r="D68">
-        <v>2.639287275917378e-06</v>
+        <v>4.902597484574671e-05</v>
       </c>
       <c r="E68">
-        <v>-2.255497669686329e-06</v>
+        <v>0.004375450021053447</v>
       </c>
       <c r="F68">
-        <v>-0.0002488225840605518</v>
+        <v>-0.002085654470529394</v>
       </c>
       <c r="G68">
-        <v>1.188080543083424e-06</v>
+        <v>-5.293113216656524e-06</v>
       </c>
       <c r="H68">
-        <v>0.0360234475530821</v>
+        <v>0.1201058052212109</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.000949505767389909</v>
+        <v>-0.01225208023020635</v>
       </c>
       <c r="C69">
-        <v>0.0007080602251956622</v>
+        <v>-0.003522416331522414</v>
       </c>
       <c r="D69">
-        <v>-4.371372220710479e-06</v>
+        <v>8.495040771925192e-05</v>
       </c>
       <c r="E69">
-        <v>-0.0003181025418079395</v>
+        <v>0.001595540850928744</v>
       </c>
       <c r="F69">
-        <v>-0.0001686977192432125</v>
+        <v>-0.0009774004072616873</v>
       </c>
       <c r="G69">
-        <v>1.611566802740898e-06</v>
+        <v>-3.896482531117227e-06</v>
       </c>
       <c r="H69">
-        <v>0.03556813597076056</v>
+        <v>0.1022111898450957</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.001023061590993608</v>
+        <v>-0.008959795104951814</v>
       </c>
       <c r="C70">
-        <v>0.0003352951708211328</v>
+        <v>0.004437959035755222</v>
       </c>
       <c r="D70">
-        <v>-1.68020879161925e-06</v>
+        <v>7.201039412571761e-05</v>
       </c>
       <c r="E70">
-        <v>8.08312202676964e-06</v>
+        <v>0.004225064834251613</v>
       </c>
       <c r="F70">
-        <v>0.0001024725394591765</v>
+        <v>-0.003236887242884693</v>
       </c>
       <c r="G70">
-        <v>7.346570062057808e-07</v>
+        <v>-5.196313850137708e-06</v>
       </c>
       <c r="H70">
-        <v>0.03236909448591427</v>
+        <v>0.1317413968932867</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.0007567395223513677</v>
+        <v>-0.009086857540898744</v>
       </c>
       <c r="C71">
-        <v>-0.0003491283725804211</v>
+        <v>0.006941319401289385</v>
       </c>
       <c r="D71">
-        <v>-6.539598975355354e-07</v>
+        <v>6.286787509238147e-05</v>
       </c>
       <c r="E71">
-        <v>0.0004131629083894313</v>
+        <v>0.00452366407257767</v>
       </c>
       <c r="F71">
-        <v>-0.0002036068521885822</v>
+        <v>-0.0007651324766596449</v>
       </c>
       <c r="G71">
-        <v>8.699354568359349e-07</v>
+        <v>-3.93504362518884e-06</v>
       </c>
       <c r="H71">
-        <v>0.03560623446627745</v>
+        <v>0.09989616811740067</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.0004180828300669327</v>
+        <v>-0.005548437889939953</v>
       </c>
       <c r="C72">
-        <v>-0.0003561922049987776</v>
+        <v>0.00284296984522353</v>
       </c>
       <c r="D72">
-        <v>-2.570979335316947e-06</v>
+        <v>4.714869475617942e-05</v>
       </c>
       <c r="E72">
-        <v>0.000433219609216294</v>
+        <v>0.001400014173107374</v>
       </c>
       <c r="F72">
-        <v>-0.0002716994963453863</v>
+        <v>-0.002292841011949651</v>
       </c>
       <c r="G72">
-        <v>9.176870996716146e-07</v>
+        <v>-5.665512770911101e-06</v>
       </c>
       <c r="H72">
-        <v>0.03651394270998011</v>
+        <v>0.1233651001970432</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.0007492655039121282</v>
+        <v>-0.01152014246876139</v>
       </c>
       <c r="C73">
-        <v>0.0006019401559777546</v>
+        <v>-0.002065368297128441</v>
       </c>
       <c r="D73">
-        <v>-3.151712246667567e-06</v>
+        <v>3.325970551092396e-05</v>
       </c>
       <c r="E73">
-        <v>0.0006623118218082938</v>
+        <v>0.003163956721182949</v>
       </c>
       <c r="F73">
-        <v>-4.875361613797995e-05</v>
+        <v>-0.002508777041506023</v>
       </c>
       <c r="G73">
-        <v>1.062948672314558e-06</v>
+        <v>-6.726143492356421e-06</v>
       </c>
       <c r="H73">
-        <v>0.03411173591513354</v>
+        <v>0.1336651395243893</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.0005765293769519788</v>
+        <v>-0.004907926391964009</v>
       </c>
       <c r="C74">
-        <v>0.0005707629069664455</v>
+        <v>0.001664501758677263</v>
       </c>
       <c r="D74">
-        <v>-1.340633449323409e-05</v>
+        <v>0.000112724097504945</v>
       </c>
       <c r="E74">
-        <v>0.0003122213611160621</v>
+        <v>-0.0004896796213180662</v>
       </c>
       <c r="F74">
-        <v>-5.894494161996647e-05</v>
+        <v>-0.003587727491992462</v>
       </c>
       <c r="G74">
-        <v>1.006418112351504e-06</v>
+        <v>-5.705454160339231e-06</v>
       </c>
       <c r="H74">
-        <v>0.03503021782909967</v>
+        <v>0.135058508912228</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.0007509677649975017</v>
+        <v>-0.0133985043880232</v>
       </c>
       <c r="C75">
-        <v>0.0001558043266324333</v>
+        <v>0.005801822868127512</v>
       </c>
       <c r="D75">
-        <v>-5.663919731378137e-07</v>
+        <v>3.535922108345371e-05</v>
       </c>
       <c r="E75">
-        <v>-4.204083786884041e-05</v>
+        <v>-0.00158276813686424</v>
       </c>
       <c r="F75">
-        <v>6.232302092186513e-05</v>
+        <v>-0.002164212402315687</v>
       </c>
       <c r="G75">
-        <v>7.304022452943527e-07</v>
+        <v>-2.941508452938806e-06</v>
       </c>
       <c r="H75">
-        <v>0.03281015475241406</v>
+        <v>0.1213244827524431</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0005005961826937693</v>
+        <v>-0.01244154235980937</v>
       </c>
       <c r="C76">
-        <v>-0.0005216987153415282</v>
+        <v>-0.00109234575195704</v>
       </c>
       <c r="D76">
-        <v>5.537331718004737e-06</v>
+        <v>4.012664675838682e-05</v>
       </c>
       <c r="E76">
-        <v>-0.0005726817511144955</v>
+        <v>-0.0003925396553694643</v>
       </c>
       <c r="F76">
-        <v>-0.0002169062161666662</v>
+        <v>-0.002475932322339505</v>
       </c>
       <c r="G76">
-        <v>3.883449062186067e-07</v>
+        <v>-4.232168964685155e-06</v>
       </c>
       <c r="H76">
-        <v>0.03522439642202765</v>
+        <v>0.1284513631241573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8.492029862522182e-05</v>
+        <v>-0.01136948101663844</v>
       </c>
       <c r="C77">
-        <v>-0.0005023614053357996</v>
+        <v>0.006054419442765411</v>
       </c>
       <c r="D77">
-        <v>-1.485853918324473e-06</v>
+        <v>6.918042333406944e-05</v>
       </c>
       <c r="E77">
-        <v>-0.0005412957620375761</v>
+        <v>-0.0003459545868343405</v>
       </c>
       <c r="F77">
-        <v>-0.0001747778472537052</v>
+        <v>-0.002458342497229447</v>
       </c>
       <c r="G77">
-        <v>-5.906022316521654e-07</v>
+        <v>-2.759547491323101e-06</v>
       </c>
       <c r="H77">
-        <v>0.03689084440176039</v>
+        <v>0.1207536071294917</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.001217741416921283</v>
+        <v>-0.01018252285611522</v>
       </c>
       <c r="C78">
-        <v>-0.0003855437039497877</v>
+        <v>-0.009003821631861707</v>
       </c>
       <c r="D78">
-        <v>-7.517535326314221e-06</v>
+        <v>2.300796181592159e-05</v>
       </c>
       <c r="E78">
-        <v>-0.0001903644751522528</v>
+        <v>-0.001429328691961954</v>
       </c>
       <c r="F78">
-        <v>0.0001730389528105765</v>
+        <v>-0.003640381968560853</v>
       </c>
       <c r="G78">
-        <v>8.946010205979296e-08</v>
+        <v>-5.223121176307616e-06</v>
       </c>
       <c r="H78">
-        <v>0.03293666382986248</v>
+        <v>0.1471271162812303</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.0005332283092362496</v>
+        <v>-0.01222058232509484</v>
       </c>
       <c r="C79">
-        <v>0.0006070625184299639</v>
+        <v>0.0006866396992287469</v>
       </c>
       <c r="D79">
-        <v>-5.368926725149621e-06</v>
+        <v>6.895607847904513e-05</v>
       </c>
       <c r="E79">
-        <v>-0.0001893101735670373</v>
+        <v>0.001745027115415451</v>
       </c>
       <c r="F79">
-        <v>-9.514394468592411e-06</v>
+        <v>-0.002781642853528749</v>
       </c>
       <c r="G79">
-        <v>1.219367390186639e-06</v>
+        <v>-3.186281546679531e-06</v>
       </c>
       <c r="H79">
-        <v>0.0334919048232548</v>
+        <v>0.1254217248504872</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0001222909950726609</v>
+        <v>-0.009859960101322798</v>
       </c>
       <c r="C80">
-        <v>-0.0003309668974154575</v>
+        <v>-0.002487929133827113</v>
       </c>
       <c r="D80">
-        <v>1.008165031200891e-06</v>
+        <v>6.900064362402904e-05</v>
       </c>
       <c r="E80">
-        <v>-0.0003213852397704955</v>
+        <v>0.00130543761997081</v>
       </c>
       <c r="F80">
-        <v>0.0001927941308491612</v>
+        <v>-0.003748475581905815</v>
       </c>
       <c r="G80">
-        <v>7.285909709319626e-07</v>
+        <v>-2.157480438107573e-06</v>
       </c>
       <c r="H80">
-        <v>0.0305112222029622</v>
+        <v>0.1349640833523621</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.0002198051672305892</v>
+        <v>-0.01170786565421462</v>
       </c>
       <c r="C81">
-        <v>0.0005642773646779094</v>
+        <v>0.0009684845945946918</v>
       </c>
       <c r="D81">
-        <v>2.327823331491556e-07</v>
+        <v>3.080403113542045e-05</v>
       </c>
       <c r="E81">
-        <v>-3.777796857197188e-05</v>
+        <v>0.003085818777012299</v>
       </c>
       <c r="F81">
-        <v>0.0001560114818811058</v>
+        <v>-0.001915164656359855</v>
       </c>
       <c r="G81">
-        <v>3.711618771320876e-07</v>
+        <v>-1.884808019922355e-06</v>
       </c>
       <c r="H81">
-        <v>0.03128570206561346</v>
+        <v>0.1120879042473618</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.0002235383348250988</v>
+        <v>-0.01289882156882085</v>
       </c>
       <c r="C82">
-        <v>0.00139899867881984</v>
+        <v>0.001837782105304671</v>
       </c>
       <c r="D82">
-        <v>4.038293257118741e-06</v>
+        <v>1.397190252541226e-05</v>
       </c>
       <c r="E82">
-        <v>0.0003123427781443304</v>
+        <v>-0.001513833738332519</v>
       </c>
       <c r="F82">
-        <v>2.080804928760588e-05</v>
+        <v>-0.001975264757532789</v>
       </c>
       <c r="G82">
-        <v>1.036644461123398e-07</v>
+        <v>-3.00560066485074e-06</v>
       </c>
       <c r="H82">
-        <v>0.03278898741632433</v>
+        <v>0.1221401233993781</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.000296777775882925</v>
+        <v>-0.01120460592547534</v>
       </c>
       <c r="C83">
-        <v>-0.001481169251559435</v>
+        <v>0.001237391780699723</v>
       </c>
       <c r="D83">
-        <v>4.452324457073592e-06</v>
+        <v>8.534329244564077e-05</v>
       </c>
       <c r="E83">
-        <v>0.0003128243892814853</v>
+        <v>0.003679472711481523</v>
       </c>
       <c r="F83">
-        <v>-0.000325409699733598</v>
+        <v>-0.003056142698011168</v>
       </c>
       <c r="G83">
-        <v>8.313993628604265e-07</v>
+        <v>-3.413504963924486e-06</v>
       </c>
       <c r="H83">
-        <v>0.03680270926537874</v>
+        <v>0.1254817402554211</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.0004466576100660502</v>
+        <v>-0.006213688970479738</v>
       </c>
       <c r="C84">
-        <v>0.0005483528149050604</v>
+        <v>-0.0005873435172302341</v>
       </c>
       <c r="D84">
-        <v>2.342782099123581e-06</v>
+        <v>7.804317439693867e-05</v>
       </c>
       <c r="E84">
-        <v>-5.49193506149577e-05</v>
+        <v>0.0009370673508512159</v>
       </c>
       <c r="F84">
-        <v>-2.539069502270109e-05</v>
+        <v>-0.002753354982161635</v>
       </c>
       <c r="G84">
-        <v>6.630155892400398e-07</v>
+        <v>-2.894382312542626e-06</v>
       </c>
       <c r="H84">
-        <v>0.03346008093148874</v>
+        <v>0.1199904996726953</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-9.503148879690354e-05</v>
+        <v>-0.007851226479914535</v>
       </c>
       <c r="C85">
-        <v>0.0008130038401451164</v>
+        <v>0.004704099624090453</v>
       </c>
       <c r="D85">
-        <v>-5.357390698759953e-06</v>
+        <v>1.348389499783451e-05</v>
       </c>
       <c r="E85">
-        <v>-0.0003540013749063313</v>
+        <v>0.001407387807074299</v>
       </c>
       <c r="F85">
-        <v>1.818559810728331e-05</v>
+        <v>-0.001983925644745546</v>
       </c>
       <c r="G85">
-        <v>2.593336277106042e-07</v>
+        <v>-2.445309589184271e-06</v>
       </c>
       <c r="H85">
-        <v>0.03379144256240644</v>
+        <v>0.1146612800151619</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.0004778226427680455</v>
+        <v>-0.008229949971129743</v>
       </c>
       <c r="C86">
-        <v>-9.558942474187447e-05</v>
+        <v>0.002648498535270181</v>
       </c>
       <c r="D86">
-        <v>-8.459458416045854e-06</v>
+        <v>7.404289747018662e-05</v>
       </c>
       <c r="E86">
-        <v>0.0009980368509209039</v>
+        <v>0.003640296172886665</v>
       </c>
       <c r="F86">
-        <v>0.000241037221716949</v>
+        <v>-0.002487748505341398</v>
       </c>
       <c r="G86">
-        <v>9.459977429036897e-08</v>
+        <v>-2.44832514000107e-06</v>
       </c>
       <c r="H86">
-        <v>0.03120877345994157</v>
+        <v>0.1187914758462733</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.001179125621245591</v>
+        <v>-0.01131800358993846</v>
       </c>
       <c r="C87">
-        <v>0.000488333778075077</v>
+        <v>-0.001184267317223336</v>
       </c>
       <c r="D87">
-        <v>7.736201527658507e-07</v>
+        <v>9.478846532325009e-05</v>
       </c>
       <c r="E87">
-        <v>-0.0001044364931025513</v>
+        <v>0.002074215030717794</v>
       </c>
       <c r="F87">
-        <v>-0.0001605020557873648</v>
+        <v>-0.002059538232215757</v>
       </c>
       <c r="G87">
-        <v>1.325059382196441e-06</v>
+        <v>-2.008069717017397e-06</v>
       </c>
       <c r="H87">
-        <v>0.03471348716810091</v>
+        <v>0.1078746694111287</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.4932607468883e-05</v>
+        <v>-0.01102663380752503</v>
       </c>
       <c r="C88">
-        <v>-0.0001598914548956294</v>
+        <v>0.004645395757062867</v>
       </c>
       <c r="D88">
-        <v>8.096898605560501e-07</v>
+        <v>6.400636607990559e-05</v>
       </c>
       <c r="E88">
-        <v>-0.0001124386655363407</v>
+        <v>0.001145414182512974</v>
       </c>
       <c r="F88">
-        <v>6.259122033199448e-05</v>
+        <v>-0.00203597962563578</v>
       </c>
       <c r="G88">
-        <v>-4.164157648542522e-07</v>
+        <v>-3.953099587957161e-06</v>
       </c>
       <c r="H88">
-        <v>0.03319605201162509</v>
+        <v>0.1180528962149026</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0007273376364199319</v>
+        <v>-0.006512842148242218</v>
       </c>
       <c r="C89">
-        <v>-0.0002180781363720777</v>
+        <v>0.002637240298564705</v>
       </c>
       <c r="D89">
-        <v>2.370303293030097e-06</v>
+        <v>6.09986203636421e-05</v>
       </c>
       <c r="E89">
-        <v>-1.625735678158907e-05</v>
+        <v>0.0008336749968836377</v>
       </c>
       <c r="F89">
-        <v>-0.0001593829559947752</v>
+        <v>-0.002869624454735677</v>
       </c>
       <c r="G89">
-        <v>2.995064858857279e-07</v>
+        <v>-3.502697961747295e-06</v>
       </c>
       <c r="H89">
-        <v>0.03456842861561</v>
+        <v>0.1245716892977576</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0008745475160119921</v>
+        <v>-0.0134057309878567</v>
       </c>
       <c r="C90">
-        <v>0.0009895337539255638</v>
+        <v>-0.0007078386348388097</v>
       </c>
       <c r="D90">
-        <v>-7.91072009148151e-06</v>
+        <v>3.930467529225525e-05</v>
       </c>
       <c r="E90">
-        <v>-0.0002070466329334372</v>
+        <v>0.002025871708533473</v>
       </c>
       <c r="F90">
-        <v>3.251578016208456e-05</v>
+        <v>-0.002296188066514143</v>
       </c>
       <c r="G90">
-        <v>1.060965153380219e-06</v>
+        <v>-2.670468043715352e-06</v>
       </c>
       <c r="H90">
-        <v>0.0335881174908442</v>
+        <v>0.1219921529979018</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0002824414958080283</v>
+        <v>-0.009423313261919374</v>
       </c>
       <c r="C91">
-        <v>-0.001085968800538065</v>
+        <v>0.001299342436176636</v>
       </c>
       <c r="D91">
-        <v>5.532348534492965e-06</v>
+        <v>8.390134908099653e-05</v>
       </c>
       <c r="E91">
-        <v>0.0001569930251417509</v>
+        <v>0.0007668123733767032</v>
       </c>
       <c r="F91">
-        <v>-0.0002024081363337914</v>
+        <v>-0.001643121952361461</v>
       </c>
       <c r="G91">
-        <v>1.921414731309066e-07</v>
+        <v>-4.628445643374561e-06</v>
       </c>
       <c r="H91">
-        <v>0.03500558177872258</v>
+        <v>0.1094009300799336</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.0004970354710415496</v>
+        <v>-0.006896292587815351</v>
       </c>
       <c r="C92">
-        <v>-0.0009814280800900265</v>
+        <v>-0.003044218625171163</v>
       </c>
       <c r="D92">
-        <v>-1.034855342557249e-06</v>
+        <v>5.484669949413062e-05</v>
       </c>
       <c r="E92">
-        <v>-0.0006809943578865163</v>
+        <v>-0.0005701352448533245</v>
       </c>
       <c r="F92">
-        <v>-0.0002516539639390156</v>
+        <v>-0.001601058476380841</v>
       </c>
       <c r="G92">
-        <v>1.060554133417165e-06</v>
+        <v>-5.002912325682346e-06</v>
       </c>
       <c r="H92">
-        <v>0.03642529742863868</v>
+        <v>0.1109043971065226</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0002115917924401748</v>
+        <v>-0.01787881584502152</v>
       </c>
       <c r="C93">
-        <v>-5.44213240479872e-05</v>
+        <v>0.005266857802854625</v>
       </c>
       <c r="D93">
-        <v>4.930675852169491e-06</v>
+        <v>-8.019169626557814e-05</v>
       </c>
       <c r="E93">
-        <v>0.0003486867596731551</v>
+        <v>-0.003394953101749837</v>
       </c>
       <c r="F93">
-        <v>-7.116896614601273e-05</v>
+        <v>-0.00176599899365527</v>
       </c>
       <c r="G93">
-        <v>4.538415688184208e-07</v>
+        <v>-6.898130583597957e-06</v>
       </c>
       <c r="H93">
-        <v>0.03349243080055517</v>
+        <v>0.1450959286425995</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.0007381248800734477</v>
+        <v>-0.007917880651652975</v>
       </c>
       <c r="C94">
-        <v>-0.0006442864831567376</v>
+        <v>0.001979346038861585</v>
       </c>
       <c r="D94">
-        <v>-2.262024787324367e-06</v>
+        <v>3.381180864891834e-05</v>
       </c>
       <c r="E94">
-        <v>0.0005527014505227329</v>
+        <v>0.002915086193969608</v>
       </c>
       <c r="F94">
-        <v>-0.0001125403178378907</v>
+        <v>-0.003423074241158286</v>
       </c>
       <c r="G94">
-        <v>1.206631012125623e-06</v>
+        <v>-2.538263243884998e-06</v>
       </c>
       <c r="H94">
-        <v>0.03488946213209274</v>
+        <v>0.1315455452137315</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0004250586407819699</v>
+        <v>-0.007070994698997106</v>
       </c>
       <c r="C95">
-        <v>0.00112285992541951</v>
+        <v>-0.00185055484549684</v>
       </c>
       <c r="D95">
-        <v>-4.389356919211445e-06</v>
+        <v>6.125204776547159e-05</v>
       </c>
       <c r="E95">
-        <v>0.0001429441392902971</v>
+        <v>0.002799515035798283</v>
       </c>
       <c r="F95">
-        <v>8.51903537054631e-05</v>
+        <v>-0.002854351141107704</v>
       </c>
       <c r="G95">
-        <v>4.51078505240272e-07</v>
+        <v>-1.367537623328161e-06</v>
       </c>
       <c r="H95">
-        <v>0.03269806686964968</v>
+        <v>0.1175915749500126</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.000186492167708758</v>
+        <v>-0.007579134377953827</v>
       </c>
       <c r="C96">
-        <v>0.0001077325658973591</v>
+        <v>0.005243766426676591</v>
       </c>
       <c r="D96">
-        <v>-8.119918413217653e-07</v>
+        <v>6.957434970105323e-05</v>
       </c>
       <c r="E96">
-        <v>-1.192298527494598e-05</v>
+        <v>0.003016631170186565</v>
       </c>
       <c r="F96">
-        <v>-9.512238647660408e-05</v>
+        <v>-0.002755171187545838</v>
       </c>
       <c r="G96">
-        <v>2.091606021793936e-09</v>
+        <v>-2.09675970596736e-06</v>
       </c>
       <c r="H96">
-        <v>0.0348372937251565</v>
+        <v>0.1164272425871348</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0009860893267376351</v>
+        <v>-0.01033519603370647</v>
       </c>
       <c r="C97">
-        <v>0.0007826671860486265</v>
+        <v>-0.003309614888346172</v>
       </c>
       <c r="D97">
-        <v>-9.584360203259201e-06</v>
+        <v>6.450136268807902e-05</v>
       </c>
       <c r="E97">
-        <v>-0.0005314311432179086</v>
+        <v>0.00159576186435826</v>
       </c>
       <c r="F97">
-        <v>-0.0002214957331276999</v>
+        <v>-0.003329422395043405</v>
       </c>
       <c r="G97">
-        <v>1.880084906415726e-06</v>
+        <v>4.066527464689634e-07</v>
       </c>
       <c r="H97">
-        <v>0.0363986453272038</v>
+        <v>0.1208971667738072</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-6.352001649626666e-05</v>
+        <v>-0.009207139363630221</v>
       </c>
       <c r="C98">
-        <v>-0.0001669019835553026</v>
+        <v>-0.00179364707177073</v>
       </c>
       <c r="D98">
-        <v>-1.06610420891113e-06</v>
+        <v>6.752674186453103e-05</v>
       </c>
       <c r="E98">
-        <v>-0.0005823912675802824</v>
+        <v>0.001163877058061771</v>
       </c>
       <c r="F98">
-        <v>7.873924333498918e-05</v>
+        <v>-0.002753316467865793</v>
       </c>
       <c r="G98">
-        <v>-1.535700989765141e-07</v>
+        <v>-2.243043256183558e-06</v>
       </c>
       <c r="H98">
-        <v>0.03315520354357077</v>
+        <v>0.1226247935804533</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.000120842290933806</v>
+        <v>-0.008810013819495695</v>
       </c>
       <c r="C99">
-        <v>0.0005345303400705169</v>
+        <v>0.007564847514918716</v>
       </c>
       <c r="D99">
-        <v>-7.577759676841201e-08</v>
+        <v>3.759084195787225e-05</v>
       </c>
       <c r="E99">
-        <v>-0.0002031183530533491</v>
+        <v>-0.001925833245189114</v>
       </c>
       <c r="F99">
-        <v>9.391514500022837e-05</v>
+        <v>-0.002246402271960916</v>
       </c>
       <c r="G99">
-        <v>-2.332665539339437e-07</v>
+        <v>-4.880390304566476e-06</v>
       </c>
       <c r="H99">
-        <v>0.03263962629728327</v>
+        <v>0.124792969603664</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.0005531285774983158</v>
+        <v>-0.012344369880717</v>
       </c>
       <c r="C100">
-        <v>-0.001536063913964776</v>
+        <v>-0.00148269459902984</v>
       </c>
       <c r="D100">
-        <v>8.27280487114699e-06</v>
+        <v>1.802466881278558e-05</v>
       </c>
       <c r="E100">
-        <v>0.0003303111041306935</v>
+        <v>0.0002745779371090412</v>
       </c>
       <c r="F100">
-        <v>2.714491653980347e-05</v>
+        <v>-0.0009655859627350906</v>
       </c>
       <c r="G100">
-        <v>8.951239655129891e-07</v>
+        <v>-4.101734154775799e-06</v>
       </c>
       <c r="H100">
-        <v>0.0321411449484706</v>
+        <v>0.1097119380812222</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0003465131941476729</v>
+        <v>-0.01109167450920941</v>
       </c>
       <c r="C101">
-        <v>0.0002293294736519757</v>
+        <v>0.0003465716445040378</v>
       </c>
       <c r="D101">
-        <v>-6.858339199329148e-06</v>
+        <v>6.28312719222309e-05</v>
       </c>
       <c r="E101">
-        <v>0.0006210467239578556</v>
+        <v>0.0005435049112715584</v>
       </c>
       <c r="F101">
-        <v>2.362571738891834e-05</v>
+        <v>-0.002162430979847745</v>
       </c>
       <c r="G101">
-        <v>6.570303600282399e-07</v>
+        <v>-1.013478273777813e-06</v>
       </c>
       <c r="H101">
-        <v>0.03329071708160627</v>
+        <v>0.1115010965939347</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0006573122469852107</v>
+        <v>-0.01105792915239972</v>
       </c>
       <c r="C102">
-        <v>-0.0001625257955987472</v>
+        <v>-0.002486307840230923</v>
       </c>
       <c r="D102">
-        <v>1.25251135819403e-05</v>
+        <v>4.576326364315062e-05</v>
       </c>
       <c r="E102">
-        <v>-0.0005987420219408165</v>
+        <v>0.001773021735093264</v>
       </c>
       <c r="F102">
-        <v>-0.0002197073659088226</v>
+        <v>-0.001901864872532845</v>
       </c>
       <c r="G102">
-        <v>-3.536039684260816e-07</v>
+        <v>-2.936630813530074e-06</v>
       </c>
       <c r="H102">
-        <v>0.03535848710400487</v>
+        <v>0.1145075047205087</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.0002012447570284401</v>
+        <v>-0.01238840946904777</v>
       </c>
       <c r="C103">
-        <v>0.001329975683802886</v>
+        <v>-0.002609478769030844</v>
       </c>
       <c r="D103">
-        <v>-5.353825121554846e-06</v>
+        <v>3.98904855512213e-05</v>
       </c>
       <c r="E103">
-        <v>0.0001486096063444443</v>
+        <v>0.002618742373480518</v>
       </c>
       <c r="F103">
-        <v>7.796969355352863e-05</v>
+        <v>-0.002519556739142723</v>
       </c>
       <c r="G103">
-        <v>-3.82580748646932e-07</v>
+        <v>-3.490991523295667e-06</v>
       </c>
       <c r="H103">
-        <v>0.03332867491030369</v>
+        <v>0.1261660237636057</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.0005161774999388972</v>
+        <v>-0.01076573821254611</v>
       </c>
       <c r="C104">
-        <v>0.0005016516114216427</v>
+        <v>0.01055479343653327</v>
       </c>
       <c r="D104">
-        <v>-5.630392521889858e-07</v>
+        <v>5.722184560865027e-05</v>
       </c>
       <c r="E104">
-        <v>7.182575794373314e-05</v>
+        <v>0.002764856193441537</v>
       </c>
       <c r="F104">
-        <v>-6.993068576195065e-05</v>
+        <v>-0.002499163871929092</v>
       </c>
       <c r="G104">
-        <v>1.24210164014644e-06</v>
+        <v>-2.590994810878482e-06</v>
       </c>
       <c r="H104">
-        <v>0.03349271776228769</v>
+        <v>0.1200923655123333</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.000184683361108307</v>
+        <v>-0.001987577583565124</v>
       </c>
       <c r="C105">
-        <v>-0.0001369509215433352</v>
+        <v>-0.006534919552642278</v>
       </c>
       <c r="D105">
-        <v>-1.504537647967562e-06</v>
+        <v>8.90984996455132e-05</v>
       </c>
       <c r="E105">
-        <v>4.486328233852671e-05</v>
+        <v>-0.002027516175581556</v>
       </c>
       <c r="F105">
-        <v>0.000125070071663064</v>
+        <v>-0.003833193657958069</v>
       </c>
       <c r="G105">
-        <v>3.419263546224038e-08</v>
+        <v>-4.741099495976288e-06</v>
       </c>
       <c r="H105">
-        <v>0.0321919900040387</v>
+        <v>0.1348178248362597</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.664555696137981e-05</v>
+        <v>-0.009516301381400687</v>
       </c>
       <c r="C106">
-        <v>0.0001541367832579605</v>
+        <v>0.005509515812491</v>
       </c>
       <c r="D106">
-        <v>4.572910692889611e-06</v>
+        <v>5.988863218651025e-05</v>
       </c>
       <c r="E106">
-        <v>-5.207060787552897e-05</v>
+        <v>0.001178316382836726</v>
       </c>
       <c r="F106">
-        <v>-9.717716936435473e-05</v>
+        <v>-0.001966128196804464</v>
       </c>
       <c r="G106">
-        <v>1.003931303521518e-06</v>
+        <v>-2.576590907431236e-06</v>
       </c>
       <c r="H106">
-        <v>0.03312980897978854</v>
+        <v>0.1117129507092158</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.0006855600638548116</v>
+        <v>-0.01156319020057543</v>
       </c>
       <c r="C107">
-        <v>-0.0002153938188720426</v>
+        <v>0.003329945265294666</v>
       </c>
       <c r="D107">
-        <v>-1.647084921197495e-07</v>
+        <v>7.522381902741989e-05</v>
       </c>
       <c r="E107">
-        <v>-1.201326722244031e-05</v>
+        <v>0.004644883692342269</v>
       </c>
       <c r="F107">
-        <v>-1.688296253913885e-06</v>
+        <v>-0.003575260837362074</v>
       </c>
       <c r="G107">
-        <v>1.12141285864447e-06</v>
+        <v>-2.553201467925819e-06</v>
       </c>
       <c r="H107">
-        <v>0.03314079478536257</v>
+        <v>0.1334413041729013</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.0001658155001021725</v>
+        <v>-0.0115688911586255</v>
       </c>
       <c r="C108">
-        <v>-0.001032219537472954</v>
+        <v>0.002136490865325801</v>
       </c>
       <c r="D108">
-        <v>5.895491223363784e-06</v>
+        <v>5.903305761311616e-05</v>
       </c>
       <c r="E108">
-        <v>-0.0003479665074068682</v>
+        <v>0.001096066886001543</v>
       </c>
       <c r="F108">
-        <v>6.041297440594539e-06</v>
+        <v>-0.001138777303364983</v>
       </c>
       <c r="G108">
-        <v>4.453274604416818e-07</v>
+        <v>-4.45195258483158e-06</v>
       </c>
       <c r="H108">
-        <v>0.03275533278981054</v>
+        <v>0.1090305394391265</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.0001117541493213772</v>
+        <v>-0.01353146232386969</v>
       </c>
       <c r="C109">
-        <v>0.0004549631602981825</v>
+        <v>-0.004976368841406339</v>
       </c>
       <c r="D109">
-        <v>8.458186070451573e-07</v>
+        <v>7.42436277378722e-05</v>
       </c>
       <c r="E109">
-        <v>0.0002534755432523732</v>
+        <v>0.005955712459355569</v>
       </c>
       <c r="F109">
-        <v>-8.071787610058065e-05</v>
+        <v>-0.002698248531190518</v>
       </c>
       <c r="G109">
-        <v>6.954938673448968e-07</v>
+        <v>-3.731848843211523e-06</v>
       </c>
       <c r="H109">
-        <v>0.03358626718004606</v>
+        <v>0.1295309963857645</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-6.588938826249005e-05</v>
+        <v>-0.0116923031451384</v>
       </c>
       <c r="C110">
-        <v>-0.0005648897889470631</v>
+        <v>0.0005834334519230065</v>
       </c>
       <c r="D110">
-        <v>-3.963982066216154e-06</v>
+        <v>6.309314925822724e-05</v>
       </c>
       <c r="E110">
-        <v>0.0002947035249336212</v>
+        <v>0.001525108997671241</v>
       </c>
       <c r="F110">
-        <v>-8.770767573927445e-05</v>
+        <v>-0.003743601553785133</v>
       </c>
       <c r="G110">
-        <v>8.519595006298288e-07</v>
+        <v>1.781757106363035e-06</v>
       </c>
       <c r="H110">
-        <v>0.03405787567002637</v>
+        <v>0.1252519802678791</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.0002138430330922054</v>
+        <v>-0.02107855324842002</v>
       </c>
       <c r="C111">
-        <v>-0.0001487546553448074</v>
+        <v>-0.004074189959369973</v>
       </c>
       <c r="D111">
-        <v>6.421724267186449e-06</v>
+        <v>5.10773078132754e-05</v>
       </c>
       <c r="E111">
-        <v>-0.0004087527745527467</v>
+        <v>0.001571020757437112</v>
       </c>
       <c r="F111">
-        <v>-0.0001103878354276555</v>
+        <v>-0.002995965520174049</v>
       </c>
       <c r="G111">
-        <v>8.001663245041716e-07</v>
+        <v>-2.104021249752077e-06</v>
       </c>
       <c r="H111">
-        <v>0.0339226799726112</v>
+        <v>0.1358733780618646</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>9.90985089631205e-05</v>
+        <v>-0.009875702903539205</v>
       </c>
       <c r="C112">
-        <v>0.0004228558137543235</v>
+        <v>-0.003242878734657131</v>
       </c>
       <c r="D112">
-        <v>6.16208478905798e-06</v>
+        <v>8.819133842188049e-05</v>
       </c>
       <c r="E112">
-        <v>0.000279880623332656</v>
+        <v>0.001880648474278511</v>
       </c>
       <c r="F112">
-        <v>0.0001850217983040744</v>
+        <v>-0.003810063225439517</v>
       </c>
       <c r="G112">
-        <v>-7.382876778716505e-07</v>
+        <v>-1.899113885378831e-06</v>
       </c>
       <c r="H112">
-        <v>0.0313023344712647</v>
+        <v>0.1305837193657567</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0004630399054977707</v>
+        <v>-0.006567513186160783</v>
       </c>
       <c r="C113">
-        <v>0.0004912386443981351</v>
+        <v>0.0002653376779234788</v>
       </c>
       <c r="D113">
-        <v>1.354337871832663e-06</v>
+        <v>2.975329206158378e-05</v>
       </c>
       <c r="E113">
-        <v>-0.0002212985037433474</v>
+        <v>0.002769703853215476</v>
       </c>
       <c r="F113">
-        <v>-0.0001042837163438394</v>
+        <v>-0.002976666516853868</v>
       </c>
       <c r="G113">
-        <v>-1.12261467657755e-06</v>
+        <v>-2.167305962939593e-06</v>
       </c>
       <c r="H113">
-        <v>0.03565763395895979</v>
+        <v>0.1286359760503683</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-9.923226534942872e-05</v>
+        <v>-0.008183850253244699</v>
       </c>
       <c r="C114">
-        <v>-0.0001146117764552847</v>
+        <v>0.004764307380891413</v>
       </c>
       <c r="D114">
-        <v>6.517551198222114e-06</v>
+        <v>7.630287738164785e-05</v>
       </c>
       <c r="E114">
-        <v>-0.0003141057974684405</v>
+        <v>-0.0003542120669987048</v>
       </c>
       <c r="F114">
-        <v>-9.809625336475256e-05</v>
+        <v>-0.002213998762419987</v>
       </c>
       <c r="G114">
-        <v>-1.655561001153457e-07</v>
+        <v>-4.702695139303743e-06</v>
       </c>
       <c r="H114">
-        <v>0.03437381236429085</v>
+        <v>0.1193241694228425</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.0005198224404647433</v>
+        <v>-0.008757476872212209</v>
       </c>
       <c r="C115">
-        <v>-0.0008674489277899932</v>
+        <v>7.519477369463288e-05</v>
       </c>
       <c r="D115">
-        <v>1.479335021525898e-06</v>
+        <v>8.988572683942937e-05</v>
       </c>
       <c r="E115">
-        <v>-0.000107984133840687</v>
+        <v>0.00217911923417359</v>
       </c>
       <c r="F115">
-        <v>-0.0001053811668565714</v>
+        <v>-0.004073590087334019</v>
       </c>
       <c r="G115">
-        <v>1.467774709333383e-06</v>
+        <v>-5.462103154271809e-07</v>
       </c>
       <c r="H115">
-        <v>0.03373530805882216</v>
+        <v>0.1301064794012816</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0003874208910832856</v>
+        <v>-0.009059846979642966</v>
       </c>
       <c r="C116">
-        <v>8.717895595803824e-05</v>
+        <v>0.004571961643929634</v>
       </c>
       <c r="D116">
-        <v>-9.598080976505651e-07</v>
+        <v>1.418244518435724e-05</v>
       </c>
       <c r="E116">
-        <v>9.271261639719197e-05</v>
+        <v>0.000471583818298725</v>
       </c>
       <c r="F116">
-        <v>-9.03547957209755e-05</v>
+        <v>-0.001139535555164575</v>
       </c>
       <c r="G116">
-        <v>4.599631150599064e-07</v>
+        <v>-5.556807886370806e-06</v>
       </c>
       <c r="H116">
-        <v>0.03404151670148923</v>
+        <v>0.1120072774753684</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.0009360813163477714</v>
+        <v>-0.0120679693722585</v>
       </c>
       <c r="C117">
-        <v>-0.0009413554805335819</v>
+        <v>0.005415332866352571</v>
       </c>
       <c r="D117">
-        <v>6.588803117664539e-07</v>
+        <v>2.568421556804285e-05</v>
       </c>
       <c r="E117">
-        <v>0.0001880522761643771</v>
+        <v>-0.00286682218505005</v>
       </c>
       <c r="F117">
-        <v>7.551696722960205e-05</v>
+        <v>-0.001195029391958515</v>
       </c>
       <c r="G117">
-        <v>1.277322364741769e-06</v>
+        <v>-2.008679476151095e-06</v>
       </c>
       <c r="H117">
-        <v>0.03221671337489438</v>
+        <v>0.1063748832065353</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.0004359642326521322</v>
+        <v>-0.0044873207744979</v>
       </c>
       <c r="C118">
-        <v>8.167699266721956e-05</v>
+        <v>0.005469978494603736</v>
       </c>
       <c r="D118">
-        <v>-4.735239618225298e-07</v>
+        <v>7.559584684067026e-05</v>
       </c>
       <c r="E118">
-        <v>0.0002533972447725102</v>
+        <v>0.002734088685718533</v>
       </c>
       <c r="F118">
-        <v>0.0001095386992094965</v>
+        <v>-0.003249091585037627</v>
       </c>
       <c r="G118">
-        <v>9.056506898833485e-07</v>
+        <v>-3.926823212066676e-06</v>
       </c>
       <c r="H118">
-        <v>0.03173045360128141</v>
+        <v>0.128626654003361</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0002580673559391818</v>
+        <v>-0.0129875298576828</v>
       </c>
       <c r="C119">
-        <v>-0.0006760611274330085</v>
+        <v>0.003024971171067013</v>
       </c>
       <c r="D119">
-        <v>-2.298808717109625e-06</v>
+        <v>3.106031432141318e-05</v>
       </c>
       <c r="E119">
-        <v>-0.0001389270680672919</v>
+        <v>-0.0004864182825737445</v>
       </c>
       <c r="F119">
-        <v>-0.0001722106044821938</v>
+        <v>-0.001029659092339489</v>
       </c>
       <c r="G119">
-        <v>-6.070738445316411e-07</v>
+        <v>-4.90815380700548e-06</v>
       </c>
       <c r="H119">
-        <v>0.03663123997324581</v>
+        <v>0.1131235510533507</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.000160286401803161</v>
+        <v>-0.01122546988963414</v>
       </c>
       <c r="C120">
-        <v>-0.0001888554529288284</v>
+        <v>9.03888740479968e-05</v>
       </c>
       <c r="D120">
-        <v>-5.929269012092306e-07</v>
+        <v>2.13775888566593e-05</v>
       </c>
       <c r="E120">
-        <v>-0.0001692565423378999</v>
+        <v>-0.0009164074219658591</v>
       </c>
       <c r="F120">
-        <v>0.0001725875739807557</v>
+        <v>-0.002392631451414732</v>
       </c>
       <c r="G120">
-        <v>5.308524627630344e-07</v>
+        <v>-4.361625532645164e-06</v>
       </c>
       <c r="H120">
-        <v>0.03126080305179934</v>
+        <v>0.129501672325897</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-9.600688276619309e-05</v>
+        <v>-0.00739826010395048</v>
       </c>
       <c r="C121">
-        <v>-0.0009948330707635763</v>
+        <v>-0.003264796095332469</v>
       </c>
       <c r="D121">
-        <v>3.171078004299973e-06</v>
+        <v>0.0001097270106672575</v>
       </c>
       <c r="E121">
-        <v>0.0006034728246734761</v>
+        <v>-0.0003077465805474758</v>
       </c>
       <c r="F121">
-        <v>-3.157828555268609e-06</v>
+        <v>-0.00316331854991835</v>
       </c>
       <c r="G121">
-        <v>-5.835843287336819e-07</v>
+        <v>-3.236740206455448e-06</v>
       </c>
       <c r="H121">
-        <v>0.03379028119740684</v>
+        <v>0.1230460261284712</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC1_coef.xlsx
+++ b/FOMC1_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.008962161746070152</v>
+        <v>-0.00754061178038278</v>
       </c>
       <c r="C2">
-        <v>-0.004114178301239027</v>
+        <v>0.001357315622707795</v>
       </c>
       <c r="D2">
-        <v>4.22019669784823e-05</v>
+        <v>9.343927828398858e-05</v>
       </c>
       <c r="E2">
-        <v>0.001003290019686409</v>
+        <v>0.002343800700459642</v>
       </c>
       <c r="F2">
-        <v>-0.00195627796660739</v>
+        <v>-0.003069209112369239</v>
       </c>
       <c r="G2">
-        <v>-2.066587340370709e-06</v>
+        <v>9.611723212880285e-07</v>
       </c>
       <c r="H2">
-        <v>0.1119410494237765</v>
+        <v>0.103742617356458</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.01740474383562774</v>
+        <v>-0.007625366839230826</v>
       </c>
       <c r="C3">
-        <v>-0.0004064324525183331</v>
+        <v>-0.004061047110238914</v>
       </c>
       <c r="D3">
-        <v>-5.016247044714123e-05</v>
+        <v>8.934314167206357e-05</v>
       </c>
       <c r="E3">
-        <v>-0.003820649592568275</v>
+        <v>0.0002264461753168426</v>
       </c>
       <c r="F3">
-        <v>-0.00129174217889599</v>
+        <v>-0.00113479648525459</v>
       </c>
       <c r="G3">
-        <v>-4.517376597869655e-06</v>
+        <v>-9.791517722424368e-07</v>
       </c>
       <c r="H3">
-        <v>0.1271771922526961</v>
+        <v>0.08490292624697038</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.01403021030880936</v>
+        <v>-0.0067272722376316</v>
       </c>
       <c r="C4">
-        <v>-0.005155073551671567</v>
+        <v>-0.0012381884204785</v>
       </c>
       <c r="D4">
-        <v>5.818449200699597e-05</v>
+        <v>8.791975415955238e-05</v>
       </c>
       <c r="E4">
-        <v>-0.0006058108882178032</v>
+        <v>0.0007388733286941562</v>
       </c>
       <c r="F4">
-        <v>-0.001721083098263161</v>
+        <v>-0.002918587425551073</v>
       </c>
       <c r="G4">
-        <v>-2.037610692006475e-06</v>
+        <v>-5.467306084988095e-07</v>
       </c>
       <c r="H4">
-        <v>0.1118032718441743</v>
+        <v>0.1049887269348532</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0146077826860845</v>
+        <v>-0.00964479343013578</v>
       </c>
       <c r="C5">
-        <v>-0.003764590839605818</v>
+        <v>-0.001470757701779359</v>
       </c>
       <c r="D5">
-        <v>5.837795747919058e-05</v>
+        <v>4.940208812186733e-05</v>
       </c>
       <c r="E5">
-        <v>0.003552447622625736</v>
+        <v>0.003706824338498151</v>
       </c>
       <c r="F5">
-        <v>-0.001534795597872471</v>
+        <v>-0.00209666675577963</v>
       </c>
       <c r="G5">
-        <v>-3.237548632058972e-06</v>
+        <v>3.629577190446211e-07</v>
       </c>
       <c r="H5">
-        <v>0.1131934472495081</v>
+        <v>0.0977472567245798</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.00951932835681946</v>
+        <v>-0.008590935562445477</v>
       </c>
       <c r="C6">
-        <v>-0.00287465777621727</v>
+        <v>-0.0004633872129737808</v>
       </c>
       <c r="D6">
-        <v>8.616505278185685e-05</v>
+        <v>6.638205927242158e-05</v>
       </c>
       <c r="E6">
-        <v>0.003547993180396045</v>
+        <v>0.001023015815165063</v>
       </c>
       <c r="F6">
-        <v>-0.003614851433557935</v>
+        <v>-0.002889821585440034</v>
       </c>
       <c r="G6">
-        <v>-2.200203397501144e-06</v>
+        <v>-5.342109376217773e-07</v>
       </c>
       <c r="H6">
-        <v>0.1303854950071082</v>
+        <v>0.1095960645865644</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.01135670353533322</v>
+        <v>-0.007226837249800695</v>
       </c>
       <c r="C7">
-        <v>-0.002689174759181752</v>
+        <v>0.001475549266619375</v>
       </c>
       <c r="D7">
-        <v>8.431850108290016e-05</v>
+        <v>7.388542942147929e-05</v>
       </c>
       <c r="E7">
-        <v>0.001158150370463344</v>
+        <v>0.0009955530700889795</v>
       </c>
       <c r="F7">
-        <v>-0.002820571963503665</v>
+        <v>-0.0019919415349593</v>
       </c>
       <c r="G7">
-        <v>-2.41564680936558e-06</v>
+        <v>-2.046521415255831e-06</v>
       </c>
       <c r="H7">
-        <v>0.1214044420998368</v>
+        <v>0.09903658392183447</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.007269443230913119</v>
+        <v>-0.009816715359744873</v>
       </c>
       <c r="C8">
-        <v>0.0009007361226410914</v>
+        <v>-0.001571860676243601</v>
       </c>
       <c r="D8">
-        <v>8.183016150312825e-05</v>
+        <v>5.289888117369447e-05</v>
       </c>
       <c r="E8">
-        <v>0.001790800589888376</v>
+        <v>-0.001263873215878543</v>
       </c>
       <c r="F8">
-        <v>-0.002611663909631051</v>
+        <v>-0.002499219289679284</v>
       </c>
       <c r="G8">
-        <v>-5.090100979173567e-06</v>
+        <v>-1.177496848845876e-06</v>
       </c>
       <c r="H8">
-        <v>0.1221803625556205</v>
+        <v>0.1081694740101147</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01223713378661134</v>
+        <v>-0.006982545276966095</v>
       </c>
       <c r="C9">
-        <v>0.002603567781803989</v>
+        <v>-0.0004882590483251898</v>
       </c>
       <c r="D9">
-        <v>3.534085090972965e-05</v>
+        <v>7.528623165658302e-05</v>
       </c>
       <c r="E9">
-        <v>0.0005194737073815001</v>
+        <v>0.002443405060241051</v>
       </c>
       <c r="F9">
-        <v>-0.002683510756694116</v>
+        <v>-0.003892196650691557</v>
       </c>
       <c r="G9">
-        <v>-4.461350212775772e-06</v>
+        <v>1.217987104376399e-06</v>
       </c>
       <c r="H9">
-        <v>0.1317085845462192</v>
+        <v>0.1152082633326726</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01104701928673903</v>
+        <v>-0.01071317922999153</v>
       </c>
       <c r="C10">
-        <v>0.004327480430737758</v>
+        <v>-9.538480507681108e-05</v>
       </c>
       <c r="D10">
-        <v>1.365636476200563e-05</v>
+        <v>4.343789233295405e-05</v>
       </c>
       <c r="E10">
-        <v>0.0007715828025411237</v>
+        <v>0.001521068946306894</v>
       </c>
       <c r="F10">
-        <v>-0.001046979809561365</v>
+        <v>-0.0007207353851460862</v>
       </c>
       <c r="G10">
-        <v>-6.85854327667463e-06</v>
+        <v>2.259260783028242e-07</v>
       </c>
       <c r="H10">
-        <v>0.1149653990822564</v>
+        <v>0.08071545282239619</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.007219137190332756</v>
+        <v>-0.00604339785412233</v>
       </c>
       <c r="C11">
-        <v>-0.002555780041048409</v>
+        <v>0.001303677046044969</v>
       </c>
       <c r="D11">
-        <v>6.362116222456593e-05</v>
+        <v>5.862088606773827e-05</v>
       </c>
       <c r="E11">
-        <v>0.003703199287867845</v>
+        <v>0.001708067561408212</v>
       </c>
       <c r="F11">
-        <v>-0.002653516237889301</v>
+        <v>-0.001658976983390301</v>
       </c>
       <c r="G11">
-        <v>-3.459180581595969e-06</v>
+        <v>-1.838038580142212e-06</v>
       </c>
       <c r="H11">
-        <v>0.1219899547612889</v>
+        <v>0.09342551740903847</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01076827821021049</v>
+        <v>-0.01163125187060424</v>
       </c>
       <c r="C12">
-        <v>0.005225255170453501</v>
+        <v>0.0006387757535565206</v>
       </c>
       <c r="D12">
-        <v>8.525080441243983e-05</v>
+        <v>-4.811942051164082e-06</v>
       </c>
       <c r="E12">
-        <v>0.001629251628907126</v>
+        <v>-0.001494028812204541</v>
       </c>
       <c r="F12">
-        <v>-0.0028450519767358</v>
+        <v>-0.001350311673488165</v>
       </c>
       <c r="G12">
-        <v>-4.776476667901005e-06</v>
+        <v>1.134024757128327e-08</v>
       </c>
       <c r="H12">
-        <v>0.1283017257369815</v>
+        <v>0.09577748875207265</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.01174414062094468</v>
+        <v>-0.0117375192421548</v>
       </c>
       <c r="C13">
-        <v>0.003764699482574069</v>
+        <v>-0.0008634052696296861</v>
       </c>
       <c r="D13">
-        <v>7.543884764939506e-05</v>
+        <v>7.513554871597895e-05</v>
       </c>
       <c r="E13">
-        <v>0.000279335658978544</v>
+        <v>0.001667198757281753</v>
       </c>
       <c r="F13">
-        <v>-0.003731074781503768</v>
+        <v>-0.002749870882719827</v>
       </c>
       <c r="G13">
-        <v>-1.959077621728146e-06</v>
+        <v>1.833818504225661e-06</v>
       </c>
       <c r="H13">
-        <v>0.1344458721884979</v>
+        <v>0.1025005100233775</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01020086357700235</v>
+        <v>-0.006896028655214352</v>
       </c>
       <c r="C14">
-        <v>-0.001398019340891304</v>
+        <v>-0.001722035135350468</v>
       </c>
       <c r="D14">
-        <v>4.794858418363907e-05</v>
+        <v>4.949451395094873e-05</v>
       </c>
       <c r="E14">
-        <v>0.0007868896201023642</v>
+        <v>-0.0004369635265577959</v>
       </c>
       <c r="F14">
-        <v>-0.002878496162490149</v>
+        <v>-0.001826059712200824</v>
       </c>
       <c r="G14">
-        <v>-4.467376841345038e-06</v>
+        <v>-1.278263626225076e-06</v>
       </c>
       <c r="H14">
-        <v>0.1303947523285051</v>
+        <v>0.09808918584572029</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.01191384359144771</v>
+        <v>-0.006659312976120724</v>
       </c>
       <c r="C15">
-        <v>-0.005535268095224557</v>
+        <v>-0.001740516863916935</v>
       </c>
       <c r="D15">
-        <v>8.914196191390803e-05</v>
+        <v>9.338130889365267e-05</v>
       </c>
       <c r="E15">
-        <v>0.0002726356351209283</v>
+        <v>0.001204746976784909</v>
       </c>
       <c r="F15">
-        <v>-0.002013519316748601</v>
+        <v>-0.0019556976055105</v>
       </c>
       <c r="G15">
-        <v>-2.014901392688977e-06</v>
+        <v>-1.664246038798816e-06</v>
       </c>
       <c r="H15">
-        <v>0.109835641312468</v>
+        <v>0.09446883670662581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.01301661749924324</v>
+        <v>-0.009884380105321337</v>
       </c>
       <c r="C16">
-        <v>0.001844199768883321</v>
+        <v>-0.0008000268635576929</v>
       </c>
       <c r="D16">
-        <v>1.356283836911689e-05</v>
+        <v>5.414297524355071e-05</v>
       </c>
       <c r="E16">
-        <v>0.004435199153394347</v>
+        <v>-6.145182102750002e-05</v>
       </c>
       <c r="F16">
-        <v>-0.003475074018999928</v>
+        <v>-0.001684999273063313</v>
       </c>
       <c r="G16">
-        <v>-2.998881680255693e-06</v>
+        <v>1.026832667710532e-07</v>
       </c>
       <c r="H16">
-        <v>0.1406925262693937</v>
+        <v>0.09200654094093669</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01273295686469289</v>
+        <v>-0.01170043509964639</v>
       </c>
       <c r="C17">
-        <v>-0.003982230431513081</v>
+        <v>0.005803753025328965</v>
       </c>
       <c r="D17">
-        <v>5.445766918730204e-05</v>
+        <v>4.334327463487654e-05</v>
       </c>
       <c r="E17">
-        <v>0.001572771838778221</v>
+        <v>0.003584424081902578</v>
       </c>
       <c r="F17">
-        <v>-0.002055167482928714</v>
+        <v>-0.001674805533692673</v>
       </c>
       <c r="G17">
-        <v>-2.33670045978633e-06</v>
+        <v>7.171246817563237e-07</v>
       </c>
       <c r="H17">
-        <v>0.1136895036222129</v>
+        <v>0.09233625622745563</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.007866447673795648</v>
+        <v>-0.008437104438301228</v>
       </c>
       <c r="C18">
-        <v>-0.001805173107608643</v>
+        <v>-0.001595147834865019</v>
       </c>
       <c r="D18">
-        <v>3.878867325942517e-05</v>
+        <v>6.662845196928502e-05</v>
       </c>
       <c r="E18">
-        <v>0.001812032604151775</v>
+        <v>0.001251152424647239</v>
       </c>
       <c r="F18">
-        <v>-0.002984880366587687</v>
+        <v>-0.001879797948632772</v>
       </c>
       <c r="G18">
-        <v>-2.636045380811554e-06</v>
+        <v>-9.202225263002256e-07</v>
       </c>
       <c r="H18">
-        <v>0.125829513690235</v>
+        <v>0.09447741865795597</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.01003992966753052</v>
+        <v>-0.008024091337235632</v>
       </c>
       <c r="C19">
-        <v>-0.005321868779041386</v>
+        <v>-0.001782156010301568</v>
       </c>
       <c r="D19">
-        <v>7.389384925450622e-05</v>
+        <v>2.464851295115643e-05</v>
       </c>
       <c r="E19">
-        <v>0.0007860409876359609</v>
+        <v>-0.001207589324388011</v>
       </c>
       <c r="F19">
-        <v>-0.002523111066781013</v>
+        <v>-0.0007823257727697392</v>
       </c>
       <c r="G19">
-        <v>-5.132714528619294e-06</v>
+        <v>-1.164724546536344e-06</v>
       </c>
       <c r="H19">
-        <v>0.1267703475304802</v>
+        <v>0.08647576029147591</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0148409584151293</v>
+        <v>-0.01090928378887462</v>
       </c>
       <c r="C20">
-        <v>0.01747891407436826</v>
+        <v>0.00222657992252229</v>
       </c>
       <c r="D20">
-        <v>2.390748511468393e-05</v>
+        <v>2.572644789256728e-05</v>
       </c>
       <c r="E20">
-        <v>0.004020644282649311</v>
+        <v>0.004377702247571891</v>
       </c>
       <c r="F20">
-        <v>-0.0004223024602040444</v>
+        <v>-0.001960857933526376</v>
       </c>
       <c r="G20">
-        <v>-4.500905990452317e-06</v>
+        <v>-1.363816841069126e-06</v>
       </c>
       <c r="H20">
-        <v>0.1023561452522066</v>
+        <v>0.1042441530367022</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.01359804413690465</v>
+        <v>-0.008066802634012039</v>
       </c>
       <c r="C21">
-        <v>0.003358188290501272</v>
+        <v>-0.004177281244355996</v>
       </c>
       <c r="D21">
-        <v>1.889356728158731e-05</v>
+        <v>2.998857449006802e-05</v>
       </c>
       <c r="E21">
-        <v>0.003031175559728698</v>
+        <v>0.001726344304442864</v>
       </c>
       <c r="F21">
-        <v>-0.001696349124883791</v>
+        <v>-0.002149611276913731</v>
       </c>
       <c r="G21">
-        <v>-2.901836806785411e-06</v>
+        <v>-9.562411876313299e-07</v>
       </c>
       <c r="H21">
-        <v>0.1157254569912591</v>
+        <v>0.1018129677153539</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.006603039561087013</v>
+        <v>-0.01061014106793136</v>
       </c>
       <c r="C22">
-        <v>0.001275343720576555</v>
+        <v>0.001986701290207667</v>
       </c>
       <c r="D22">
-        <v>5.34049408239301e-05</v>
+        <v>2.462787174214126e-05</v>
       </c>
       <c r="E22">
-        <v>0.001447840628322344</v>
+        <v>0.0001084151179181342</v>
       </c>
       <c r="F22">
-        <v>-0.00334231272532893</v>
+        <v>-0.001518461225763937</v>
       </c>
       <c r="G22">
-        <v>-3.623026443061454e-06</v>
+        <v>-3.755935955434131e-07</v>
       </c>
       <c r="H22">
-        <v>0.1306651606404081</v>
+        <v>0.09701426997243369</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.008078452597900729</v>
+        <v>-0.01024143184666194</v>
       </c>
       <c r="C23">
-        <v>-0.002248434129105667</v>
+        <v>-0.002331793774306539</v>
       </c>
       <c r="D23">
-        <v>4.762895787318736e-05</v>
+        <v>5.315603772436937e-05</v>
       </c>
       <c r="E23">
-        <v>0.001762956593700959</v>
+        <v>-0.0009696950930819723</v>
       </c>
       <c r="F23">
-        <v>-0.001488154051151486</v>
+        <v>-0.001003595214180122</v>
       </c>
       <c r="G23">
-        <v>-5.520713765887603e-06</v>
+        <v>-5.888762375041367e-07</v>
       </c>
       <c r="H23">
-        <v>0.1156724123289466</v>
+        <v>0.08560265944826853</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.01290239791574484</v>
+        <v>-0.006599633827475315</v>
       </c>
       <c r="C24">
-        <v>0.00378456039959682</v>
+        <v>0.002546369143002122</v>
       </c>
       <c r="D24">
-        <v>1.346265005070028e-05</v>
+        <v>8.677514641943981e-05</v>
       </c>
       <c r="E24">
-        <v>0.003967159411370963</v>
+        <v>0.002440199540712097</v>
       </c>
       <c r="F24">
-        <v>-0.001318159526650273</v>
+        <v>-0.002277285209847414</v>
       </c>
       <c r="G24">
-        <v>-2.194041993602414e-06</v>
+        <v>-6.160138196381173e-07</v>
       </c>
       <c r="H24">
-        <v>0.1105084971389652</v>
+        <v>0.09651633944000201</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.008375024838237481</v>
+        <v>-0.003447873070861427</v>
       </c>
       <c r="C25">
-        <v>0.001368872822580716</v>
+        <v>0.000512105621211578</v>
       </c>
       <c r="D25">
-        <v>7.363616723104531e-05</v>
+        <v>9.30056619886964e-05</v>
       </c>
       <c r="E25">
-        <v>0.0005506921333246484</v>
+        <v>0.0004477272902011012</v>
       </c>
       <c r="F25">
-        <v>-0.002549986588574828</v>
+        <v>-0.002820820985532352</v>
       </c>
       <c r="G25">
-        <v>-4.529792427320804e-06</v>
+        <v>-1.043147168280189e-06</v>
       </c>
       <c r="H25">
-        <v>0.1234971238404726</v>
+        <v>0.1026773417967613</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.01311033325310604</v>
+        <v>-0.01135010242837384</v>
       </c>
       <c r="C26">
-        <v>0.003323968529951516</v>
+        <v>0.00529130904252759</v>
       </c>
       <c r="D26">
-        <v>4.613350578302028e-05</v>
+        <v>6.990036164584366e-05</v>
       </c>
       <c r="E26">
-        <v>0.0007324516168284098</v>
+        <v>-0.0004251862975130083</v>
       </c>
       <c r="F26">
-        <v>-0.001504303996951033</v>
+        <v>-0.001589196622809437</v>
       </c>
       <c r="G26">
-        <v>-1.340423296228414e-06</v>
+        <v>-1.56344008566504e-06</v>
       </c>
       <c r="H26">
-        <v>0.1053083089939503</v>
+        <v>0.09674516824812222</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.01437113058017977</v>
+        <v>-0.007716326204556757</v>
       </c>
       <c r="C27">
-        <v>-0.0008199839697048301</v>
+        <v>-0.004614143246609062</v>
       </c>
       <c r="D27">
-        <v>3.729505988931597e-05</v>
+        <v>5.944675853589946e-05</v>
       </c>
       <c r="E27">
-        <v>-0.00255734345340821</v>
+        <v>0.0003331581928079433</v>
       </c>
       <c r="F27">
-        <v>-0.002040529105260884</v>
+        <v>-0.002220703312205509</v>
       </c>
       <c r="G27">
-        <v>-2.060973749993584e-06</v>
+        <v>1.072210573252302e-07</v>
       </c>
       <c r="H27">
-        <v>0.1176833054838768</v>
+        <v>0.09827226077146209</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.008194860745543918</v>
+        <v>-0.008016139911320984</v>
       </c>
       <c r="C28">
-        <v>0.003349770293105703</v>
+        <v>0.005325068880717791</v>
       </c>
       <c r="D28">
-        <v>4.013227543446979e-05</v>
+        <v>3.9619074026403e-05</v>
       </c>
       <c r="E28">
-        <v>0.0004753482215211213</v>
+        <v>0.00186042545774958</v>
       </c>
       <c r="F28">
-        <v>-0.001891798457985215</v>
+        <v>-0.001321418835736683</v>
       </c>
       <c r="G28">
-        <v>-4.201175204023647e-06</v>
+        <v>-2.591759689798673e-06</v>
       </c>
       <c r="H28">
-        <v>0.1180657462417706</v>
+        <v>0.0943355132045117</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.01154417187175802</v>
+        <v>-0.01151462744290994</v>
       </c>
       <c r="C29">
-        <v>0.0003577085187255845</v>
+        <v>-0.003291289977618365</v>
       </c>
       <c r="D29">
-        <v>2.255541147801431e-05</v>
+        <v>3.783937030133383e-05</v>
       </c>
       <c r="E29">
-        <v>0.0006294994654096192</v>
+        <v>-0.0009162316245368007</v>
       </c>
       <c r="F29">
-        <v>-0.002824911953700583</v>
+        <v>-0.001012216270775619</v>
       </c>
       <c r="G29">
-        <v>-1.286753092404939e-06</v>
+        <v>-3.849319548875889e-07</v>
       </c>
       <c r="H29">
-        <v>0.1259920824949988</v>
+        <v>0.0884596075495942</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.01269159876273719</v>
+        <v>-0.008838341619251348</v>
       </c>
       <c r="C30">
-        <v>-0.001301171003569232</v>
+        <v>-0.0001608584168799242</v>
       </c>
       <c r="D30">
-        <v>6.014372126873321e-05</v>
+        <v>9.911793875778117e-05</v>
       </c>
       <c r="E30">
-        <v>0.001317114371970587</v>
+        <v>0.001929613095501749</v>
       </c>
       <c r="F30">
-        <v>-0.00143673785386261</v>
+        <v>-0.00093749577407204</v>
       </c>
       <c r="G30">
-        <v>-3.678743552014225e-07</v>
+        <v>-2.894165640650738e-07</v>
       </c>
       <c r="H30">
-        <v>0.1004974050824056</v>
+        <v>0.08025411613047724</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.009679820730771659</v>
+        <v>-0.00670293959040323</v>
       </c>
       <c r="C31">
-        <v>0.001834771181112812</v>
+        <v>-0.004331429156681328</v>
       </c>
       <c r="D31">
-        <v>4.29002303507409e-05</v>
+        <v>8.888295512204166e-05</v>
       </c>
       <c r="E31">
-        <v>0.001407790862007076</v>
+        <v>0.0007648905405914994</v>
       </c>
       <c r="F31">
-        <v>-0.003190745100224219</v>
+        <v>-0.002320929066193867</v>
       </c>
       <c r="G31">
-        <v>-1.914718220176111e-06</v>
+        <v>-7.449215759182204e-07</v>
       </c>
       <c r="H31">
-        <v>0.1317283011739032</v>
+        <v>0.09602787921124421</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.01240663297907452</v>
+        <v>-0.01193007626324375</v>
       </c>
       <c r="C32">
-        <v>-0.002038440167447019</v>
+        <v>-0.004803313354849554</v>
       </c>
       <c r="D32">
-        <v>6.497709061840351e-05</v>
+        <v>6.008884978741846e-05</v>
       </c>
       <c r="E32">
-        <v>0.003277873065941773</v>
+        <v>-0.000769364173049264</v>
       </c>
       <c r="F32">
-        <v>-0.003313933461475345</v>
+        <v>-0.001488384859036663</v>
       </c>
       <c r="G32">
-        <v>-8.732636287676248e-07</v>
+        <v>1.455270334910333e-06</v>
       </c>
       <c r="H32">
-        <v>0.1271696145677756</v>
+        <v>0.08850114610315532</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.009924086856693983</v>
+        <v>-0.01008346409327537</v>
       </c>
       <c r="C33">
-        <v>0.003316669830600267</v>
+        <v>-0.002991519469235841</v>
       </c>
       <c r="D33">
-        <v>2.764343864864323e-05</v>
+        <v>4.629345311161675e-05</v>
       </c>
       <c r="E33">
-        <v>-0.0003157164271178764</v>
+        <v>0.00316579817252495</v>
       </c>
       <c r="F33">
-        <v>-0.0009945695660122343</v>
+        <v>-0.00136372495753151</v>
       </c>
       <c r="G33">
-        <v>-4.873346958525663e-06</v>
+        <v>-1.104884177696021e-06</v>
       </c>
       <c r="H33">
-        <v>0.1123199787863448</v>
+        <v>0.09265718120062784</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.01175969497507068</v>
+        <v>-0.005713072588188295</v>
       </c>
       <c r="C34">
-        <v>0.00735274043828417</v>
+        <v>-0.0009252851601388252</v>
       </c>
       <c r="D34">
-        <v>5.847503914675429e-05</v>
+        <v>5.295332168763643e-05</v>
       </c>
       <c r="E34">
-        <v>-0.001681122094608058</v>
+        <v>-0.001021748361250414</v>
       </c>
       <c r="F34">
-        <v>-0.002865430561724422</v>
+        <v>-0.001564698566669349</v>
       </c>
       <c r="G34">
-        <v>-2.440573690998532e-06</v>
+        <v>-1.550767967590752e-06</v>
       </c>
       <c r="H34">
-        <v>0.1258479752469569</v>
+        <v>0.0924721214646502</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.0087369879331444</v>
+        <v>-0.01044669450667454</v>
       </c>
       <c r="C35">
-        <v>-0.002156139274669886</v>
+        <v>-0.003861890517683261</v>
       </c>
       <c r="D35">
-        <v>4.919502102141266e-05</v>
+        <v>7.112324003909055e-05</v>
       </c>
       <c r="E35">
-        <v>0.00120581571063974</v>
+        <v>-0.0005903422478841028</v>
       </c>
       <c r="F35">
-        <v>-0.002478570737356058</v>
+        <v>-0.002846005654907346</v>
       </c>
       <c r="G35">
-        <v>-3.173703084096338e-06</v>
+        <v>2.078173874982027e-06</v>
       </c>
       <c r="H35">
-        <v>0.1205113083542726</v>
+        <v>0.1028260066051386</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.01280384599931352</v>
+        <v>-0.009332639586607166</v>
       </c>
       <c r="C36">
-        <v>0.001213258754888554</v>
+        <v>0.003901160104630378</v>
       </c>
       <c r="D36">
-        <v>6.156894686669329e-05</v>
+        <v>4.752328792642935e-05</v>
       </c>
       <c r="E36">
-        <v>0.002374965762458783</v>
+        <v>0.0005322233644460758</v>
       </c>
       <c r="F36">
-        <v>-0.002860078251611281</v>
+        <v>-0.001123217756828363</v>
       </c>
       <c r="G36">
-        <v>-6.048799305299357e-07</v>
+        <v>-3.997753497689698e-07</v>
       </c>
       <c r="H36">
-        <v>0.1234727594016741</v>
+        <v>0.08645611472596491</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.006404297676278364</v>
+        <v>-0.009495231018435428</v>
       </c>
       <c r="C37">
-        <v>-0.0008126225477233704</v>
+        <v>0.00266790522169941</v>
       </c>
       <c r="D37">
-        <v>8.66170305628718e-05</v>
+        <v>4.523902438328455e-05</v>
       </c>
       <c r="E37">
-        <v>0.0009670903015192162</v>
+        <v>0.0002696010497060877</v>
       </c>
       <c r="F37">
-        <v>-0.003393440897287049</v>
+        <v>-0.00173907268875056</v>
       </c>
       <c r="G37">
-        <v>-3.586792557959433e-06</v>
+        <v>-1.64373965990448e-06</v>
       </c>
       <c r="H37">
-        <v>0.1283028272288229</v>
+        <v>0.09985643790939397</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.01159795746343003</v>
+        <v>-0.008625360308067357</v>
       </c>
       <c r="C38">
-        <v>0.005720463668250179</v>
+        <v>0.002028656329615337</v>
       </c>
       <c r="D38">
-        <v>1.65483222715482e-05</v>
+        <v>4.541893518251898e-05</v>
       </c>
       <c r="E38">
-        <v>0.001543969732517275</v>
+        <v>0.003143043085671531</v>
       </c>
       <c r="F38">
-        <v>-0.002427564985185519</v>
+        <v>-0.002162599612761811</v>
       </c>
       <c r="G38">
-        <v>-2.805876049757547e-06</v>
+        <v>-1.267874347523236e-06</v>
       </c>
       <c r="H38">
-        <v>0.1234918814940329</v>
+        <v>0.1005014574140142</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.008849338917550308</v>
+        <v>-0.00934552975619871</v>
       </c>
       <c r="C39">
-        <v>-0.00561494543460464</v>
+        <v>0.001898100648832615</v>
       </c>
       <c r="D39">
-        <v>4.556361749299819e-05</v>
+        <v>4.411071756180638e-05</v>
       </c>
       <c r="E39">
-        <v>0.0008973100244812834</v>
+        <v>0.00355511837366241</v>
       </c>
       <c r="F39">
-        <v>-0.002622664248127229</v>
+        <v>-0.001008207273829175</v>
       </c>
       <c r="G39">
-        <v>-3.915686106884369e-06</v>
+        <v>-8.900068715979527e-07</v>
       </c>
       <c r="H39">
-        <v>0.1283367143198857</v>
+        <v>0.08653369279965381</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.008612810113688097</v>
+        <v>-0.006685811124146945</v>
       </c>
       <c r="C40">
-        <v>-0.003194313694818938</v>
+        <v>0.002476518717192017</v>
       </c>
       <c r="D40">
-        <v>5.136101614191165e-05</v>
+        <v>6.832475695095281e-05</v>
       </c>
       <c r="E40">
-        <v>-0.00199672039180597</v>
+        <v>0.00202946130276236</v>
       </c>
       <c r="F40">
-        <v>-0.002174499732823828</v>
+        <v>-0.001706382991603891</v>
       </c>
       <c r="G40">
-        <v>-4.150542206830748e-06</v>
+        <v>-4.051853352063531e-07</v>
       </c>
       <c r="H40">
-        <v>0.118332815485469</v>
+        <v>0.09109031071879553</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.0117770444719837</v>
+        <v>-0.006795277593532529</v>
       </c>
       <c r="C41">
-        <v>-0.003630325822532737</v>
+        <v>-0.0007772145086896816</v>
       </c>
       <c r="D41">
-        <v>1.725572038020272e-05</v>
+        <v>4.521836806833774e-05</v>
       </c>
       <c r="E41">
-        <v>0.002024825415999569</v>
+        <v>0.00381916567632256</v>
       </c>
       <c r="F41">
-        <v>-0.002417133600657766</v>
+        <v>-0.002043808749474518</v>
       </c>
       <c r="G41">
-        <v>-3.598050173939558e-06</v>
+        <v>-9.139398054700501e-07</v>
       </c>
       <c r="H41">
-        <v>0.1257637616594645</v>
+        <v>0.09647756009347137</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.01665540000752357</v>
+        <v>-0.007667224761706668</v>
       </c>
       <c r="C42">
-        <v>-0.000538724797021471</v>
+        <v>-0.0008285012658301848</v>
       </c>
       <c r="D42">
-        <v>5.420693542995506e-05</v>
+        <v>9.078863521758694e-05</v>
       </c>
       <c r="E42">
-        <v>0.001583735584113455</v>
+        <v>0.0006557937889538762</v>
       </c>
       <c r="F42">
-        <v>-0.0014058864325731</v>
+        <v>-0.001985909081509363</v>
       </c>
       <c r="G42">
-        <v>-1.539383948790797e-06</v>
+        <v>5.61269843817618e-07</v>
       </c>
       <c r="H42">
-        <v>0.1092730538798685</v>
+        <v>0.09059639906140413</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.009200997316000213</v>
+        <v>-0.01023031433224891</v>
       </c>
       <c r="C43">
-        <v>0.0003755625453527358</v>
+        <v>0.002275441877238068</v>
       </c>
       <c r="D43">
-        <v>4.371152827658431e-05</v>
+        <v>3.6979918091525e-05</v>
       </c>
       <c r="E43">
-        <v>0.001028202703160883</v>
+        <v>-0.001834049965222621</v>
       </c>
       <c r="F43">
-        <v>-0.002372097645842645</v>
+        <v>-0.001233346922161272</v>
       </c>
       <c r="G43">
-        <v>-4.394172116480352e-06</v>
+        <v>-4.086655509241432e-07</v>
       </c>
       <c r="H43">
-        <v>0.1227066598009902</v>
+        <v>0.09069109412606736</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.009331943084466738</v>
+        <v>-0.01101726662966212</v>
       </c>
       <c r="C44">
-        <v>0.0006098017682551952</v>
+        <v>-0.001073584452627655</v>
       </c>
       <c r="D44">
-        <v>7.429133671218004e-05</v>
+        <v>5.237770622734083e-05</v>
       </c>
       <c r="E44">
-        <v>0.002948019402185934</v>
+        <v>0.002703331317543536</v>
       </c>
       <c r="F44">
-        <v>-0.002236562654860273</v>
+        <v>-0.002124492429868334</v>
       </c>
       <c r="G44">
-        <v>-4.407478187602105e-06</v>
+        <v>1.646895969727481e-07</v>
       </c>
       <c r="H44">
-        <v>0.1189571209576932</v>
+        <v>0.1000326938905331</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.009759452595649008</v>
+        <v>-0.007784787978584667</v>
       </c>
       <c r="C45">
-        <v>0.005055423883593233</v>
+        <v>-0.001407491897658735</v>
       </c>
       <c r="D45">
-        <v>0.0001034053365740509</v>
+        <v>9.559682808914059e-05</v>
       </c>
       <c r="E45">
-        <v>0.001685690819777833</v>
+        <v>-0.001609286483913994</v>
       </c>
       <c r="F45">
-        <v>-0.001382160040333877</v>
+        <v>-0.001786396244664653</v>
       </c>
       <c r="G45">
-        <v>-3.924663814071208e-06</v>
+        <v>-1.311899563750077e-06</v>
       </c>
       <c r="H45">
-        <v>0.103830397852184</v>
+        <v>0.09235858412167684</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.011795368323271</v>
+        <v>-0.007637398223213562</v>
       </c>
       <c r="C46">
-        <v>-0.00467470581710429</v>
+        <v>0.0003144374739448431</v>
       </c>
       <c r="D46">
-        <v>4.57606353187161e-05</v>
+        <v>4.079474628677253e-05</v>
       </c>
       <c r="E46">
-        <v>-0.0009565053196958564</v>
+        <v>0.003154646836874324</v>
       </c>
       <c r="F46">
-        <v>-0.003085191930807175</v>
+        <v>-0.001336724033807459</v>
       </c>
       <c r="G46">
-        <v>-1.071139483885478e-06</v>
+        <v>-2.197232061427626e-06</v>
       </c>
       <c r="H46">
-        <v>0.1276914124182995</v>
+        <v>0.09108621871151357</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.008903348808830565</v>
+        <v>-0.008344518232013976</v>
       </c>
       <c r="C47">
-        <v>-0.001738029505634679</v>
+        <v>0.0004617496036004006</v>
       </c>
       <c r="D47">
-        <v>3.29695810510993e-05</v>
+        <v>3.626729206697826e-05</v>
       </c>
       <c r="E47">
-        <v>0.000355034037049215</v>
+        <v>0.003661990836731389</v>
       </c>
       <c r="F47">
-        <v>-0.001942821205182891</v>
+        <v>-0.00109704601428763</v>
       </c>
       <c r="G47">
-        <v>-2.844843367680764e-06</v>
+        <v>-1.4842088030428e-06</v>
       </c>
       <c r="H47">
-        <v>0.1153682254915093</v>
+        <v>0.08996994606222125</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01169069776586186</v>
+        <v>-0.01018788143310614</v>
       </c>
       <c r="C48">
-        <v>-0.004418421215549665</v>
+        <v>0.002965927241961049</v>
       </c>
       <c r="D48">
-        <v>6.424480865459031e-05</v>
+        <v>6.900495030442016e-05</v>
       </c>
       <c r="E48">
-        <v>0.0009783195012740137</v>
+        <v>0.001320518268044635</v>
       </c>
       <c r="F48">
-        <v>-0.002858819119564269</v>
+        <v>-0.001812262918310331</v>
       </c>
       <c r="G48">
-        <v>-2.548804841155302e-06</v>
+        <v>1.400086517384335e-06</v>
       </c>
       <c r="H48">
-        <v>0.125049255492617</v>
+        <v>0.09046077598489126</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.004747531186613406</v>
+        <v>-0.006375895947046047</v>
       </c>
       <c r="C49">
-        <v>-0.001939605889911388</v>
+        <v>0.001083763325764617</v>
       </c>
       <c r="D49">
-        <v>7.520999110048108e-05</v>
+        <v>0.000106671227008639</v>
       </c>
       <c r="E49">
-        <v>-0.001569635256848757</v>
+        <v>0.001457754978186711</v>
       </c>
       <c r="F49">
-        <v>-0.002367567670652843</v>
+        <v>-0.001897010175002737</v>
       </c>
       <c r="G49">
-        <v>-8.983460607055742e-06</v>
+        <v>-1.180996571849722e-06</v>
       </c>
       <c r="H49">
-        <v>0.1302290519581003</v>
+        <v>0.09252444032898773</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.01255745569511222</v>
+        <v>-0.007154595481236202</v>
       </c>
       <c r="C50">
-        <v>0.002625227820596429</v>
+        <v>-0.004118826354369881</v>
       </c>
       <c r="D50">
-        <v>9.273607280342843e-05</v>
+        <v>6.569641694540934e-05</v>
       </c>
       <c r="E50">
-        <v>8.667249415126449e-05</v>
+        <v>-0.0001044199214905867</v>
       </c>
       <c r="F50">
-        <v>-0.001587024076970383</v>
+        <v>-0.002202674519367229</v>
       </c>
       <c r="G50">
-        <v>-2.659879372617109e-06</v>
+        <v>8.477136183702309e-07</v>
       </c>
       <c r="H50">
-        <v>0.1082069979846552</v>
+        <v>0.0974233501331041</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.00821544792645092</v>
+        <v>-0.01048032881816569</v>
       </c>
       <c r="C51">
-        <v>0.001269540988665579</v>
+        <v>-0.0009916397799216237</v>
       </c>
       <c r="D51">
-        <v>3.380140335942594e-05</v>
+        <v>3.324451027792614e-05</v>
       </c>
       <c r="E51">
-        <v>0.000377216046752088</v>
+        <v>0.00326039341859883</v>
       </c>
       <c r="F51">
-        <v>-0.001742268627726061</v>
+        <v>-0.002793863156496962</v>
       </c>
       <c r="G51">
-        <v>-3.546902192340793e-06</v>
+        <v>2.754564355018485e-06</v>
       </c>
       <c r="H51">
-        <v>0.113653799515598</v>
+        <v>0.1044901884543089</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.01055591177571549</v>
+        <v>-0.006238967792355003</v>
       </c>
       <c r="C52">
-        <v>-0.0003294811169704717</v>
+        <v>-0.0006005068671267135</v>
       </c>
       <c r="D52">
-        <v>2.712154010860203e-05</v>
+        <v>5.261144531528752e-05</v>
       </c>
       <c r="E52">
-        <v>-0.001443393777806924</v>
+        <v>0.002262614102742248</v>
       </c>
       <c r="F52">
-        <v>-0.001333190119770611</v>
+        <v>-0.001557798192511625</v>
       </c>
       <c r="G52">
-        <v>-2.232381188351293e-06</v>
+        <v>-8.764137547652294e-07</v>
       </c>
       <c r="H52">
-        <v>0.1071778034149647</v>
+        <v>0.09091258044960063</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.01098636536017987</v>
+        <v>-0.008970834261659301</v>
       </c>
       <c r="C53">
-        <v>-0.003173872370667336</v>
+        <v>0.002229560552282674</v>
       </c>
       <c r="D53">
-        <v>1.804801434220274e-05</v>
+        <v>6.34471168849539e-05</v>
       </c>
       <c r="E53">
-        <v>0.003646091811574562</v>
+        <v>-0.0001359767701371306</v>
       </c>
       <c r="F53">
-        <v>-0.002147928722350026</v>
+        <v>-0.002426262540245572</v>
       </c>
       <c r="G53">
-        <v>-2.387282336749582e-06</v>
+        <v>-1.139494872594106e-06</v>
       </c>
       <c r="H53">
-        <v>0.1184815865397923</v>
+        <v>0.1040044677808725</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.009394139213958515</v>
+        <v>-0.006131096940094713</v>
       </c>
       <c r="C54">
-        <v>0.002388607719473428</v>
+        <v>0.00307599435562898</v>
       </c>
       <c r="D54">
-        <v>8.489451584515913e-05</v>
+        <v>8.011363198447187e-05</v>
       </c>
       <c r="E54">
-        <v>0.001023692164903847</v>
+        <v>0.001634046795077518</v>
       </c>
       <c r="F54">
-        <v>-0.001964020869123745</v>
+        <v>-0.002255322549511286</v>
       </c>
       <c r="G54">
-        <v>-3.402969180857827e-06</v>
+        <v>-2.037895091199227e-06</v>
       </c>
       <c r="H54">
-        <v>0.110966799442577</v>
+        <v>0.1004542191046852</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.007806685229383043</v>
+        <v>-0.01148713796893553</v>
       </c>
       <c r="C55">
-        <v>0.003718484702382039</v>
+        <v>-0.00145039706422607</v>
       </c>
       <c r="D55">
-        <v>3.134201930840429e-05</v>
+        <v>8.945695932962714e-05</v>
       </c>
       <c r="E55">
-        <v>0.0005642577041729616</v>
+        <v>0.001083808026098268</v>
       </c>
       <c r="F55">
-        <v>-0.003052116588433109</v>
+        <v>-0.001523984457949675</v>
       </c>
       <c r="G55">
-        <v>-4.080208873573761e-06</v>
+        <v>-1.052708127426277e-07</v>
       </c>
       <c r="H55">
-        <v>0.1327202672307488</v>
+        <v>0.08977339557091087</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.00926225308585288</v>
+        <v>-0.007678682181654778</v>
       </c>
       <c r="C56">
-        <v>0.002303310548985076</v>
+        <v>0.004471487915595202</v>
       </c>
       <c r="D56">
-        <v>9.152482862229139e-05</v>
+        <v>7.471487571703555e-05</v>
       </c>
       <c r="E56">
-        <v>0.002705138715935529</v>
+        <v>0.001882018109124944</v>
       </c>
       <c r="F56">
-        <v>-0.002524412373976333</v>
+        <v>-0.001018564554500876</v>
       </c>
       <c r="G56">
-        <v>-2.616493509504457e-06</v>
+        <v>-5.664120274258237e-07</v>
       </c>
       <c r="H56">
-        <v>0.1199079215844988</v>
+        <v>0.08130784126112017</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.008284253983021784</v>
+        <v>-0.009101836149314053</v>
       </c>
       <c r="C57">
-        <v>0.002036663349306245</v>
+        <v>0.0001119227780920383</v>
       </c>
       <c r="D57">
-        <v>2.226693258529692e-05</v>
+        <v>7.021138794813421e-05</v>
       </c>
       <c r="E57">
-        <v>0.0005011943526017637</v>
+        <v>0.0008025500443851474</v>
       </c>
       <c r="F57">
-        <v>-0.002207059327411248</v>
+        <v>-0.002084901092021481</v>
       </c>
       <c r="G57">
-        <v>-4.931786044244077e-06</v>
+        <v>-7.76258732871859e-07</v>
       </c>
       <c r="H57">
-        <v>0.122784223649299</v>
+        <v>0.09931481747529386</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.006389196479497537</v>
+        <v>-0.009344161512353774</v>
       </c>
       <c r="C58">
-        <v>0.001155717638786362</v>
+        <v>0.000871893239981149</v>
       </c>
       <c r="D58">
-        <v>9.71900786793148e-05</v>
+        <v>3.867556918846089e-05</v>
       </c>
       <c r="E58">
-        <v>0.0005276625060187251</v>
+        <v>0.004751689578954277</v>
       </c>
       <c r="F58">
-        <v>-0.00258101672690111</v>
+        <v>-0.001204121234822255</v>
       </c>
       <c r="G58">
-        <v>-4.129008441261162e-06</v>
+        <v>-4.273284656667457e-07</v>
       </c>
       <c r="H58">
-        <v>0.1165630328181602</v>
+        <v>0.08836927312207887</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.01452398459308704</v>
+        <v>-0.01187075544425559</v>
       </c>
       <c r="C59">
-        <v>-0.0005257245846820065</v>
+        <v>-0.007046680681370807</v>
       </c>
       <c r="D59">
-        <v>4.047104155586649e-05</v>
+        <v>7.696982233920445e-05</v>
       </c>
       <c r="E59">
-        <v>0.003040966693530926</v>
+        <v>-0.00114546007875399</v>
       </c>
       <c r="F59">
-        <v>-0.002694338266174584</v>
+        <v>-0.001490619880788676</v>
       </c>
       <c r="G59">
-        <v>-3.521639420548376e-06</v>
+        <v>1.091326764660544e-06</v>
       </c>
       <c r="H59">
-        <v>0.1320562154045707</v>
+        <v>0.08931245251476803</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0134076230095584</v>
+        <v>-0.006958323403060281</v>
       </c>
       <c r="C60">
-        <v>0.006086123042424244</v>
+        <v>0.004834643876845352</v>
       </c>
       <c r="D60">
-        <v>2.792034441810835e-05</v>
+        <v>4.70671711774612e-05</v>
       </c>
       <c r="E60">
-        <v>0.0008008937270466282</v>
+        <v>0.002047509308059872</v>
       </c>
       <c r="F60">
-        <v>-0.001868349693923244</v>
+        <v>-0.002131630810175897</v>
       </c>
       <c r="G60">
-        <v>-5.55765932807765e-06</v>
+        <v>-3.49219916738249e-06</v>
       </c>
       <c r="H60">
-        <v>0.1260200566650469</v>
+        <v>0.1047087521133841</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.01224078554818197</v>
+        <v>-0.01154496937252159</v>
       </c>
       <c r="C61">
-        <v>-0.000990539646288888</v>
+        <v>-0.005182250251817747</v>
       </c>
       <c r="D61">
-        <v>1.215159306672718e-05</v>
+        <v>8.413237576535857e-05</v>
       </c>
       <c r="E61">
-        <v>0.003306067828837411</v>
+        <v>1.363590522034802e-05</v>
       </c>
       <c r="F61">
-        <v>-0.001786595865684509</v>
+        <v>-0.002859097285289913</v>
       </c>
       <c r="G61">
-        <v>-2.455668824885207e-06</v>
+        <v>3.657558535456542e-07</v>
       </c>
       <c r="H61">
-        <v>0.1151159528850689</v>
+        <v>0.1074431267547395</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.00779798150511065</v>
+        <v>-0.01306808046428604</v>
       </c>
       <c r="C62">
-        <v>-8.194922483895366e-05</v>
+        <v>-0.001426097644953428</v>
       </c>
       <c r="D62">
-        <v>6.573937684629239e-05</v>
+        <v>7.771523371980231e-05</v>
       </c>
       <c r="E62">
-        <v>0.0001702069722733027</v>
+        <v>-0.0002036821649511605</v>
       </c>
       <c r="F62">
-        <v>-0.002706124629839613</v>
+        <v>-0.001261987122294165</v>
       </c>
       <c r="G62">
-        <v>-2.42849070278523e-06</v>
+        <v>9.626172353788972e-07</v>
       </c>
       <c r="H62">
-        <v>0.1203291097112586</v>
+        <v>0.08577577625518204</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.007759167357999358</v>
+        <v>-0.009139006234850963</v>
       </c>
       <c r="C63">
-        <v>-0.005174994425992396</v>
+        <v>0.007567388033981737</v>
       </c>
       <c r="D63">
-        <v>0.0001160867354523503</v>
+        <v>2.554403181245581e-05</v>
       </c>
       <c r="E63">
-        <v>0.003698540158318664</v>
+        <v>0.002661045851424959</v>
       </c>
       <c r="F63">
-        <v>-0.002601688574672057</v>
+        <v>-0.001443109221537689</v>
       </c>
       <c r="G63">
-        <v>-6.646083143760791e-06</v>
+        <v>4.274918256316359e-07</v>
       </c>
       <c r="H63">
-        <v>0.1265681416104459</v>
+        <v>0.09067592063305542</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.009706688686842595</v>
+        <v>-0.006151800980889529</v>
       </c>
       <c r="C64">
-        <v>0.004164842759606061</v>
+        <v>0.003535238581215866</v>
       </c>
       <c r="D64">
-        <v>4.221728898730069e-05</v>
+        <v>5.370824050647381e-05</v>
       </c>
       <c r="E64">
-        <v>0.0003173693387896748</v>
+        <v>0.001022490619887795</v>
       </c>
       <c r="F64">
-        <v>-0.001666494942668321</v>
+        <v>-0.001460171996886914</v>
       </c>
       <c r="G64">
-        <v>-4.310128203915838e-06</v>
+        <v>-2.232810665833536e-06</v>
       </c>
       <c r="H64">
-        <v>0.1131670787446045</v>
+        <v>0.09253220060774411</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.01117886127752354</v>
+        <v>-0.009651266139403376</v>
       </c>
       <c r="C65">
-        <v>0.001847489951036012</v>
+        <v>-0.0006659709902017939</v>
       </c>
       <c r="D65">
-        <v>7.752267100664831e-07</v>
+        <v>5.031356637514262e-05</v>
       </c>
       <c r="E65">
-        <v>9.020160673878924e-05</v>
+        <v>0.001784701062544081</v>
       </c>
       <c r="F65">
-        <v>-0.001426530586654288</v>
+        <v>-0.001976081259903132</v>
       </c>
       <c r="G65">
-        <v>-6.676914053202253e-06</v>
+        <v>1.98678503644332e-07</v>
       </c>
       <c r="H65">
-        <v>0.1219395874281803</v>
+        <v>0.09638405221808494</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.00715487338504001</v>
+        <v>-0.01205387390068408</v>
       </c>
       <c r="C66">
-        <v>0.005705969741838455</v>
+        <v>0.00050509941450105</v>
       </c>
       <c r="D66">
-        <v>2.732711462458738e-05</v>
+        <v>5.996771871840877e-05</v>
       </c>
       <c r="E66">
-        <v>0.001573887677955257</v>
+        <v>0.004038397254232551</v>
       </c>
       <c r="F66">
-        <v>-0.001769025370958043</v>
+        <v>-0.001515282606077758</v>
       </c>
       <c r="G66">
-        <v>-5.75565272149607e-06</v>
+        <v>-1.183866966460775e-06</v>
       </c>
       <c r="H66">
-        <v>0.118460454330638</v>
+        <v>0.09447082009543645</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.01010953893549122</v>
+        <v>-0.008109837136041135</v>
       </c>
       <c r="C67">
-        <v>0.009954015298772656</v>
+        <v>-0.003389392946686562</v>
       </c>
       <c r="D67">
-        <v>2.332055339985302e-05</v>
+        <v>8.176637498865085e-05</v>
       </c>
       <c r="E67">
-        <v>0.004790375488606537</v>
+        <v>0.002228267480366558</v>
       </c>
       <c r="F67">
-        <v>-0.001529210258599979</v>
+        <v>-0.002121285097483401</v>
       </c>
       <c r="G67">
-        <v>-4.218685234489521e-06</v>
+        <v>-1.286668529144694e-06</v>
       </c>
       <c r="H67">
-        <v>0.1119850425949975</v>
+        <v>0.09815517809796617</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.007705059167224219</v>
+        <v>-0.007832190399747679</v>
       </c>
       <c r="C68">
-        <v>0.0009865564338436398</v>
+        <v>-0.002232141122759408</v>
       </c>
       <c r="D68">
-        <v>4.902597484574671e-05</v>
+        <v>6.59779417361777e-05</v>
       </c>
       <c r="E68">
-        <v>0.004375450021053447</v>
+        <v>0.001906125758681688</v>
       </c>
       <c r="F68">
-        <v>-0.002085654470529394</v>
+        <v>-0.001552662588585625</v>
       </c>
       <c r="G68">
-        <v>-5.293113216656524e-06</v>
+        <v>-1.932662051670001e-06</v>
       </c>
       <c r="H68">
-        <v>0.1201058052212109</v>
+        <v>0.09286080804231817</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.01225208023020635</v>
+        <v>-0.005280360563804369</v>
       </c>
       <c r="C69">
-        <v>-0.003522416331522414</v>
+        <v>-0.0001071920612873379</v>
       </c>
       <c r="D69">
-        <v>8.495040771925192e-05</v>
+        <v>7.134918932658066e-05</v>
       </c>
       <c r="E69">
-        <v>0.001595540850928744</v>
+        <v>4.618235090202844e-05</v>
       </c>
       <c r="F69">
-        <v>-0.0009774004072616873</v>
+        <v>-0.002555095409164084</v>
       </c>
       <c r="G69">
-        <v>-3.896482531117227e-06</v>
+        <v>-5.928456867780442e-07</v>
       </c>
       <c r="H69">
-        <v>0.1022111898450957</v>
+        <v>0.1005590443024049</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.008959795104951814</v>
+        <v>-0.00574645916278154</v>
       </c>
       <c r="C70">
-        <v>0.004437959035755222</v>
+        <v>0.0007538987024612872</v>
       </c>
       <c r="D70">
-        <v>7.201039412571761e-05</v>
+        <v>8.508831184034086e-05</v>
       </c>
       <c r="E70">
-        <v>0.004225064834251613</v>
+        <v>0.0002881204786697594</v>
       </c>
       <c r="F70">
-        <v>-0.003236887242884693</v>
+        <v>-0.002025648467765594</v>
       </c>
       <c r="G70">
-        <v>-5.196313850137708e-06</v>
+        <v>-5.526341670280363e-07</v>
       </c>
       <c r="H70">
-        <v>0.1317413968932867</v>
+        <v>0.0928701563654783</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.009086857540898744</v>
+        <v>-0.01246675777924138</v>
       </c>
       <c r="C71">
-        <v>0.006941319401289385</v>
+        <v>-0.002501525076213231</v>
       </c>
       <c r="D71">
-        <v>6.286787509238147e-05</v>
+        <v>5.165075838328356e-05</v>
       </c>
       <c r="E71">
-        <v>0.00452366407257767</v>
+        <v>0.0003620979010141301</v>
       </c>
       <c r="F71">
-        <v>-0.0007651324766596449</v>
+        <v>-0.00218681697910401</v>
       </c>
       <c r="G71">
-        <v>-3.93504362518884e-06</v>
+        <v>-1.180240147632068e-07</v>
       </c>
       <c r="H71">
-        <v>0.09989616811740067</v>
+        <v>0.1027740829900226</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.005548437889939953</v>
+        <v>-0.008485223598754872</v>
       </c>
       <c r="C72">
-        <v>0.00284296984522353</v>
+        <v>-0.001082045091060032</v>
       </c>
       <c r="D72">
-        <v>4.714869475617942e-05</v>
+        <v>7.750781773620534e-05</v>
       </c>
       <c r="E72">
-        <v>0.001400014173107374</v>
+        <v>0.0003202772890066041</v>
       </c>
       <c r="F72">
-        <v>-0.002292841011949651</v>
+        <v>-0.00218130310387134</v>
       </c>
       <c r="G72">
-        <v>-5.665512770911101e-06</v>
+        <v>-2.05036885376283e-07</v>
       </c>
       <c r="H72">
-        <v>0.1233651001970432</v>
+        <v>0.09720395829811584</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.01152014246876139</v>
+        <v>-0.008149753471803897</v>
       </c>
       <c r="C73">
-        <v>-0.002065368297128441</v>
+        <v>-0.002317888891439689</v>
       </c>
       <c r="D73">
-        <v>3.325970551092396e-05</v>
+        <v>4.137529404756477e-05</v>
       </c>
       <c r="E73">
-        <v>0.003163956721182949</v>
+        <v>0.0006281988635275584</v>
       </c>
       <c r="F73">
-        <v>-0.002508777041506023</v>
+        <v>-0.002182210099459364</v>
       </c>
       <c r="G73">
-        <v>-6.726143492356421e-06</v>
+        <v>-1.505870425076503e-06</v>
       </c>
       <c r="H73">
-        <v>0.1336651395243893</v>
+        <v>0.1038207405302225</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.004907926391964009</v>
+        <v>-0.007992531365825185</v>
       </c>
       <c r="C74">
-        <v>0.001664501758677263</v>
+        <v>0.003712635080467694</v>
       </c>
       <c r="D74">
-        <v>0.000112724097504945</v>
+        <v>6.019934338240848e-05</v>
       </c>
       <c r="E74">
-        <v>-0.0004896796213180662</v>
+        <v>0.002359133687121005</v>
       </c>
       <c r="F74">
-        <v>-0.003587727491992462</v>
+        <v>-0.002057418888099397</v>
       </c>
       <c r="G74">
-        <v>-5.705454160339231e-06</v>
+        <v>-1.067075961742764e-06</v>
       </c>
       <c r="H74">
-        <v>0.135058508912228</v>
+        <v>0.09884297592216371</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.0133985043880232</v>
+        <v>-0.007726238342607198</v>
       </c>
       <c r="C75">
-        <v>0.005801822868127512</v>
+        <v>-0.002925150225902438</v>
       </c>
       <c r="D75">
-        <v>3.535922108345371e-05</v>
+        <v>6.315917624568982e-05</v>
       </c>
       <c r="E75">
-        <v>-0.00158276813686424</v>
+        <v>0.001095502617509965</v>
       </c>
       <c r="F75">
-        <v>-0.002164212402315687</v>
+        <v>-0.002183908573958957</v>
       </c>
       <c r="G75">
-        <v>-2.941508452938806e-06</v>
+        <v>-8.017352793559419e-07</v>
       </c>
       <c r="H75">
-        <v>0.1213244827524431</v>
+        <v>0.09918363629702176</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.01244154235980937</v>
+        <v>-0.008757761253006485</v>
       </c>
       <c r="C76">
-        <v>-0.00109234575195704</v>
+        <v>-0.001163428832853945</v>
       </c>
       <c r="D76">
-        <v>4.012664675838682e-05</v>
+        <v>7.359512795735531e-05</v>
       </c>
       <c r="E76">
-        <v>-0.0003925396553694643</v>
+        <v>0.0009371964675127034</v>
       </c>
       <c r="F76">
-        <v>-0.002475932322339505</v>
+        <v>-0.002321162126079565</v>
       </c>
       <c r="G76">
-        <v>-4.232168964685155e-06</v>
+        <v>1.572875295518636e-06</v>
       </c>
       <c r="H76">
-        <v>0.1284513631241573</v>
+        <v>0.09687549368945195</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.01136948101663844</v>
+        <v>-0.008735995574404746</v>
       </c>
       <c r="C77">
-        <v>0.006054419442765411</v>
+        <v>-0.008541243617532796</v>
       </c>
       <c r="D77">
-        <v>6.918042333406944e-05</v>
+        <v>9.180497138454212e-05</v>
       </c>
       <c r="E77">
-        <v>-0.0003459545868343405</v>
+        <v>0.005785040790464747</v>
       </c>
       <c r="F77">
-        <v>-0.002458342497229447</v>
+        <v>-0.001359811520789765</v>
       </c>
       <c r="G77">
-        <v>-2.759547491323101e-06</v>
+        <v>-1.573949208441233e-06</v>
       </c>
       <c r="H77">
-        <v>0.1207536071294917</v>
+        <v>0.0887418943714178</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.01018252285611522</v>
+        <v>-0.009705762285732718</v>
       </c>
       <c r="C78">
-        <v>-0.009003821631861707</v>
+        <v>0.002120313837184638</v>
       </c>
       <c r="D78">
-        <v>2.300796181592159e-05</v>
+        <v>9.18394309772045e-05</v>
       </c>
       <c r="E78">
-        <v>-0.001429328691961954</v>
+        <v>0.002499732494200407</v>
       </c>
       <c r="F78">
-        <v>-0.003640381968560853</v>
+        <v>-0.001922093786508384</v>
       </c>
       <c r="G78">
-        <v>-5.223121176307616e-06</v>
+        <v>5.858422447983666e-07</v>
       </c>
       <c r="H78">
-        <v>0.1471271162812303</v>
+        <v>0.09113408085638533</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.01222058232509484</v>
+        <v>-0.01085129507165303</v>
       </c>
       <c r="C79">
-        <v>0.0006866396992287469</v>
+        <v>-0.001726650080605194</v>
       </c>
       <c r="D79">
-        <v>6.895607847904513e-05</v>
+        <v>7.719305337269171e-05</v>
       </c>
       <c r="E79">
-        <v>0.001745027115415451</v>
+        <v>0.0003153768630625511</v>
       </c>
       <c r="F79">
-        <v>-0.002781642853528749</v>
+        <v>-0.002806536297774819</v>
       </c>
       <c r="G79">
-        <v>-3.186281546679531e-06</v>
+        <v>2.680546202503885e-06</v>
       </c>
       <c r="H79">
-        <v>0.1254217248504872</v>
+        <v>0.1005572745406481</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.009859960101322798</v>
+        <v>-0.0123270625924102</v>
       </c>
       <c r="C80">
-        <v>-0.002487929133827113</v>
+        <v>0.002768582579976133</v>
       </c>
       <c r="D80">
-        <v>6.900064362402904e-05</v>
+        <v>1.613608824846631e-05</v>
       </c>
       <c r="E80">
-        <v>0.00130543761997081</v>
+        <v>-0.0008844071006561469</v>
       </c>
       <c r="F80">
-        <v>-0.003748475581905815</v>
+        <v>-0.001929969848610896</v>
       </c>
       <c r="G80">
-        <v>-2.157480438107573e-06</v>
+        <v>5.928322116812954e-07</v>
       </c>
       <c r="H80">
-        <v>0.1349640833523621</v>
+        <v>0.1017398988343303</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.01170786565421462</v>
+        <v>-0.006590180012170812</v>
       </c>
       <c r="C81">
-        <v>0.0009684845945946918</v>
+        <v>-0.00194138397313289</v>
       </c>
       <c r="D81">
-        <v>3.080403113542045e-05</v>
+        <v>6.642243900963318e-05</v>
       </c>
       <c r="E81">
-        <v>0.003085818777012299</v>
+        <v>0.002416800588224334</v>
       </c>
       <c r="F81">
-        <v>-0.001915164656359855</v>
+        <v>-0.002819861552886381</v>
       </c>
       <c r="G81">
-        <v>-1.884808019922355e-06</v>
+        <v>-1.022503406635341e-06</v>
       </c>
       <c r="H81">
-        <v>0.1120879042473618</v>
+        <v>0.1068399993479978</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01289882156882085</v>
+        <v>-0.01056138680583834</v>
       </c>
       <c r="C82">
-        <v>0.001837782105304671</v>
+        <v>0.003648631036900296</v>
       </c>
       <c r="D82">
-        <v>1.397190252541226e-05</v>
+        <v>3.269209734696598e-05</v>
       </c>
       <c r="E82">
-        <v>-0.001513833738332519</v>
+        <v>0.00327991261798026</v>
       </c>
       <c r="F82">
-        <v>-0.001975264757532789</v>
+        <v>-0.001913537095328328</v>
       </c>
       <c r="G82">
-        <v>-3.00560066485074e-06</v>
+        <v>-2.575297989492946e-06</v>
       </c>
       <c r="H82">
-        <v>0.1221401233993781</v>
+        <v>0.1044275731056114</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.01120460592547534</v>
+        <v>-0.003571666069047362</v>
       </c>
       <c r="C83">
-        <v>0.001237391780699723</v>
+        <v>0.001282322289741254</v>
       </c>
       <c r="D83">
-        <v>8.534329244564077e-05</v>
+        <v>7.329041975690302e-05</v>
       </c>
       <c r="E83">
-        <v>0.003679472711481523</v>
+        <v>0.001120161600451884</v>
       </c>
       <c r="F83">
-        <v>-0.003056142698011168</v>
+        <v>-0.002687533276979607</v>
       </c>
       <c r="G83">
-        <v>-3.413504963924486e-06</v>
+        <v>-1.023459521594316e-06</v>
       </c>
       <c r="H83">
-        <v>0.1254817402554211</v>
+        <v>0.103410238022593</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.006213688970479738</v>
+        <v>-0.00997335877108701</v>
       </c>
       <c r="C84">
-        <v>-0.0005873435172302341</v>
+        <v>0.003877441398770318</v>
       </c>
       <c r="D84">
-        <v>7.804317439693867e-05</v>
+        <v>6.080579048699505e-05</v>
       </c>
       <c r="E84">
-        <v>0.0009370673508512159</v>
+        <v>0.001870204061315356</v>
       </c>
       <c r="F84">
-        <v>-0.002753354982161635</v>
+        <v>-0.001463122585138702</v>
       </c>
       <c r="G84">
-        <v>-2.894382312542626e-06</v>
+        <v>-3.185691924225744e-07</v>
       </c>
       <c r="H84">
-        <v>0.1199904996726953</v>
+        <v>0.09024066465356284</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.007851226479914535</v>
+        <v>-0.01064913475906717</v>
       </c>
       <c r="C85">
-        <v>0.004704099624090453</v>
+        <v>0.001516780805446698</v>
       </c>
       <c r="D85">
-        <v>1.348389499783451e-05</v>
+        <v>9.756513360210619e-05</v>
       </c>
       <c r="E85">
-        <v>0.001407387807074299</v>
+        <v>0.004613124275991747</v>
       </c>
       <c r="F85">
-        <v>-0.001983925644745546</v>
+        <v>-0.002286572999181545</v>
       </c>
       <c r="G85">
-        <v>-2.445309589184271e-06</v>
+        <v>-1.074383829237671e-06</v>
       </c>
       <c r="H85">
-        <v>0.1146612800151619</v>
+        <v>0.1013232373459932</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.008229949971129743</v>
+        <v>-0.008407617319129554</v>
       </c>
       <c r="C86">
-        <v>0.002648498535270181</v>
+        <v>-0.004468040537776211</v>
       </c>
       <c r="D86">
-        <v>7.404289747018662e-05</v>
+        <v>3.157200308544037e-05</v>
       </c>
       <c r="E86">
-        <v>0.003640296172886665</v>
+        <v>0.004144182790680524</v>
       </c>
       <c r="F86">
-        <v>-0.002487748505341398</v>
+        <v>-0.002375522576520858</v>
       </c>
       <c r="G86">
-        <v>-2.44832514000107e-06</v>
+        <v>-7.188236802159698e-07</v>
       </c>
       <c r="H86">
-        <v>0.1187914758462733</v>
+        <v>0.1043320584082741</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.01131800358993846</v>
+        <v>-0.009508913968432096</v>
       </c>
       <c r="C87">
-        <v>-0.001184267317223336</v>
+        <v>0.005589474819758757</v>
       </c>
       <c r="D87">
-        <v>9.478846532325009e-05</v>
+        <v>5.851448313702675e-05</v>
       </c>
       <c r="E87">
-        <v>0.002074215030717794</v>
+        <v>0.0005365784143391561</v>
       </c>
       <c r="F87">
-        <v>-0.002059538232215757</v>
+        <v>-0.002170751368970721</v>
       </c>
       <c r="G87">
-        <v>-2.008069717017397e-06</v>
+        <v>-3.911468787519573e-07</v>
       </c>
       <c r="H87">
-        <v>0.1078746694111287</v>
+        <v>0.1001497288655871</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.01102663380752503</v>
+        <v>-0.008115228221313173</v>
       </c>
       <c r="C88">
-        <v>0.004645395757062867</v>
+        <v>-0.007404539572596008</v>
       </c>
       <c r="D88">
-        <v>6.400636607990559e-05</v>
+        <v>8.074392065597318e-05</v>
       </c>
       <c r="E88">
-        <v>0.001145414182512974</v>
+        <v>-7.361825206602529e-05</v>
       </c>
       <c r="F88">
-        <v>-0.00203597962563578</v>
+        <v>-0.002793589514734048</v>
       </c>
       <c r="G88">
-        <v>-3.953099587957161e-06</v>
+        <v>1.24488440858642e-06</v>
       </c>
       <c r="H88">
-        <v>0.1180528962149026</v>
+        <v>0.1020698996984228</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.006512842148242218</v>
+        <v>-0.004452520785734279</v>
       </c>
       <c r="C89">
-        <v>0.002637240298564705</v>
+        <v>-0.001069784042941493</v>
       </c>
       <c r="D89">
-        <v>6.09986203636421e-05</v>
+        <v>7.269722081129344e-05</v>
       </c>
       <c r="E89">
-        <v>0.0008336749968836377</v>
+        <v>0.0002729295366546078</v>
       </c>
       <c r="F89">
-        <v>-0.002869624454735677</v>
+        <v>-0.00196161086634745</v>
       </c>
       <c r="G89">
-        <v>-3.502697961747295e-06</v>
+        <v>-8.5309480746862e-07</v>
       </c>
       <c r="H89">
-        <v>0.1245716892977576</v>
+        <v>0.09368274853492051</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0134057309878567</v>
+        <v>-0.008156436815793583</v>
       </c>
       <c r="C90">
-        <v>-0.0007078386348388097</v>
+        <v>-0.003799094949387945</v>
       </c>
       <c r="D90">
-        <v>3.930467529225525e-05</v>
+        <v>8.927806340327184e-05</v>
       </c>
       <c r="E90">
-        <v>0.002025871708533473</v>
+        <v>0.001238667301385818</v>
       </c>
       <c r="F90">
-        <v>-0.002296188066514143</v>
+        <v>-0.002453118217175437</v>
       </c>
       <c r="G90">
-        <v>-2.670468043715352e-06</v>
+        <v>-5.515833442300818e-07</v>
       </c>
       <c r="H90">
-        <v>0.1219921529979018</v>
+        <v>0.1002044610968409</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.009423313261919374</v>
+        <v>-0.007707019731131168</v>
       </c>
       <c r="C91">
-        <v>0.001299342436176636</v>
+        <v>-0.003094040804832061</v>
       </c>
       <c r="D91">
-        <v>8.390134908099653e-05</v>
+        <v>6.817297021808854e-05</v>
       </c>
       <c r="E91">
-        <v>0.0007668123733767032</v>
+        <v>0.003182067068224229</v>
       </c>
       <c r="F91">
-        <v>-0.001643121952361461</v>
+        <v>-0.002196537765703948</v>
       </c>
       <c r="G91">
-        <v>-4.628445643374561e-06</v>
+        <v>3.587311870908741e-07</v>
       </c>
       <c r="H91">
-        <v>0.1094009300799336</v>
+        <v>0.09653363816182631</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.006896292587815351</v>
+        <v>-0.01103565424111096</v>
       </c>
       <c r="C92">
-        <v>-0.003044218625171163</v>
+        <v>0.001158709718428908</v>
       </c>
       <c r="D92">
-        <v>5.484669949413062e-05</v>
+        <v>6.750955888393497e-05</v>
       </c>
       <c r="E92">
-        <v>-0.0005701352448533245</v>
+        <v>-0.0002193964015825417</v>
       </c>
       <c r="F92">
-        <v>-0.001601058476380841</v>
+        <v>-0.001233353767545746</v>
       </c>
       <c r="G92">
-        <v>-5.002912325682346e-06</v>
+        <v>4.319031061743534e-07</v>
       </c>
       <c r="H92">
-        <v>0.1109043971065226</v>
+        <v>0.08553295011328302</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.01787881584502152</v>
+        <v>-0.0112347040125671</v>
       </c>
       <c r="C93">
-        <v>0.005266857802854625</v>
+        <v>0.002212837145694866</v>
       </c>
       <c r="D93">
-        <v>-8.019169626557814e-05</v>
+        <v>3.315739611243373e-05</v>
       </c>
       <c r="E93">
-        <v>-0.003394953101749837</v>
+        <v>0.003244683195704895</v>
       </c>
       <c r="F93">
-        <v>-0.00176599899365527</v>
+        <v>-0.002288145051823819</v>
       </c>
       <c r="G93">
-        <v>-6.898130583597957e-06</v>
+        <v>-3.366382926454364e-07</v>
       </c>
       <c r="H93">
-        <v>0.1450959286425995</v>
+        <v>0.1042690221001437</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.007917880651652975</v>
+        <v>-0.00944761259887876</v>
       </c>
       <c r="C94">
-        <v>0.001979346038861585</v>
+        <v>-0.002432624336967777</v>
       </c>
       <c r="D94">
-        <v>3.381180864891834e-05</v>
+        <v>0.0001035217521611671</v>
       </c>
       <c r="E94">
-        <v>0.002915086193969608</v>
+        <v>0.00334408177523058</v>
       </c>
       <c r="F94">
-        <v>-0.003423074241158286</v>
+        <v>-0.002442804043130253</v>
       </c>
       <c r="G94">
-        <v>-2.538263243884998e-06</v>
+        <v>1.520350555079443e-06</v>
       </c>
       <c r="H94">
-        <v>0.1315455452137315</v>
+        <v>0.09480161696306912</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.007070994698997106</v>
+        <v>-0.005736236768135999</v>
       </c>
       <c r="C95">
-        <v>-0.00185055484549684</v>
+        <v>-0.007162783045348194</v>
       </c>
       <c r="D95">
-        <v>6.125204776547159e-05</v>
+        <v>6.853802670736183e-05</v>
       </c>
       <c r="E95">
-        <v>0.002799515035798283</v>
+        <v>0.001109074476497773</v>
       </c>
       <c r="F95">
-        <v>-0.002854351141107704</v>
+        <v>-0.002463786882477035</v>
       </c>
       <c r="G95">
-        <v>-1.367537623328161e-06</v>
+        <v>-6.795909188330049e-07</v>
       </c>
       <c r="H95">
-        <v>0.1175915749500126</v>
+        <v>0.1021357784607973</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.007579134377953827</v>
+        <v>-0.009419474423839459</v>
       </c>
       <c r="C96">
-        <v>0.005243766426676591</v>
+        <v>-0.001393809835479533</v>
       </c>
       <c r="D96">
-        <v>6.957434970105323e-05</v>
+        <v>5.010219660863443e-05</v>
       </c>
       <c r="E96">
-        <v>0.003016631170186565</v>
+        <v>0.003054521967968696</v>
       </c>
       <c r="F96">
-        <v>-0.002755171187545838</v>
+        <v>-0.001668908179559849</v>
       </c>
       <c r="G96">
-        <v>-2.09675970596736e-06</v>
+        <v>-1.156804764571101e-07</v>
       </c>
       <c r="H96">
-        <v>0.1164272425871348</v>
+        <v>0.09210831347800225</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.01033519603370647</v>
+        <v>-0.006864327994891241</v>
       </c>
       <c r="C97">
-        <v>-0.003309614888346172</v>
+        <v>0.001099705734705418</v>
       </c>
       <c r="D97">
-        <v>6.450136268807902e-05</v>
+        <v>6.214824738453599e-05</v>
       </c>
       <c r="E97">
-        <v>0.00159576186435826</v>
+        <v>0.0002281514535129939</v>
       </c>
       <c r="F97">
-        <v>-0.003329422395043405</v>
+        <v>-0.00217449607529224</v>
       </c>
       <c r="G97">
-        <v>4.066527464689634e-07</v>
+        <v>-8.537260079542554e-07</v>
       </c>
       <c r="H97">
-        <v>0.1208971667738072</v>
+        <v>0.09950459575721107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.009207139363630221</v>
+        <v>-0.008224787711993031</v>
       </c>
       <c r="C98">
-        <v>-0.00179364707177073</v>
+        <v>-0.00370508904484521</v>
       </c>
       <c r="D98">
-        <v>6.752674186453103e-05</v>
+        <v>7.504072178428008e-05</v>
       </c>
       <c r="E98">
-        <v>0.001163877058061771</v>
+        <v>-0.0006728035498435869</v>
       </c>
       <c r="F98">
-        <v>-0.002753316467865793</v>
+        <v>-0.001872060780176411</v>
       </c>
       <c r="G98">
-        <v>-2.243043256183558e-06</v>
+        <v>-1.74351597779052e-06</v>
       </c>
       <c r="H98">
-        <v>0.1226247935804533</v>
+        <v>0.09768143633076479</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.008810013819495695</v>
+        <v>-0.007107772610789573</v>
       </c>
       <c r="C99">
-        <v>0.007564847514918716</v>
+        <v>-0.002651945663352888</v>
       </c>
       <c r="D99">
-        <v>3.759084195787225e-05</v>
+        <v>6.846419479911953e-05</v>
       </c>
       <c r="E99">
-        <v>-0.001925833245189114</v>
+        <v>0.003971159756938701</v>
       </c>
       <c r="F99">
-        <v>-0.002246402271960916</v>
+        <v>-0.002669383526863803</v>
       </c>
       <c r="G99">
-        <v>-4.880390304566476e-06</v>
+        <v>3.317465299376607e-07</v>
       </c>
       <c r="H99">
-        <v>0.124792969603664</v>
+        <v>0.1009067428277903</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.012344369880717</v>
+        <v>-0.009446246552967377</v>
       </c>
       <c r="C100">
-        <v>-0.00148269459902984</v>
+        <v>0.002939593653193412</v>
       </c>
       <c r="D100">
-        <v>1.802466881278558e-05</v>
+        <v>8.984882965989205e-05</v>
       </c>
       <c r="E100">
-        <v>0.0002745779371090412</v>
+        <v>0.0003153030362695666</v>
       </c>
       <c r="F100">
-        <v>-0.0009655859627350906</v>
+        <v>-0.002222927996832118</v>
       </c>
       <c r="G100">
-        <v>-4.101734154775799e-06</v>
+        <v>7.433960400745833e-07</v>
       </c>
       <c r="H100">
-        <v>0.1097119380812222</v>
+        <v>0.09484325003329774</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.01109167450920941</v>
+        <v>-0.009069538718832895</v>
       </c>
       <c r="C101">
-        <v>0.0003465716445040378</v>
+        <v>0.003197034734427747</v>
       </c>
       <c r="D101">
-        <v>6.28312719222309e-05</v>
+        <v>5.537774856527292e-05</v>
       </c>
       <c r="E101">
-        <v>0.0005435049112715584</v>
+        <v>0.00295631425063967</v>
       </c>
       <c r="F101">
-        <v>-0.002162430979847745</v>
+        <v>-0.001444251181592853</v>
       </c>
       <c r="G101">
-        <v>-1.013478273777813e-06</v>
+        <v>-7.53459333294722e-07</v>
       </c>
       <c r="H101">
-        <v>0.1115010965939347</v>
+        <v>0.09067411834386546</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.01105792915239972</v>
+        <v>-0.01056651570552765</v>
       </c>
       <c r="C102">
-        <v>-0.002486307840230923</v>
+        <v>-0.001287632668538972</v>
       </c>
       <c r="D102">
-        <v>4.576326364315062e-05</v>
+        <v>7.721960416779073e-05</v>
       </c>
       <c r="E102">
-        <v>0.001773021735093264</v>
+        <v>0.003977917859139091</v>
       </c>
       <c r="F102">
-        <v>-0.001901864872532845</v>
+        <v>-0.002770450620385553</v>
       </c>
       <c r="G102">
-        <v>-2.936630813530074e-06</v>
+        <v>8.546595149950493e-07</v>
       </c>
       <c r="H102">
-        <v>0.1145075047205087</v>
+        <v>0.1029416954499959</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.01238840946904777</v>
+        <v>-0.01017165584665354</v>
       </c>
       <c r="C103">
-        <v>-0.002609478769030844</v>
+        <v>-0.0005722072488859006</v>
       </c>
       <c r="D103">
-        <v>3.98904855512213e-05</v>
+        <v>6.10841341000032e-05</v>
       </c>
       <c r="E103">
-        <v>0.002618742373480518</v>
+        <v>0.0002393554986035717</v>
       </c>
       <c r="F103">
-        <v>-0.002519556739142723</v>
+        <v>-0.000871213328302446</v>
       </c>
       <c r="G103">
-        <v>-3.490991523295667e-06</v>
+        <v>-1.49851571945869e-06</v>
       </c>
       <c r="H103">
-        <v>0.1261660237636057</v>
+        <v>0.0863445103105972</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.01076573821254611</v>
+        <v>-0.008083005816690388</v>
       </c>
       <c r="C104">
-        <v>0.01055479343653327</v>
+        <v>-0.003679661932535935</v>
       </c>
       <c r="D104">
-        <v>5.722184560865027e-05</v>
+        <v>6.309226987255459e-05</v>
       </c>
       <c r="E104">
-        <v>0.002764856193441537</v>
+        <v>0.002304909096776907</v>
       </c>
       <c r="F104">
-        <v>-0.002499163871929092</v>
+        <v>-0.001937392704277412</v>
       </c>
       <c r="G104">
-        <v>-2.590994810878482e-06</v>
+        <v>2.773455390236763e-07</v>
       </c>
       <c r="H104">
-        <v>0.1200923655123333</v>
+        <v>0.09412087185250942</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.001987577583565124</v>
+        <v>-0.008493623434794506</v>
       </c>
       <c r="C105">
-        <v>-0.006534919552642278</v>
+        <v>-0.0009195565822787562</v>
       </c>
       <c r="D105">
-        <v>8.90984996455132e-05</v>
+        <v>5.097127686498051e-05</v>
       </c>
       <c r="E105">
-        <v>-0.002027516175581556</v>
+        <v>0.001186945636208941</v>
       </c>
       <c r="F105">
-        <v>-0.003833193657958069</v>
+        <v>-0.002255595526734583</v>
       </c>
       <c r="G105">
-        <v>-4.741099495976288e-06</v>
+        <v>1.686327454885399e-07</v>
       </c>
       <c r="H105">
-        <v>0.1348178248362597</v>
+        <v>0.1006774115394909</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.009516301381400687</v>
+        <v>-0.004245379641448156</v>
       </c>
       <c r="C106">
-        <v>0.005509515812491</v>
+        <v>-0.002740408369347558</v>
       </c>
       <c r="D106">
-        <v>5.988863218651025e-05</v>
+        <v>6.732577872185195e-05</v>
       </c>
       <c r="E106">
-        <v>0.001178316382836726</v>
+        <v>-0.001010716586632245</v>
       </c>
       <c r="F106">
-        <v>-0.001966128196804464</v>
+        <v>-0.003623581848988324</v>
       </c>
       <c r="G106">
-        <v>-2.576590907431236e-06</v>
+        <v>-1.998860391163623e-07</v>
       </c>
       <c r="H106">
-        <v>0.1117129507092158</v>
+        <v>0.1151046646974665</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.01156319020057543</v>
+        <v>-0.007906160478507446</v>
       </c>
       <c r="C107">
-        <v>0.003329945265294666</v>
+        <v>0.001058016063200559</v>
       </c>
       <c r="D107">
-        <v>7.522381902741989e-05</v>
+        <v>5.520785392290607e-05</v>
       </c>
       <c r="E107">
-        <v>0.004644883692342269</v>
+        <v>0.004088583308942816</v>
       </c>
       <c r="F107">
-        <v>-0.003575260837362074</v>
+        <v>-0.001872342653912805</v>
       </c>
       <c r="G107">
-        <v>-2.553201467925819e-06</v>
+        <v>-7.925164743714729e-07</v>
       </c>
       <c r="H107">
-        <v>0.1334413041729013</v>
+        <v>0.09535425545577557</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.0115688911586255</v>
+        <v>-0.008717845396573954</v>
       </c>
       <c r="C108">
-        <v>0.002136490865325801</v>
+        <v>-0.001799461041609454</v>
       </c>
       <c r="D108">
-        <v>5.903305761311616e-05</v>
+        <v>9.620184008433708e-05</v>
       </c>
       <c r="E108">
-        <v>0.001096066886001543</v>
+        <v>0.0001122485156653807</v>
       </c>
       <c r="F108">
-        <v>-0.001138777303364983</v>
+        <v>-0.0008466789897466176</v>
       </c>
       <c r="G108">
-        <v>-4.45195258483158e-06</v>
+        <v>-1.569649265360306e-06</v>
       </c>
       <c r="H108">
-        <v>0.1090305394391265</v>
+        <v>0.08240453963414904</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.01353146232386969</v>
+        <v>-0.01011935864597993</v>
       </c>
       <c r="C109">
-        <v>-0.004976368841406339</v>
+        <v>-0.002537592710351899</v>
       </c>
       <c r="D109">
-        <v>7.42436277378722e-05</v>
+        <v>5.545849752285466e-05</v>
       </c>
       <c r="E109">
-        <v>0.005955712459355569</v>
+        <v>-0.0005487954514175886</v>
       </c>
       <c r="F109">
-        <v>-0.002698248531190518</v>
+        <v>-0.002795756075615515</v>
       </c>
       <c r="G109">
-        <v>-3.731848843211523e-06</v>
+        <v>1.227267247454655e-06</v>
       </c>
       <c r="H109">
-        <v>0.1295309963857645</v>
+        <v>0.1059092689557012</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0116923031451384</v>
+        <v>-0.009268803728729335</v>
       </c>
       <c r="C110">
-        <v>0.0005834334519230065</v>
+        <v>0.003366152089217431</v>
       </c>
       <c r="D110">
-        <v>6.309314925822724e-05</v>
+        <v>5.413451168648144e-05</v>
       </c>
       <c r="E110">
-        <v>0.001525108997671241</v>
+        <v>-0.0007764376354173139</v>
       </c>
       <c r="F110">
-        <v>-0.003743601553785133</v>
+        <v>-0.001699848496526282</v>
       </c>
       <c r="G110">
-        <v>1.781757106363035e-06</v>
+        <v>-1.030819314835611e-06</v>
       </c>
       <c r="H110">
-        <v>0.1252519802678791</v>
+        <v>0.09494713041934094</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.02107855324842002</v>
+        <v>-0.005237123414035698</v>
       </c>
       <c r="C111">
-        <v>-0.004074189959369973</v>
+        <v>0.004226197097853272</v>
       </c>
       <c r="D111">
-        <v>5.10773078132754e-05</v>
+        <v>8.775433664727325e-05</v>
       </c>
       <c r="E111">
-        <v>0.001571020757437112</v>
+        <v>-0.0001825394185541104</v>
       </c>
       <c r="F111">
-        <v>-0.002995965520174049</v>
+        <v>-0.001532909826884811</v>
       </c>
       <c r="G111">
-        <v>-2.104021249752077e-06</v>
+        <v>-2.920525904755288e-06</v>
       </c>
       <c r="H111">
-        <v>0.1358733780618646</v>
+        <v>0.08974610649712635</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.009875702903539205</v>
+        <v>-0.006526118820873789</v>
       </c>
       <c r="C112">
-        <v>-0.003242878734657131</v>
+        <v>-0.001717720402024079</v>
       </c>
       <c r="D112">
-        <v>8.819133842188049e-05</v>
+        <v>7.417464076165661e-05</v>
       </c>
       <c r="E112">
-        <v>0.001880648474278511</v>
+        <v>0.002277142211677692</v>
       </c>
       <c r="F112">
-        <v>-0.003810063225439517</v>
+        <v>-0.002414512650002055</v>
       </c>
       <c r="G112">
-        <v>-1.899113885378831e-06</v>
+        <v>-1.191491493098488e-06</v>
       </c>
       <c r="H112">
-        <v>0.1305837193657567</v>
+        <v>0.1016662775158311</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.006567513186160783</v>
+        <v>-0.005980660309444528</v>
       </c>
       <c r="C113">
-        <v>0.0002653376779234788</v>
+        <v>0.0047870665258505</v>
       </c>
       <c r="D113">
-        <v>2.975329206158378e-05</v>
+        <v>7.879003411085956e-05</v>
       </c>
       <c r="E113">
-        <v>0.002769703853215476</v>
+        <v>0.00259545070438446</v>
       </c>
       <c r="F113">
-        <v>-0.002976666516853868</v>
+        <v>-0.001412623853785546</v>
       </c>
       <c r="G113">
-        <v>-2.167305962939593e-06</v>
+        <v>-1.831510381779872e-06</v>
       </c>
       <c r="H113">
-        <v>0.1286359760503683</v>
+        <v>0.08855996239174869</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.008183850253244699</v>
+        <v>-0.01275280758523708</v>
       </c>
       <c r="C114">
-        <v>0.004764307380891413</v>
+        <v>-0.002858977507784287</v>
       </c>
       <c r="D114">
-        <v>7.630287738164785e-05</v>
+        <v>4.946282078689228e-05</v>
       </c>
       <c r="E114">
-        <v>-0.0003542120669987048</v>
+        <v>2.594035096676467e-05</v>
       </c>
       <c r="F114">
-        <v>-0.002213998762419987</v>
+        <v>-0.001713308143994414</v>
       </c>
       <c r="G114">
-        <v>-4.702695139303743e-06</v>
+        <v>1.80238017713566e-06</v>
       </c>
       <c r="H114">
-        <v>0.1193241694228425</v>
+        <v>0.09294759876778871</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.008757476872212209</v>
+        <v>-0.01363730042328515</v>
       </c>
       <c r="C115">
-        <v>7.519477369463288e-05</v>
+        <v>-0.004819258427240002</v>
       </c>
       <c r="D115">
-        <v>8.988572683942937e-05</v>
+        <v>2.754322394790263e-05</v>
       </c>
       <c r="E115">
-        <v>0.00217911923417359</v>
+        <v>0.003034068278701396</v>
       </c>
       <c r="F115">
-        <v>-0.004073590087334019</v>
+        <v>-0.001830036081913651</v>
       </c>
       <c r="G115">
-        <v>-5.462103154271809e-07</v>
+        <v>8.250394630015766e-07</v>
       </c>
       <c r="H115">
-        <v>0.1301064794012816</v>
+        <v>0.09771439139802025</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.009059846979642966</v>
+        <v>-0.009473527962524968</v>
       </c>
       <c r="C116">
-        <v>0.004571961643929634</v>
+        <v>-0.001895955317462558</v>
       </c>
       <c r="D116">
-        <v>1.418244518435724e-05</v>
+        <v>7.360062267917369e-05</v>
       </c>
       <c r="E116">
-        <v>0.000471583818298725</v>
+        <v>-0.0008101154861413634</v>
       </c>
       <c r="F116">
-        <v>-0.001139535555164575</v>
+        <v>-0.001071803936639952</v>
       </c>
       <c r="G116">
-        <v>-5.556807886370806e-06</v>
+        <v>-5.396117829152577e-07</v>
       </c>
       <c r="H116">
-        <v>0.1120072774753684</v>
+        <v>0.0854063010278803</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.0120679693722585</v>
+        <v>-0.005987936976804038</v>
       </c>
       <c r="C117">
-        <v>0.005415332866352571</v>
+        <v>0.005514961329680675</v>
       </c>
       <c r="D117">
-        <v>2.568421556804285e-05</v>
+        <v>6.20712169952922e-05</v>
       </c>
       <c r="E117">
-        <v>-0.00286682218505005</v>
+        <v>0.002226382611142635</v>
       </c>
       <c r="F117">
-        <v>-0.001195029391958515</v>
+        <v>-0.0009144309062437089</v>
       </c>
       <c r="G117">
-        <v>-2.008679476151095e-06</v>
+        <v>-1.172011689615825e-06</v>
       </c>
       <c r="H117">
-        <v>0.1063748832065353</v>
+        <v>0.08279488008659117</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.0044873207744979</v>
+        <v>-0.007598166809593384</v>
       </c>
       <c r="C118">
-        <v>0.005469978494603736</v>
+        <v>0.005406589501809072</v>
       </c>
       <c r="D118">
-        <v>7.559584684067026e-05</v>
+        <v>5.448813138039767e-05</v>
       </c>
       <c r="E118">
-        <v>0.002734088685718533</v>
+        <v>-0.001470419495387079</v>
       </c>
       <c r="F118">
-        <v>-0.003249091585037627</v>
+        <v>-0.001650760360878113</v>
       </c>
       <c r="G118">
-        <v>-3.926823212066676e-06</v>
+        <v>-2.464852568402228e-06</v>
       </c>
       <c r="H118">
-        <v>0.128626654003361</v>
+        <v>0.09658910432601218</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.0129875298576828</v>
+        <v>-0.01257236438457318</v>
       </c>
       <c r="C119">
-        <v>0.003024971171067013</v>
+        <v>-0.001276020822122947</v>
       </c>
       <c r="D119">
-        <v>3.106031432141318e-05</v>
+        <v>4.490885828497022e-05</v>
       </c>
       <c r="E119">
-        <v>-0.0004864182825737445</v>
+        <v>0.001900207687066988</v>
       </c>
       <c r="F119">
-        <v>-0.001029659092339489</v>
+        <v>-0.001988691546565939</v>
       </c>
       <c r="G119">
-        <v>-4.90815380700548e-06</v>
+        <v>1.044330163530161e-06</v>
       </c>
       <c r="H119">
-        <v>0.1131235510533507</v>
+        <v>0.09771594039210127</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.01122546988963414</v>
+        <v>-0.007322613506994783</v>
       </c>
       <c r="C120">
-        <v>9.03888740479968e-05</v>
+        <v>-0.0004947843998984796</v>
       </c>
       <c r="D120">
-        <v>2.13775888566593e-05</v>
+        <v>6.309587385594272e-05</v>
       </c>
       <c r="E120">
-        <v>-0.0009164074219658591</v>
+        <v>0.002832925242206637</v>
       </c>
       <c r="F120">
-        <v>-0.002392631451414732</v>
+        <v>-0.001885211618562376</v>
       </c>
       <c r="G120">
-        <v>-4.361625532645164e-06</v>
+        <v>-2.082337078708646e-06</v>
       </c>
       <c r="H120">
-        <v>0.129501672325897</v>
+        <v>0.09600270697292138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.00739826010395048</v>
+        <v>-0.00753063150685958</v>
       </c>
       <c r="C121">
-        <v>-0.003264796095332469</v>
+        <v>0.002492049841558748</v>
       </c>
       <c r="D121">
-        <v>0.0001097270106672575</v>
+        <v>4.693599797479796e-05</v>
       </c>
       <c r="E121">
-        <v>-0.0003077465805474758</v>
+        <v>0.002928971903889306</v>
       </c>
       <c r="F121">
-        <v>-0.00316331854991835</v>
+        <v>-0.001942111175484984</v>
       </c>
       <c r="G121">
-        <v>-3.236740206455448e-06</v>
+        <v>-1.400469861724445e-06</v>
       </c>
       <c r="H121">
-        <v>0.1230460261284712</v>
+        <v>0.097013075975822</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC1_coef.xlsx
+++ b/FOMC1_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.00754061178038278</v>
+        <v>-0.0002777405706416343</v>
       </c>
       <c r="C2">
-        <v>0.001357315622707795</v>
+        <v>-0.0003331230632893766</v>
       </c>
       <c r="D2">
-        <v>9.343927828398858e-05</v>
+        <v>1.02884678122515e-06</v>
       </c>
       <c r="E2">
-        <v>0.002343800700459642</v>
+        <v>-0.0003474917893679062</v>
       </c>
       <c r="F2">
-        <v>-0.003069209112369239</v>
+        <v>3.498253248912953e-05</v>
       </c>
       <c r="G2">
-        <v>9.611723212880285e-07</v>
+        <v>1.706203173627779e-07</v>
       </c>
       <c r="H2">
-        <v>0.103742617356458</v>
+        <v>0.02783536869522938</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.007625366839230826</v>
+        <v>0.001636371002440954</v>
       </c>
       <c r="C3">
-        <v>-0.004061047110238914</v>
+        <v>-0.00629143661739661</v>
       </c>
       <c r="D3">
-        <v>8.934314167206357e-05</v>
+        <v>-4.231463449302981e-05</v>
       </c>
       <c r="E3">
-        <v>0.0002264461753168426</v>
+        <v>-0.004284903511081739</v>
       </c>
       <c r="F3">
-        <v>-0.00113479648525459</v>
+        <v>0.0006841767908770074</v>
       </c>
       <c r="G3">
-        <v>-9.791517722424368e-07</v>
+        <v>-5.97802102862863e-07</v>
       </c>
       <c r="H3">
-        <v>0.08490292624697038</v>
+        <v>0.0789069814512101</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0067272722376316</v>
+        <v>-0.002718159312486935</v>
       </c>
       <c r="C4">
-        <v>-0.0012381884204785</v>
+        <v>0.002252013393293924</v>
       </c>
       <c r="D4">
-        <v>8.791975415955238e-05</v>
+        <v>3.535837433334082e-05</v>
       </c>
       <c r="E4">
-        <v>0.0007388733286941562</v>
+        <v>-0.001319261956677954</v>
       </c>
       <c r="F4">
-        <v>-0.002918587425551073</v>
+        <v>0.0006328686404926745</v>
       </c>
       <c r="G4">
-        <v>-5.467306084988095e-07</v>
+        <v>-2.160073559994674e-07</v>
       </c>
       <c r="H4">
-        <v>0.1049887269348532</v>
+        <v>0.0609150779323757</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.00964479343013578</v>
+        <v>0.002363614724224743</v>
       </c>
       <c r="C5">
-        <v>-0.001470757701779359</v>
+        <v>-0.0003464204793878875</v>
       </c>
       <c r="D5">
-        <v>4.940208812186733e-05</v>
+        <v>1.370553760943698e-05</v>
       </c>
       <c r="E5">
-        <v>0.003706824338498151</v>
+        <v>-0.002014878619675066</v>
       </c>
       <c r="F5">
-        <v>-0.00209666675577963</v>
+        <v>0.0006179635632766014</v>
       </c>
       <c r="G5">
-        <v>3.629577190446211e-07</v>
+        <v>-1.628763279984727e-06</v>
       </c>
       <c r="H5">
-        <v>0.0977472567245798</v>
+        <v>0.06858275181921529</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.008590935562445477</v>
+        <v>0.0003865227884746148</v>
       </c>
       <c r="C6">
-        <v>-0.0004633872129737808</v>
+        <v>-0.0003321560690444578</v>
       </c>
       <c r="D6">
-        <v>6.638205927242158e-05</v>
+        <v>-3.87432503881325e-06</v>
       </c>
       <c r="E6">
-        <v>0.001023015815165063</v>
+        <v>0.001415647104124146</v>
       </c>
       <c r="F6">
-        <v>-0.002889821585440034</v>
+        <v>0.0008265223859120344</v>
       </c>
       <c r="G6">
-        <v>-5.342109376217773e-07</v>
+        <v>-1.77650613337516e-06</v>
       </c>
       <c r="H6">
-        <v>0.1095960645865644</v>
+        <v>0.04172282467028478</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.007226837249800695</v>
+        <v>0.003824980183305645</v>
       </c>
       <c r="C7">
-        <v>0.001475549266619375</v>
+        <v>-0.001045778565666591</v>
       </c>
       <c r="D7">
-        <v>7.388542942147929e-05</v>
+        <v>2.116179177798834e-05</v>
       </c>
       <c r="E7">
-        <v>0.0009955530700889795</v>
+        <v>0.001410969246408267</v>
       </c>
       <c r="F7">
-        <v>-0.0019919415349593</v>
+        <v>-0.0009670964076481689</v>
       </c>
       <c r="G7">
-        <v>-2.046521415255831e-06</v>
+        <v>4.963717525099096e-07</v>
       </c>
       <c r="H7">
-        <v>0.09903658392183447</v>
+        <v>0.07831969293244712</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.009816715359744873</v>
+        <v>0.002733610485750271</v>
       </c>
       <c r="C8">
-        <v>-0.001571860676243601</v>
+        <v>-0.004116258077377566</v>
       </c>
       <c r="D8">
-        <v>5.289888117369447e-05</v>
+        <v>6.659729056646139e-06</v>
       </c>
       <c r="E8">
-        <v>-0.001263873215878543</v>
+        <v>-0.0005358154237657814</v>
       </c>
       <c r="F8">
-        <v>-0.002499219289679284</v>
+        <v>-0.0001772522597602976</v>
       </c>
       <c r="G8">
-        <v>-1.177496848845876e-06</v>
+        <v>-1.307431100696226e-06</v>
       </c>
       <c r="H8">
-        <v>0.1081694740101147</v>
+        <v>0.06618426779345546</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.006982545276966095</v>
+        <v>0.001210911131833466</v>
       </c>
       <c r="C9">
-        <v>-0.0004882590483251898</v>
+        <v>-0.005824637623860003</v>
       </c>
       <c r="D9">
-        <v>7.528623165658302e-05</v>
+        <v>3.533457442687081e-05</v>
       </c>
       <c r="E9">
-        <v>0.002443405060241051</v>
+        <v>-0.003115722477198907</v>
       </c>
       <c r="F9">
-        <v>-0.003892196650691557</v>
+        <v>-0.0002465145382487129</v>
       </c>
       <c r="G9">
-        <v>1.217987104376399e-06</v>
+        <v>-1.775041727290549e-06</v>
       </c>
       <c r="H9">
-        <v>0.1152082633326726</v>
+        <v>0.06735180986158863</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01071317922999153</v>
+        <v>-0.0005416244429279787</v>
       </c>
       <c r="C10">
-        <v>-9.538480507681108e-05</v>
+        <v>0.0009208866983176917</v>
       </c>
       <c r="D10">
-        <v>4.343789233295405e-05</v>
+        <v>-1.728756010059591e-05</v>
       </c>
       <c r="E10">
-        <v>0.001521068946306894</v>
+        <v>-0.0006542062271022026</v>
       </c>
       <c r="F10">
-        <v>-0.0007207353851460862</v>
+        <v>-0.0002042706890511771</v>
       </c>
       <c r="G10">
-        <v>2.259260783028242e-07</v>
+        <v>-1.567936711032511e-07</v>
       </c>
       <c r="H10">
-        <v>0.08071545282239619</v>
+        <v>0.07933589309109947</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.00604339785412233</v>
+        <v>-0.0001806738799819145</v>
       </c>
       <c r="C11">
-        <v>0.001303677046044969</v>
+        <v>-0.0002182478801953715</v>
       </c>
       <c r="D11">
-        <v>5.862088606773827e-05</v>
+        <v>-2.114513698100374e-06</v>
       </c>
       <c r="E11">
-        <v>0.001708067561408212</v>
+        <v>-6.756425089863086e-05</v>
       </c>
       <c r="F11">
-        <v>-0.001658976983390301</v>
+        <v>-3.573282360204498e-05</v>
       </c>
       <c r="G11">
-        <v>-1.838038580142212e-06</v>
+        <v>3.524794791023667e-07</v>
       </c>
       <c r="H11">
-        <v>0.09342551740903847</v>
+        <v>0.02716918915923697</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01163125187060424</v>
+        <v>-0.0002915859682837514</v>
       </c>
       <c r="C12">
-        <v>0.0006387757535565206</v>
+        <v>0.000189609577999779</v>
       </c>
       <c r="D12">
-        <v>-4.811942051164082e-06</v>
+        <v>-9.065535309515108e-07</v>
       </c>
       <c r="E12">
-        <v>-0.001494028812204541</v>
+        <v>6.408368949470736e-05</v>
       </c>
       <c r="F12">
-        <v>-0.001350311673488165</v>
+        <v>-8.118360422829378e-05</v>
       </c>
       <c r="G12">
-        <v>1.134024757128327e-08</v>
+        <v>3.074952196663004e-07</v>
       </c>
       <c r="H12">
-        <v>0.09577748875207265</v>
+        <v>0.02783084790255023</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0117375192421548</v>
+        <v>-0.000462588409051355</v>
       </c>
       <c r="C13">
-        <v>-0.0008634052696296861</v>
+        <v>0.001164751615023173</v>
       </c>
       <c r="D13">
-        <v>7.513554871597895e-05</v>
+        <v>-5.85040458604107e-06</v>
       </c>
       <c r="E13">
-        <v>0.001667198757281753</v>
+        <v>0.0001145956689832008</v>
       </c>
       <c r="F13">
-        <v>-0.002749870882719827</v>
+        <v>5.470953804969573e-05</v>
       </c>
       <c r="G13">
-        <v>1.833818504225661e-06</v>
+        <v>4.845202756835981e-07</v>
       </c>
       <c r="H13">
-        <v>0.1025005100233775</v>
+        <v>0.02822174850129906</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.006896028655214352</v>
+        <v>-0.0003553175432591165</v>
       </c>
       <c r="C14">
-        <v>-0.001722035135350468</v>
+        <v>-1.495338685425122e-05</v>
       </c>
       <c r="D14">
-        <v>4.949451395094873e-05</v>
+        <v>-2.792032598350834e-06</v>
       </c>
       <c r="E14">
-        <v>-0.0004369635265577959</v>
+        <v>7.750123596797151e-05</v>
       </c>
       <c r="F14">
-        <v>-0.001826059712200824</v>
+        <v>1.402439354434995e-05</v>
       </c>
       <c r="G14">
-        <v>-1.278263626225076e-06</v>
+        <v>4.671550049479004e-07</v>
       </c>
       <c r="H14">
-        <v>0.09808918584572029</v>
+        <v>0.02724276536854493</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.006659312976120724</v>
+        <v>-3.768693915617502e-05</v>
       </c>
       <c r="C15">
-        <v>-0.001740516863916935</v>
+        <v>0.01032121344954722</v>
       </c>
       <c r="D15">
-        <v>9.338130889365267e-05</v>
+        <v>-1.758811386679551e-05</v>
       </c>
       <c r="E15">
-        <v>0.001204746976784909</v>
+        <v>0.003366013547214122</v>
       </c>
       <c r="F15">
-        <v>-0.0019556976055105</v>
+        <v>0.0002048024845954586</v>
       </c>
       <c r="G15">
-        <v>-1.664246038798816e-06</v>
+        <v>4.792193048658598e-06</v>
       </c>
       <c r="H15">
-        <v>0.09446883670662581</v>
+        <v>0.06192075594079947</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.009884380105321337</v>
+        <v>0.002238384190153617</v>
       </c>
       <c r="C16">
-        <v>-0.0008000268635576929</v>
+        <v>-0.001891524115067455</v>
       </c>
       <c r="D16">
-        <v>5.414297524355071e-05</v>
+        <v>5.524902372837809e-05</v>
       </c>
       <c r="E16">
-        <v>-6.145182102750002e-05</v>
+        <v>0.001008292232249887</v>
       </c>
       <c r="F16">
-        <v>-0.001684999273063313</v>
+        <v>-0.001145698265899941</v>
       </c>
       <c r="G16">
-        <v>1.026832667710532e-07</v>
+        <v>3.283920991815085e-07</v>
       </c>
       <c r="H16">
-        <v>0.09200654094093669</v>
+        <v>0.08835073158565201</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01170043509964639</v>
+        <v>-0.0002867657376339507</v>
       </c>
       <c r="C17">
-        <v>0.005803753025328965</v>
+        <v>-0.0005530679602439474</v>
       </c>
       <c r="D17">
-        <v>4.334327463487654e-05</v>
+        <v>1.844998122472849e-06</v>
       </c>
       <c r="E17">
-        <v>0.003584424081902578</v>
+        <v>-0.0001596297864091996</v>
       </c>
       <c r="F17">
-        <v>-0.001674805533692673</v>
+        <v>-6.317842289344823e-05</v>
       </c>
       <c r="G17">
-        <v>7.171246817563237e-07</v>
+        <v>3.173250621971283e-07</v>
       </c>
       <c r="H17">
-        <v>0.09233625622745563</v>
+        <v>0.02812659716950204</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.008437104438301228</v>
+        <v>0.0001078614028119772</v>
       </c>
       <c r="C18">
-        <v>-0.001595147834865019</v>
+        <v>0.007055019108011326</v>
       </c>
       <c r="D18">
-        <v>6.662845196928502e-05</v>
+        <v>1.285642481832365e-05</v>
       </c>
       <c r="E18">
-        <v>0.001251152424647239</v>
+        <v>-0.0002731741189720971</v>
       </c>
       <c r="F18">
-        <v>-0.001879797948632772</v>
+        <v>0.001258512704978597</v>
       </c>
       <c r="G18">
-        <v>-9.202225263002256e-07</v>
+        <v>3.972844212559273e-07</v>
       </c>
       <c r="H18">
-        <v>0.09447741865795597</v>
+        <v>0.0615955100868017</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.008024091337235632</v>
+        <v>0.0008929358384626288</v>
       </c>
       <c r="C19">
-        <v>-0.001782156010301568</v>
+        <v>-0.002372666765358948</v>
       </c>
       <c r="D19">
-        <v>2.464851295115643e-05</v>
+        <v>5.584395191119356e-05</v>
       </c>
       <c r="E19">
-        <v>-0.001207589324388011</v>
+        <v>0.001006051668300742</v>
       </c>
       <c r="F19">
-        <v>-0.0007823257727697392</v>
+        <v>-0.0007153703675497093</v>
       </c>
       <c r="G19">
-        <v>-1.164724546536344e-06</v>
+        <v>-7.293431688779148e-07</v>
       </c>
       <c r="H19">
-        <v>0.08647576029147591</v>
+        <v>0.08602882116839611</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.01090928378887462</v>
+        <v>-0.0003555028686040118</v>
       </c>
       <c r="C20">
-        <v>0.00222657992252229</v>
+        <v>-0.0003066491751626905</v>
       </c>
       <c r="D20">
-        <v>2.572644789256728e-05</v>
+        <v>-8.342196221560212e-07</v>
       </c>
       <c r="E20">
-        <v>0.004377702247571891</v>
+        <v>-2.398882291253235e-05</v>
       </c>
       <c r="F20">
-        <v>-0.001960857933526376</v>
+        <v>-1.982613683845324e-05</v>
       </c>
       <c r="G20">
-        <v>-1.363816841069126e-06</v>
+        <v>2.848308317054886e-07</v>
       </c>
       <c r="H20">
-        <v>0.1042441530367022</v>
+        <v>0.02729284685506815</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.008066802634012039</v>
+        <v>3.730063984349404e-05</v>
       </c>
       <c r="C21">
-        <v>-0.004177281244355996</v>
+        <v>-0.0003522746356969443</v>
       </c>
       <c r="D21">
-        <v>2.998857449006802e-05</v>
+        <v>-5.239259496377924e-06</v>
       </c>
       <c r="E21">
-        <v>0.001726344304442864</v>
+        <v>0.0002677211648335863</v>
       </c>
       <c r="F21">
-        <v>-0.002149611276913731</v>
+        <v>-0.0003834114159589526</v>
       </c>
       <c r="G21">
-        <v>-9.562411876313299e-07</v>
+        <v>3.448290345176851e-07</v>
       </c>
       <c r="H21">
-        <v>0.1018129677153539</v>
+        <v>0.0409157546066283</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.01061014106793136</v>
+        <v>2.188802699061468e-05</v>
       </c>
       <c r="C22">
-        <v>0.001986701290207667</v>
+        <v>0.0001528987425976462</v>
       </c>
       <c r="D22">
-        <v>2.462787174214126e-05</v>
+        <v>-3.322140592882112e-06</v>
       </c>
       <c r="E22">
-        <v>0.0001084151179181342</v>
+        <v>-5.734434761056964e-05</v>
       </c>
       <c r="F22">
-        <v>-0.001518461225763937</v>
+        <v>-2.865988131007906e-06</v>
       </c>
       <c r="G22">
-        <v>-3.755935955434131e-07</v>
+        <v>1.728357969038029e-07</v>
       </c>
       <c r="H22">
-        <v>0.09701426997243369</v>
+        <v>0.02736465640803462</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.01024143184666194</v>
+        <v>-0.0003518735163261725</v>
       </c>
       <c r="C23">
-        <v>-0.002331793774306539</v>
+        <v>-0.0003712579127517635</v>
       </c>
       <c r="D23">
-        <v>5.315603772436937e-05</v>
+        <v>1.796173704377164e-06</v>
       </c>
       <c r="E23">
-        <v>-0.0009696950930819723</v>
+        <v>-0.0004024479442660822</v>
       </c>
       <c r="F23">
-        <v>-0.001003595214180122</v>
+        <v>0.0001479535038854499</v>
       </c>
       <c r="G23">
-        <v>-5.888762375041367e-07</v>
+        <v>1.780965917120041e-07</v>
       </c>
       <c r="H23">
-        <v>0.08560265944826853</v>
+        <v>0.0274145497298279</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.006599633827475315</v>
+        <v>0.0002825481116527965</v>
       </c>
       <c r="C24">
-        <v>0.002546369143002122</v>
+        <v>-0.002004444995970728</v>
       </c>
       <c r="D24">
-        <v>8.677514641943981e-05</v>
+        <v>5.885215949564473e-06</v>
       </c>
       <c r="E24">
-        <v>0.002440199540712097</v>
+        <v>-0.000914835155356522</v>
       </c>
       <c r="F24">
-        <v>-0.002277285209847414</v>
+        <v>-0.0003415077228987439</v>
       </c>
       <c r="G24">
-        <v>-6.160138196381173e-07</v>
+        <v>1.513254463538928e-06</v>
       </c>
       <c r="H24">
-        <v>0.09651633944000201</v>
+        <v>0.05231843479599513</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.003447873070861427</v>
+        <v>0.002521107976491805</v>
       </c>
       <c r="C25">
-        <v>0.000512105621211578</v>
+        <v>-0.005223529964365623</v>
       </c>
       <c r="D25">
-        <v>9.30056619886964e-05</v>
+        <v>-3.761898841133198e-05</v>
       </c>
       <c r="E25">
-        <v>0.0004477272902011012</v>
+        <v>-0.004063349305303207</v>
       </c>
       <c r="F25">
-        <v>-0.002820820985532352</v>
+        <v>-0.0006391490037112465</v>
       </c>
       <c r="G25">
-        <v>-1.043147168280189e-06</v>
+        <v>-2.549801882849481e-06</v>
       </c>
       <c r="H25">
-        <v>0.1026773417967613</v>
+        <v>0.1070337179108319</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.01135010242837384</v>
+        <v>-0.001582925435627069</v>
       </c>
       <c r="C26">
-        <v>0.00529130904252759</v>
+        <v>0.001396817035922574</v>
       </c>
       <c r="D26">
-        <v>6.990036164584366e-05</v>
+        <v>-2.555481610016991e-05</v>
       </c>
       <c r="E26">
-        <v>-0.0004251862975130083</v>
+        <v>0.0008314867306240883</v>
       </c>
       <c r="F26">
-        <v>-0.001589196622809437</v>
+        <v>-0.0009631584656002745</v>
       </c>
       <c r="G26">
-        <v>-1.56344008566504e-06</v>
+        <v>1.363921553553995e-06</v>
       </c>
       <c r="H26">
-        <v>0.09674516824812222</v>
+        <v>0.06041592864629905</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.007716326204556757</v>
+        <v>-0.0004174857814987756</v>
       </c>
       <c r="C27">
-        <v>-0.004614143246609062</v>
+        <v>-3.184916539385733e-05</v>
       </c>
       <c r="D27">
-        <v>5.944675853589946e-05</v>
+        <v>3.228602842458092e-07</v>
       </c>
       <c r="E27">
-        <v>0.0003331581928079433</v>
+        <v>0.0001280646689652033</v>
       </c>
       <c r="F27">
-        <v>-0.002220703312205509</v>
+        <v>4.319841796031191e-05</v>
       </c>
       <c r="G27">
-        <v>1.072210573252302e-07</v>
+        <v>3.650486520419338e-07</v>
       </c>
       <c r="H27">
-        <v>0.09827226077146209</v>
+        <v>0.02686106073626017</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.008016139911320984</v>
+        <v>0.003296484918502965</v>
       </c>
       <c r="C28">
-        <v>0.005325068880717791</v>
+        <v>0.005168111552482443</v>
       </c>
       <c r="D28">
-        <v>3.9619074026403e-05</v>
+        <v>2.85140594970705e-06</v>
       </c>
       <c r="E28">
-        <v>0.00186042545774958</v>
+        <v>-0.003379885427439479</v>
       </c>
       <c r="F28">
-        <v>-0.001321418835736683</v>
+        <v>2.552751444007692e-05</v>
       </c>
       <c r="G28">
-        <v>-2.591759689798673e-06</v>
+        <v>-2.098830207788742e-06</v>
       </c>
       <c r="H28">
-        <v>0.0943355132045117</v>
+        <v>0.08168109903356199</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.01151462744290994</v>
+        <v>0.002757185042691131</v>
       </c>
       <c r="C29">
-        <v>-0.003291289977618365</v>
+        <v>0.004322344996808093</v>
       </c>
       <c r="D29">
-        <v>3.783937030133383e-05</v>
+        <v>-2.188187348510953e-05</v>
       </c>
       <c r="E29">
-        <v>-0.0009162316245368007</v>
+        <v>0.002353461587290183</v>
       </c>
       <c r="F29">
-        <v>-0.001012216270775619</v>
+        <v>-0.00088921718275339</v>
       </c>
       <c r="G29">
-        <v>-3.849319548875889e-07</v>
+        <v>1.373756348458443e-06</v>
       </c>
       <c r="H29">
-        <v>0.0884596075495942</v>
+        <v>0.09071867777183473</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.008838341619251348</v>
+        <v>0.0003257709408961539</v>
       </c>
       <c r="C30">
-        <v>-0.0001608584168799242</v>
+        <v>-0.004852926077341684</v>
       </c>
       <c r="D30">
-        <v>9.911793875778117e-05</v>
+        <v>4.233794605511176e-05</v>
       </c>
       <c r="E30">
-        <v>0.001929613095501749</v>
+        <v>0.002658160367128057</v>
       </c>
       <c r="F30">
-        <v>-0.00093749577407204</v>
+        <v>-0.0006655223082389539</v>
       </c>
       <c r="G30">
-        <v>-2.894165640650738e-07</v>
+        <v>-9.642133383042431e-07</v>
       </c>
       <c r="H30">
-        <v>0.08025411613047724</v>
+        <v>0.06166277462329776</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.00670293959040323</v>
+        <v>-8.919581487789284e-05</v>
       </c>
       <c r="C31">
-        <v>-0.004331429156681328</v>
+        <v>-0.00464398517905998</v>
       </c>
       <c r="D31">
-        <v>8.888295512204166e-05</v>
+        <v>5.168794708856301e-05</v>
       </c>
       <c r="E31">
-        <v>0.0007648905405914994</v>
+        <v>-0.003989468352162871</v>
       </c>
       <c r="F31">
-        <v>-0.002320929066193867</v>
+        <v>-0.002276110314923314</v>
       </c>
       <c r="G31">
-        <v>-7.449215759182204e-07</v>
+        <v>1.466855855936766e-06</v>
       </c>
       <c r="H31">
-        <v>0.09602787921124421</v>
+        <v>0.1052014289064426</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.01193007626324375</v>
+        <v>-0.0007596499396622016</v>
       </c>
       <c r="C32">
-        <v>-0.004803313354849554</v>
+        <v>-0.005017688570233823</v>
       </c>
       <c r="D32">
-        <v>6.008884978741846e-05</v>
+        <v>-5.621452242716064e-06</v>
       </c>
       <c r="E32">
-        <v>-0.000769364173049264</v>
+        <v>-0.007772658977118284</v>
       </c>
       <c r="F32">
-        <v>-0.001488384859036663</v>
+        <v>-0.001253273986529614</v>
       </c>
       <c r="G32">
-        <v>1.455270334910333e-06</v>
+        <v>-1.038748370995036e-08</v>
       </c>
       <c r="H32">
-        <v>0.08850114610315532</v>
+        <v>0.107649046567494</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.01008346409327537</v>
+        <v>0.001421898723623617</v>
       </c>
       <c r="C33">
-        <v>-0.002991519469235841</v>
+        <v>0.001345209292291857</v>
       </c>
       <c r="D33">
-        <v>4.629345311161675e-05</v>
+        <v>-1.521646893278644e-06</v>
       </c>
       <c r="E33">
-        <v>0.00316579817252495</v>
+        <v>0.0005476527169504322</v>
       </c>
       <c r="F33">
-        <v>-0.00136372495753151</v>
+        <v>-3.297342062794908e-05</v>
       </c>
       <c r="G33">
-        <v>-1.104884177696021e-06</v>
+        <v>5.168131383619413e-07</v>
       </c>
       <c r="H33">
-        <v>0.09265718120062784</v>
+        <v>0.06589659631598856</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.005713072588188295</v>
+        <v>-0.0018673550520922</v>
       </c>
       <c r="C34">
-        <v>-0.0009252851601388252</v>
+        <v>0.0007483874852729778</v>
       </c>
       <c r="D34">
-        <v>5.295332168763643e-05</v>
+        <v>-2.432090234873133e-05</v>
       </c>
       <c r="E34">
-        <v>-0.001021748361250414</v>
+        <v>0.0005436494759118865</v>
       </c>
       <c r="F34">
-        <v>-0.001564698566669349</v>
+        <v>3.387957626005867e-05</v>
       </c>
       <c r="G34">
-        <v>-1.550767967590752e-06</v>
+        <v>1.509708987623945e-06</v>
       </c>
       <c r="H34">
-        <v>0.0924721214646502</v>
+        <v>0.03537782089430124</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.01044669450667454</v>
+        <v>0.0001933971275645953</v>
       </c>
       <c r="C35">
-        <v>-0.003861890517683261</v>
+        <v>-0.0001628528394158356</v>
       </c>
       <c r="D35">
-        <v>7.112324003909055e-05</v>
+        <v>-1.676400693541533e-06</v>
       </c>
       <c r="E35">
-        <v>-0.0005903422478841028</v>
+        <v>0.0001757581550013328</v>
       </c>
       <c r="F35">
-        <v>-0.002846005654907346</v>
+        <v>-0.0001184837497589896</v>
       </c>
       <c r="G35">
-        <v>2.078173874982027e-06</v>
+        <v>5.300463839447638e-07</v>
       </c>
       <c r="H35">
-        <v>0.1028260066051386</v>
+        <v>0.03510098316157988</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.009332639586607166</v>
+        <v>-0.001980262837865079</v>
       </c>
       <c r="C36">
-        <v>0.003901160104630378</v>
+        <v>3.708284495208998e-05</v>
       </c>
       <c r="D36">
-        <v>4.752328792642935e-05</v>
+        <v>9.009696412505823e-06</v>
       </c>
       <c r="E36">
-        <v>0.0005322233644460758</v>
+        <v>-0.001587714562825915</v>
       </c>
       <c r="F36">
-        <v>-0.001123217756828363</v>
+        <v>0.0001618341948641461</v>
       </c>
       <c r="G36">
-        <v>-3.997753497689698e-07</v>
+        <v>6.840070147945363e-07</v>
       </c>
       <c r="H36">
-        <v>0.08645611472596491</v>
+        <v>0.05565745542440505</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.009495231018435428</v>
+        <v>0.0011874863212511</v>
       </c>
       <c r="C37">
-        <v>0.00266790522169941</v>
+        <v>0.0008259128466250231</v>
       </c>
       <c r="D37">
-        <v>4.523902438328455e-05</v>
+        <v>2.550969766548153e-05</v>
       </c>
       <c r="E37">
-        <v>0.0002696010497060877</v>
+        <v>-0.0008294575392887235</v>
       </c>
       <c r="F37">
-        <v>-0.00173907268875056</v>
+        <v>-0.0005621122037510235</v>
       </c>
       <c r="G37">
-        <v>-1.64373965990448e-06</v>
+        <v>3.597705988741192e-07</v>
       </c>
       <c r="H37">
-        <v>0.09985643790939397</v>
+        <v>0.05675783675340842</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.008625360308067357</v>
+        <v>9.936071107190443e-05</v>
       </c>
       <c r="C38">
-        <v>0.002028656329615337</v>
+        <v>-0.000100817478231408</v>
       </c>
       <c r="D38">
-        <v>4.541893518251898e-05</v>
+        <v>6.641653806326274e-08</v>
       </c>
       <c r="E38">
-        <v>0.003143043085671531</v>
+        <v>7.753500227144355e-05</v>
       </c>
       <c r="F38">
-        <v>-0.002162599612761811</v>
+        <v>-3.681601458968217e-05</v>
       </c>
       <c r="G38">
-        <v>-1.267874347523236e-06</v>
+        <v>7.456887644385316e-08</v>
       </c>
       <c r="H38">
-        <v>0.1005014574140142</v>
+        <v>0.02766802477529984</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.00934552975619871</v>
+        <v>-0.001055305683016771</v>
       </c>
       <c r="C39">
-        <v>0.001898100648832615</v>
+        <v>0.003713351986244262</v>
       </c>
       <c r="D39">
-        <v>4.411071756180638e-05</v>
+        <v>-1.418234057605179e-05</v>
       </c>
       <c r="E39">
-        <v>0.00355511837366241</v>
+        <v>-0.0006431543022747468</v>
       </c>
       <c r="F39">
-        <v>-0.001008207273829175</v>
+        <v>-0.0004380571407548196</v>
       </c>
       <c r="G39">
-        <v>-8.900068715979527e-07</v>
+        <v>-8.892909284915902e-07</v>
       </c>
       <c r="H39">
-        <v>0.08653369279965381</v>
+        <v>0.06881458620210359</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.006685811124146945</v>
+        <v>0.00514692729911314</v>
       </c>
       <c r="C40">
-        <v>0.002476518717192017</v>
+        <v>-0.001590073779783404</v>
       </c>
       <c r="D40">
-        <v>6.832475695095281e-05</v>
+        <v>3.886250807381755e-05</v>
       </c>
       <c r="E40">
-        <v>0.00202946130276236</v>
+        <v>0.001161477379908349</v>
       </c>
       <c r="F40">
-        <v>-0.001706382991603891</v>
+        <v>-0.001206992328198356</v>
       </c>
       <c r="G40">
-        <v>-4.051853352063531e-07</v>
+        <v>-2.566676067215889e-06</v>
       </c>
       <c r="H40">
-        <v>0.09109031071879553</v>
+        <v>0.1086311540111494</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.006795277593532529</v>
+        <v>0.0001034479872112229</v>
       </c>
       <c r="C41">
-        <v>-0.0007772145086896816</v>
+        <v>-0.0004613501648837554</v>
       </c>
       <c r="D41">
-        <v>4.521836806833774e-05</v>
+        <v>1.957745639460964e-06</v>
       </c>
       <c r="E41">
-        <v>0.00381916567632256</v>
+        <v>0.0001369940679778539</v>
       </c>
       <c r="F41">
-        <v>-0.002043808749474518</v>
+        <v>-0.0001894327610303199</v>
       </c>
       <c r="G41">
-        <v>-9.139398054700501e-07</v>
+        <v>2.123813428263045e-07</v>
       </c>
       <c r="H41">
-        <v>0.09647756009347137</v>
+        <v>0.03488213881337447</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.007667224761706668</v>
+        <v>-0.002054593347764085</v>
       </c>
       <c r="C42">
-        <v>-0.0008285012658301848</v>
+        <v>-0.004661529556755731</v>
       </c>
       <c r="D42">
-        <v>9.078863521758694e-05</v>
+        <v>2.556050392266491e-05</v>
       </c>
       <c r="E42">
-        <v>0.0006557937889538762</v>
+        <v>-0.002685695672576878</v>
       </c>
       <c r="F42">
-        <v>-0.001985909081509363</v>
+        <v>-0.0002341438102597031</v>
       </c>
       <c r="G42">
-        <v>5.61269843817618e-07</v>
+        <v>-3.430285098157206e-07</v>
       </c>
       <c r="H42">
-        <v>0.09059639906140413</v>
+        <v>0.08483944891526814</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01023031433224891</v>
+        <v>-0.001957257087194104</v>
       </c>
       <c r="C43">
-        <v>0.002275441877238068</v>
+        <v>0.0001374549736608765</v>
       </c>
       <c r="D43">
-        <v>3.6979918091525e-05</v>
+        <v>-2.64594280459847e-06</v>
       </c>
       <c r="E43">
-        <v>-0.001834049965222621</v>
+        <v>-0.0008188341810788161</v>
       </c>
       <c r="F43">
-        <v>-0.001233346922161272</v>
+        <v>0.0009109243449863657</v>
       </c>
       <c r="G43">
-        <v>-4.086655509241432e-07</v>
+        <v>-4.170392410663861e-07</v>
       </c>
       <c r="H43">
-        <v>0.09069109412606736</v>
+        <v>0.04510485613796298</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.01101726662966212</v>
+        <v>2.827946061508902e-05</v>
       </c>
       <c r="C44">
-        <v>-0.001073584452627655</v>
+        <v>0.0004047123265205152</v>
       </c>
       <c r="D44">
-        <v>5.237770622734083e-05</v>
+        <v>-5.994400929752152e-07</v>
       </c>
       <c r="E44">
-        <v>0.002703331317543536</v>
+        <v>0.0001160419245837055</v>
       </c>
       <c r="F44">
-        <v>-0.002124492429868334</v>
+        <v>7.166535905132638e-05</v>
       </c>
       <c r="G44">
-        <v>1.646895969727481e-07</v>
+        <v>3.08119477036186e-07</v>
       </c>
       <c r="H44">
-        <v>0.1000326938905331</v>
+        <v>0.02731944993395611</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.007784787978584667</v>
+        <v>-2.848471493559213e-05</v>
       </c>
       <c r="C45">
-        <v>-0.001407491897658735</v>
+        <v>-4.028669894506844e-05</v>
       </c>
       <c r="D45">
-        <v>9.559682808914059e-05</v>
+        <v>1.303154733988705e-06</v>
       </c>
       <c r="E45">
-        <v>-0.001609286483913994</v>
+        <v>0.0002025950527944839</v>
       </c>
       <c r="F45">
-        <v>-0.001786396244664653</v>
+        <v>-9.934654749193302e-05</v>
       </c>
       <c r="G45">
-        <v>-1.311899563750077e-06</v>
+        <v>2.600420424374111e-07</v>
       </c>
       <c r="H45">
-        <v>0.09235858412167684</v>
+        <v>0.02751200699458972</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.007637398223213562</v>
+        <v>-0.002042487237797035</v>
       </c>
       <c r="C46">
-        <v>0.0003144374739448431</v>
+        <v>0.000669367010752747</v>
       </c>
       <c r="D46">
-        <v>4.079474628677253e-05</v>
+        <v>-3.55340883074948e-05</v>
       </c>
       <c r="E46">
-        <v>0.003154646836874324</v>
+        <v>0.001324162196206381</v>
       </c>
       <c r="F46">
-        <v>-0.001336724033807459</v>
+        <v>0.001023061573894134</v>
       </c>
       <c r="G46">
-        <v>-2.197232061427626e-06</v>
+        <v>-2.609564499267621e-07</v>
       </c>
       <c r="H46">
-        <v>0.09108621871151357</v>
+        <v>0.06877843869595592</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.008344518232013976</v>
+        <v>0.0007102776974046113</v>
       </c>
       <c r="C47">
-        <v>0.0004617496036004006</v>
+        <v>0.0002155552839943945</v>
       </c>
       <c r="D47">
-        <v>3.626729206697826e-05</v>
+        <v>-9.037245229705769e-06</v>
       </c>
       <c r="E47">
-        <v>0.003661990836731389</v>
+        <v>-0.0003278075749462081</v>
       </c>
       <c r="F47">
-        <v>-0.00109704601428763</v>
+        <v>0.0001549593359467835</v>
       </c>
       <c r="G47">
-        <v>-1.4842088030428e-06</v>
+        <v>-2.706374180367506e-07</v>
       </c>
       <c r="H47">
-        <v>0.08996994606222125</v>
+        <v>0.03376223320421055</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01018788143310614</v>
+        <v>0.002181251951116548</v>
       </c>
       <c r="C48">
-        <v>0.002965927241961049</v>
+        <v>0.001861730667525919</v>
       </c>
       <c r="D48">
-        <v>6.900495030442016e-05</v>
+        <v>5.107651607252526e-05</v>
       </c>
       <c r="E48">
-        <v>0.001320518268044635</v>
+        <v>-0.002554968617636988</v>
       </c>
       <c r="F48">
-        <v>-0.001812262918310331</v>
+        <v>-0.0006229293235139274</v>
       </c>
       <c r="G48">
-        <v>1.400086517384335e-06</v>
+        <v>-4.854036545892016e-08</v>
       </c>
       <c r="H48">
-        <v>0.09046077598489126</v>
+        <v>0.06287559023915636</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.006375895947046047</v>
+        <v>-0.0004810886160557032</v>
       </c>
       <c r="C49">
-        <v>0.001083763325764617</v>
+        <v>0.0002646260444644632</v>
       </c>
       <c r="D49">
-        <v>0.000106671227008639</v>
+        <v>-3.146793450443926e-06</v>
       </c>
       <c r="E49">
-        <v>0.001457754978186711</v>
+        <v>5.449996733585677e-05</v>
       </c>
       <c r="F49">
-        <v>-0.001897010175002737</v>
+        <v>-2.787187647167871e-05</v>
       </c>
       <c r="G49">
-        <v>-1.180996571849722e-06</v>
+        <v>4.002699414656559e-07</v>
       </c>
       <c r="H49">
-        <v>0.09252444032898773</v>
+        <v>0.02858385938614725</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.007154595481236202</v>
+        <v>-0.0004714855072456454</v>
       </c>
       <c r="C50">
-        <v>-0.004118826354369881</v>
+        <v>0.002423299278505299</v>
       </c>
       <c r="D50">
-        <v>6.569641694540934e-05</v>
+        <v>-9.438278223436091e-06</v>
       </c>
       <c r="E50">
-        <v>-0.0001044199214905867</v>
+        <v>-0.0003153174078888987</v>
       </c>
       <c r="F50">
-        <v>-0.002202674519367229</v>
+        <v>0.0002346939314776069</v>
       </c>
       <c r="G50">
-        <v>8.477136183702309e-07</v>
+        <v>-4.316560397467281e-07</v>
       </c>
       <c r="H50">
-        <v>0.0974233501331041</v>
+        <v>0.04077042818757572</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.01048032881816569</v>
+        <v>-0.003197808814445522</v>
       </c>
       <c r="C51">
-        <v>-0.0009916397799216237</v>
+        <v>-0.001707284031108876</v>
       </c>
       <c r="D51">
-        <v>3.324451027792614e-05</v>
+        <v>-1.436414338621083e-05</v>
       </c>
       <c r="E51">
-        <v>0.00326039341859883</v>
+        <v>-0.0001509891917361658</v>
       </c>
       <c r="F51">
-        <v>-0.002793863156496962</v>
+        <v>-0.0001450102112498177</v>
       </c>
       <c r="G51">
-        <v>2.754564355018485e-06</v>
+        <v>1.550672826267699e-06</v>
       </c>
       <c r="H51">
-        <v>0.1044901884543089</v>
+        <v>0.05751889724641522</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.006238967792355003</v>
+        <v>-0.0004823121939820331</v>
       </c>
       <c r="C52">
-        <v>-0.0006005068671267135</v>
+        <v>-0.0005848678106787848</v>
       </c>
       <c r="D52">
-        <v>5.261144531528752e-05</v>
+        <v>-4.456231850455338e-06</v>
       </c>
       <c r="E52">
-        <v>0.002262614102742248</v>
+        <v>-0.0001178834433668632</v>
       </c>
       <c r="F52">
-        <v>-0.001557798192511625</v>
+        <v>-0.0001222856971624375</v>
       </c>
       <c r="G52">
-        <v>-8.764137547652294e-07</v>
+        <v>1.661806374167844e-07</v>
       </c>
       <c r="H52">
-        <v>0.09091258044960063</v>
+        <v>0.03272009251835281</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.008970834261659301</v>
+        <v>-0.0009438856319228151</v>
       </c>
       <c r="C53">
-        <v>0.002229560552282674</v>
+        <v>0.0008021265373498456</v>
       </c>
       <c r="D53">
-        <v>6.34471168849539e-05</v>
+        <v>1.545325776925362e-06</v>
       </c>
       <c r="E53">
-        <v>-0.0001359767701371306</v>
+        <v>-0.0003731658246264452</v>
       </c>
       <c r="F53">
-        <v>-0.002426262540245572</v>
+        <v>-0.0002168756909713737</v>
       </c>
       <c r="G53">
-        <v>-1.139494872594106e-06</v>
+        <v>7.876000455803056e-07</v>
       </c>
       <c r="H53">
-        <v>0.1040044677808725</v>
+        <v>0.03468337043393517</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.006131096940094713</v>
+        <v>0.003938392691013558</v>
       </c>
       <c r="C54">
-        <v>0.00307599435562898</v>
+        <v>-0.002829547225480857</v>
       </c>
       <c r="D54">
-        <v>8.011363198447187e-05</v>
+        <v>3.138599563326396e-05</v>
       </c>
       <c r="E54">
-        <v>0.001634046795077518</v>
+        <v>0.0001854648013773982</v>
       </c>
       <c r="F54">
-        <v>-0.002255322549511286</v>
+        <v>-0.001941577921363795</v>
       </c>
       <c r="G54">
-        <v>-2.037895091199227e-06</v>
+        <v>-7.989591597002863e-07</v>
       </c>
       <c r="H54">
-        <v>0.1004542191046852</v>
+        <v>0.09561540661505794</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.01148713796893553</v>
+        <v>-0.0004292595779681735</v>
       </c>
       <c r="C55">
-        <v>-0.00145039706422607</v>
+        <v>0.0001012779998474368</v>
       </c>
       <c r="D55">
-        <v>8.945695932962714e-05</v>
+        <v>-5.481399692032724e-06</v>
       </c>
       <c r="E55">
-        <v>0.001083808026098268</v>
+        <v>-0.0001689495652449531</v>
       </c>
       <c r="F55">
-        <v>-0.001523984457949675</v>
+        <v>-2.427756619297365e-05</v>
       </c>
       <c r="G55">
-        <v>-1.052708127426277e-07</v>
+        <v>4.928765776049535e-07</v>
       </c>
       <c r="H55">
-        <v>0.08977339557091087</v>
+        <v>0.02983081339191652</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.007678682181654778</v>
+        <v>0.0009104005402256442</v>
       </c>
       <c r="C56">
-        <v>0.004471487915595202</v>
+        <v>-0.0009049994933861738</v>
       </c>
       <c r="D56">
-        <v>7.471487571703555e-05</v>
+        <v>1.389860689186681e-05</v>
       </c>
       <c r="E56">
-        <v>0.001882018109124944</v>
+        <v>0.0004735736639110005</v>
       </c>
       <c r="F56">
-        <v>-0.001018564554500876</v>
+        <v>0.000196241946570498</v>
       </c>
       <c r="G56">
-        <v>-5.664120274258237e-07</v>
+        <v>-5.706489471668705e-08</v>
       </c>
       <c r="H56">
-        <v>0.08130784126112017</v>
+        <v>0.05510282455089206</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.009101836149314053</v>
+        <v>-0.0002981543295728054</v>
       </c>
       <c r="C57">
-        <v>0.0001119227780920383</v>
+        <v>0.0002904025495453173</v>
       </c>
       <c r="D57">
-        <v>7.021138794813421e-05</v>
+        <v>-2.266526857535566e-06</v>
       </c>
       <c r="E57">
-        <v>0.0008025500443851474</v>
+        <v>0.0001597375880763273</v>
       </c>
       <c r="F57">
-        <v>-0.002084901092021481</v>
+        <v>-7.331600687080788e-05</v>
       </c>
       <c r="G57">
-        <v>-7.76258732871859e-07</v>
+        <v>3.060195533973408e-07</v>
       </c>
       <c r="H57">
-        <v>0.09931481747529386</v>
+        <v>0.02841460350576098</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.009344161512353774</v>
+        <v>-0.0003899911579533994</v>
       </c>
       <c r="C58">
-        <v>0.000871893239981149</v>
+        <v>-0.0004355573894785967</v>
       </c>
       <c r="D58">
-        <v>3.867556918846089e-05</v>
+        <v>-2.317157857586541e-06</v>
       </c>
       <c r="E58">
-        <v>0.004751689578954277</v>
+        <v>-7.804877635372506e-05</v>
       </c>
       <c r="F58">
-        <v>-0.001204121234822255</v>
+        <v>-4.51798613277743e-05</v>
       </c>
       <c r="G58">
-        <v>-4.273284656667457e-07</v>
+        <v>5.879225555381553e-07</v>
       </c>
       <c r="H58">
-        <v>0.08836927312207887</v>
+        <v>0.02861336546069641</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.01187075544425559</v>
+        <v>-0.0005069471894455669</v>
       </c>
       <c r="C59">
-        <v>-0.007046680681370807</v>
+        <v>0.0001687857596250758</v>
       </c>
       <c r="D59">
-        <v>7.696982233920445e-05</v>
+        <v>-2.676613006651757e-06</v>
       </c>
       <c r="E59">
-        <v>-0.00114546007875399</v>
+        <v>0.000114751749425452</v>
       </c>
       <c r="F59">
-        <v>-0.001490619880788676</v>
+        <v>3.631017589539505e-05</v>
       </c>
       <c r="G59">
-        <v>1.091326764660544e-06</v>
+        <v>3.952665462694461e-07</v>
       </c>
       <c r="H59">
-        <v>0.08931245251476803</v>
+        <v>0.03025887400152259</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.006958323403060281</v>
+        <v>0.001006030519950895</v>
       </c>
       <c r="C60">
-        <v>0.004834643876845352</v>
+        <v>-0.0009123709624025623</v>
       </c>
       <c r="D60">
-        <v>4.70671711774612e-05</v>
+        <v>1.164549946144206e-06</v>
       </c>
       <c r="E60">
-        <v>0.002047509308059872</v>
+        <v>0.0007135647683498593</v>
       </c>
       <c r="F60">
-        <v>-0.002131630810175897</v>
+        <v>0.0001184739512212324</v>
       </c>
       <c r="G60">
-        <v>-3.49219916738249e-06</v>
+        <v>6.586513674834877e-08</v>
       </c>
       <c r="H60">
-        <v>0.1047087521133841</v>
+        <v>0.0372554127576995</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.01154496937252159</v>
+        <v>-0.0001436725060610946</v>
       </c>
       <c r="C61">
-        <v>-0.005182250251817747</v>
+        <v>-9.912584773046608e-05</v>
       </c>
       <c r="D61">
-        <v>8.413237576535857e-05</v>
+        <v>-4.122604555851122e-07</v>
       </c>
       <c r="E61">
-        <v>1.363590522034802e-05</v>
+        <v>0.0001016408776489293</v>
       </c>
       <c r="F61">
-        <v>-0.002859097285289913</v>
+        <v>3.142956939672251e-05</v>
       </c>
       <c r="G61">
-        <v>3.657558535456542e-07</v>
+        <v>2.001690434887616e-07</v>
       </c>
       <c r="H61">
-        <v>0.1074431267547395</v>
+        <v>0.02636904857355171</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.01306808046428604</v>
+        <v>0.003249025960151802</v>
       </c>
       <c r="C62">
-        <v>-0.001426097644953428</v>
+        <v>-0.001822291951940171</v>
       </c>
       <c r="D62">
-        <v>7.771523371980231e-05</v>
+        <v>2.554277313437384e-05</v>
       </c>
       <c r="E62">
-        <v>-0.0002036821649511605</v>
+        <v>0.001496572113989882</v>
       </c>
       <c r="F62">
-        <v>-0.001261987122294165</v>
+        <v>-0.0001760932073841324</v>
       </c>
       <c r="G62">
-        <v>9.626172353788972e-07</v>
+        <v>-1.754585726433188e-06</v>
       </c>
       <c r="H62">
-        <v>0.08577577625518204</v>
+        <v>0.06374572463852751</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.009139006234850963</v>
+        <v>-0.001446568571064069</v>
       </c>
       <c r="C63">
-        <v>0.007567388033981737</v>
+        <v>-0.004860744186506597</v>
       </c>
       <c r="D63">
-        <v>2.554403181245581e-05</v>
+        <v>1.110474579951387e-05</v>
       </c>
       <c r="E63">
-        <v>0.002661045851424959</v>
+        <v>6.178064478939982e-05</v>
       </c>
       <c r="F63">
-        <v>-0.001443109221537689</v>
+        <v>-0.0006358146732387826</v>
       </c>
       <c r="G63">
-        <v>4.274918256316359e-07</v>
+        <v>-7.259289604718525e-07</v>
       </c>
       <c r="H63">
-        <v>0.09067592063305542</v>
+        <v>0.08205060259571423</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.006151800980889529</v>
+        <v>-0.001993387703899299</v>
       </c>
       <c r="C64">
-        <v>0.003535238581215866</v>
+        <v>0.005577136034578893</v>
       </c>
       <c r="D64">
-        <v>5.370824050647381e-05</v>
+        <v>-4.924828944096521e-05</v>
       </c>
       <c r="E64">
-        <v>0.001022490619887795</v>
+        <v>-0.001056699572257</v>
       </c>
       <c r="F64">
-        <v>-0.001460171996886914</v>
+        <v>4.500154302851563e-05</v>
       </c>
       <c r="G64">
-        <v>-2.232810665833536e-06</v>
+        <v>9.074283987467746e-08</v>
       </c>
       <c r="H64">
-        <v>0.09253220060774411</v>
+        <v>0.07255050684182866</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.009651266139403376</v>
+        <v>0.003929977122708914</v>
       </c>
       <c r="C65">
-        <v>-0.0006659709902017939</v>
+        <v>0.005679171403585753</v>
       </c>
       <c r="D65">
-        <v>5.031356637514262e-05</v>
+        <v>1.184683872458392e-06</v>
       </c>
       <c r="E65">
-        <v>0.001784701062544081</v>
+        <v>0.001635374428902131</v>
       </c>
       <c r="F65">
-        <v>-0.001976081259903132</v>
+        <v>0.0001739454173412748</v>
       </c>
       <c r="G65">
-        <v>1.98678503644332e-07</v>
+        <v>-1.923685854431433e-06</v>
       </c>
       <c r="H65">
-        <v>0.09638405221808494</v>
+        <v>0.08132980934997031</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.01205387390068408</v>
+        <v>0.0008839653788025462</v>
       </c>
       <c r="C66">
-        <v>0.00050509941450105</v>
+        <v>0.0007605138338855082</v>
       </c>
       <c r="D66">
-        <v>5.996771871840877e-05</v>
+        <v>4.875522233752926e-06</v>
       </c>
       <c r="E66">
-        <v>0.004038397254232551</v>
+        <v>0.002461077857759925</v>
       </c>
       <c r="F66">
-        <v>-0.001515282606077758</v>
+        <v>0.0007096405005175064</v>
       </c>
       <c r="G66">
-        <v>-1.183866966460775e-06</v>
+        <v>-1.075738856362429e-06</v>
       </c>
       <c r="H66">
-        <v>0.09447082009543645</v>
+        <v>0.04697735422528775</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.008109837136041135</v>
+        <v>-0.0001001545572233307</v>
       </c>
       <c r="C67">
-        <v>-0.003389392946686562</v>
+        <v>-0.00503808981433987</v>
       </c>
       <c r="D67">
-        <v>8.176637498865085e-05</v>
+        <v>-2.420595822620829e-05</v>
       </c>
       <c r="E67">
-        <v>0.002228267480366558</v>
+        <v>0.002994048281597432</v>
       </c>
       <c r="F67">
-        <v>-0.002121285097483401</v>
+        <v>0.001361426333348875</v>
       </c>
       <c r="G67">
-        <v>-1.286668529144694e-06</v>
+        <v>2.721566397114624e-08</v>
       </c>
       <c r="H67">
-        <v>0.09815517809796617</v>
+        <v>0.06206213182191988</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.007832190399747679</v>
+        <v>0.001078670133502781</v>
       </c>
       <c r="C68">
-        <v>-0.002232141122759408</v>
+        <v>-0.0006723758691055562</v>
       </c>
       <c r="D68">
-        <v>6.59779417361777e-05</v>
+        <v>-2.012353833656794e-05</v>
       </c>
       <c r="E68">
-        <v>0.001906125758681688</v>
+        <v>0.001804499570206335</v>
       </c>
       <c r="F68">
-        <v>-0.001552662588585625</v>
+        <v>0.0004978595348867825</v>
       </c>
       <c r="G68">
-        <v>-1.932662051670001e-06</v>
+        <v>-1.546509576593578e-06</v>
       </c>
       <c r="H68">
-        <v>0.09286080804231817</v>
+        <v>0.06741057934049188</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.005280360563804369</v>
+        <v>-0.0002336173309451608</v>
       </c>
       <c r="C69">
-        <v>-0.0001071920612873379</v>
+        <v>-0.0002868957547041686</v>
       </c>
       <c r="D69">
-        <v>7.134918932658066e-05</v>
+        <v>-2.414066214181807e-06</v>
       </c>
       <c r="E69">
-        <v>4.618235090202844e-05</v>
+        <v>-0.0001929061239904044</v>
       </c>
       <c r="F69">
-        <v>-0.002555095409164084</v>
+        <v>5.653244460078184e-05</v>
       </c>
       <c r="G69">
-        <v>-5.928456867780442e-07</v>
+        <v>1.742479633554713e-07</v>
       </c>
       <c r="H69">
-        <v>0.1005590443024049</v>
+        <v>0.02696626562987314</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.00574645916278154</v>
+        <v>-0.0001929718392664908</v>
       </c>
       <c r="C70">
-        <v>0.0007538987024612872</v>
+        <v>-3.358287245856746e-05</v>
       </c>
       <c r="D70">
-        <v>8.508831184034086e-05</v>
+        <v>-1.795892462510728e-06</v>
       </c>
       <c r="E70">
-        <v>0.0002881204786697594</v>
+        <v>-1.806476946332458e-05</v>
       </c>
       <c r="F70">
-        <v>-0.002025648467765594</v>
+        <v>-4.440008368770617e-05</v>
       </c>
       <c r="G70">
-        <v>-5.526341670280363e-07</v>
+        <v>3.191146373915813e-07</v>
       </c>
       <c r="H70">
-        <v>0.0928701563654783</v>
+        <v>0.02722202157147224</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.01246675777924138</v>
+        <v>-0.0001845497852862098</v>
       </c>
       <c r="C71">
-        <v>-0.002501525076213231</v>
+        <v>-8.775759812303593e-05</v>
       </c>
       <c r="D71">
-        <v>5.165075838328356e-05</v>
+        <v>-1.762763526166155e-07</v>
       </c>
       <c r="E71">
-        <v>0.0003620979010141301</v>
+        <v>-0.0001229236932361738</v>
       </c>
       <c r="F71">
-        <v>-0.00218681697910401</v>
+        <v>-8.422016684559233e-06</v>
       </c>
       <c r="G71">
-        <v>-1.180240147632068e-07</v>
+        <v>2.309639731181209e-07</v>
       </c>
       <c r="H71">
-        <v>0.1027740829900226</v>
+        <v>0.0271018455151815</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.008485223598754872</v>
+        <v>-0.002617864571043222</v>
       </c>
       <c r="C72">
-        <v>-0.001082045091060032</v>
+        <v>-0.006357792085123014</v>
       </c>
       <c r="D72">
-        <v>7.750781773620534e-05</v>
+        <v>5.3643131157078e-05</v>
       </c>
       <c r="E72">
-        <v>0.0003202772890066041</v>
+        <v>-0.0001853853445501902</v>
       </c>
       <c r="F72">
-        <v>-0.00218130310387134</v>
+        <v>-0.002180047076391964</v>
       </c>
       <c r="G72">
-        <v>-2.05036885376283e-07</v>
+        <v>3.144429000366414e-06</v>
       </c>
       <c r="H72">
-        <v>0.09720395829811584</v>
+        <v>0.0903920871303636</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.008149753471803897</v>
+        <v>-0.0008694598289045708</v>
       </c>
       <c r="C73">
-        <v>-0.002317888891439689</v>
+        <v>-0.000858574582131033</v>
       </c>
       <c r="D73">
-        <v>4.137529404756477e-05</v>
+        <v>5.839445418820305e-06</v>
       </c>
       <c r="E73">
-        <v>0.0006281988635275584</v>
+        <v>-0.0001572405654233118</v>
       </c>
       <c r="F73">
-        <v>-0.002182210099459364</v>
+        <v>-0.0002932207615697984</v>
       </c>
       <c r="G73">
-        <v>-1.505870425076503e-06</v>
+        <v>9.890258883587245e-07</v>
       </c>
       <c r="H73">
-        <v>0.1038207405302225</v>
+        <v>0.03481834892771336</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.007992531365825185</v>
+        <v>-0.005239824167507463</v>
       </c>
       <c r="C74">
-        <v>0.003712635080467694</v>
+        <v>-0.003535696991953819</v>
       </c>
       <c r="D74">
-        <v>6.019934338240848e-05</v>
+        <v>5.375363487134115e-05</v>
       </c>
       <c r="E74">
-        <v>0.002359133687121005</v>
+        <v>0.00237858841817544</v>
       </c>
       <c r="F74">
-        <v>-0.002057418888099397</v>
+        <v>0.001481724594975823</v>
       </c>
       <c r="G74">
-        <v>-1.067075961742764e-06</v>
+        <v>-6.285932256718645e-07</v>
       </c>
       <c r="H74">
-        <v>0.09884297592216371</v>
+        <v>0.0595467304736597</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.007726238342607198</v>
+        <v>-0.002671485527674947</v>
       </c>
       <c r="C75">
-        <v>-0.002925150225902438</v>
+        <v>-0.003833599702897068</v>
       </c>
       <c r="D75">
-        <v>6.315917624568982e-05</v>
+        <v>1.191995059410187e-05</v>
       </c>
       <c r="E75">
-        <v>0.001095502617509965</v>
+        <v>-0.0006281281003849351</v>
       </c>
       <c r="F75">
-        <v>-0.002183908573958957</v>
+        <v>0.0003842038350222168</v>
       </c>
       <c r="G75">
-        <v>-8.017352793559419e-07</v>
+        <v>-1.869378111312078e-07</v>
       </c>
       <c r="H75">
-        <v>0.09918363629702176</v>
+        <v>0.06881345279218409</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.008757761253006485</v>
+        <v>-0.000526526040185256</v>
       </c>
       <c r="C76">
-        <v>-0.001163428832853945</v>
+        <v>2.994940664632646e-05</v>
       </c>
       <c r="D76">
-        <v>7.359512795735531e-05</v>
+        <v>-7.622018719000436e-06</v>
       </c>
       <c r="E76">
-        <v>0.0009371964675127034</v>
+        <v>-0.002052712253273185</v>
       </c>
       <c r="F76">
-        <v>-0.002321162126079565</v>
+        <v>-0.0005872774988028482</v>
       </c>
       <c r="G76">
-        <v>1.572875295518636e-06</v>
+        <v>-1.926255777826778e-06</v>
       </c>
       <c r="H76">
-        <v>0.09687549368945195</v>
+        <v>0.07628411281867128</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.008735995574404746</v>
+        <v>-1.386588913070315e-05</v>
       </c>
       <c r="C77">
-        <v>-0.008541243617532796</v>
+        <v>-0.004735930786862698</v>
       </c>
       <c r="D77">
-        <v>9.180497138454212e-05</v>
+        <v>1.769284809431091e-05</v>
       </c>
       <c r="E77">
-        <v>0.005785040790464747</v>
+        <v>0.0008918370708648413</v>
       </c>
       <c r="F77">
-        <v>-0.001359811520789765</v>
+        <v>-0.001321147745784075</v>
       </c>
       <c r="G77">
-        <v>-1.573949208441233e-06</v>
+        <v>2.103866974278555e-06</v>
       </c>
       <c r="H77">
-        <v>0.0887418943714178</v>
+        <v>0.07779902890790044</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.009705762285732718</v>
+        <v>0.002803425056489109</v>
       </c>
       <c r="C78">
-        <v>0.002120313837184638</v>
+        <v>-0.006667579516726308</v>
       </c>
       <c r="D78">
-        <v>9.18394309772045e-05</v>
+        <v>3.131532816544918e-05</v>
       </c>
       <c r="E78">
-        <v>0.002499732494200407</v>
+        <v>-0.002629259558549431</v>
       </c>
       <c r="F78">
-        <v>-0.001922093786508384</v>
+        <v>-0.0009056173491091865</v>
       </c>
       <c r="G78">
-        <v>5.858422447983666e-07</v>
+        <v>1.200706358255702e-08</v>
       </c>
       <c r="H78">
-        <v>0.09113408085638533</v>
+        <v>0.08393983219378015</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.01085129507165303</v>
+        <v>0.0003904148121467686</v>
       </c>
       <c r="C79">
-        <v>-0.001726650080605194</v>
+        <v>0.002592029961156928</v>
       </c>
       <c r="D79">
-        <v>7.719305337269171e-05</v>
+        <v>-5.425794064804102e-05</v>
       </c>
       <c r="E79">
-        <v>0.0003153768630625511</v>
+        <v>-0.001288454029123566</v>
       </c>
       <c r="F79">
-        <v>-0.002806536297774819</v>
+        <v>0.001208718533758345</v>
       </c>
       <c r="G79">
-        <v>2.680546202503885e-06</v>
+        <v>-9.835983873760068e-07</v>
       </c>
       <c r="H79">
-        <v>0.1005572745406481</v>
+        <v>0.06264433238041454</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0123270625924102</v>
+        <v>4.672402893665401e-05</v>
       </c>
       <c r="C80">
-        <v>0.002768582579976133</v>
+        <v>8.450645895590522e-05</v>
       </c>
       <c r="D80">
-        <v>1.613608824846631e-05</v>
+        <v>6.924288691936757e-07</v>
       </c>
       <c r="E80">
-        <v>-0.0008844071006561469</v>
+        <v>-9.229571836013445e-05</v>
       </c>
       <c r="F80">
-        <v>-0.001929969848610896</v>
+        <v>-1.683547111098029e-05</v>
       </c>
       <c r="G80">
-        <v>5.928322116812954e-07</v>
+        <v>3.749991613217883e-08</v>
       </c>
       <c r="H80">
-        <v>0.1017398988343303</v>
+        <v>0.02717425891607034</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.006590180012170812</v>
+        <v>4.047756750313099e-05</v>
       </c>
       <c r="C81">
-        <v>-0.00194138397313289</v>
+        <v>-1.327783481028217e-05</v>
       </c>
       <c r="D81">
-        <v>6.642243900963318e-05</v>
+        <v>-1.12461441022347e-06</v>
       </c>
       <c r="E81">
-        <v>0.002416800588224334</v>
+        <v>-0.0001096945772208271</v>
       </c>
       <c r="F81">
-        <v>-0.002819861552886381</v>
+        <v>-3.246410015336884e-05</v>
       </c>
       <c r="G81">
-        <v>-1.022503406635341e-06</v>
+        <v>-7.311226038704852e-08</v>
       </c>
       <c r="H81">
-        <v>0.1068399993479978</v>
+        <v>0.02787393456512612</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01056138680583834</v>
+        <v>-0.0002196205814927353</v>
       </c>
       <c r="C82">
-        <v>0.003648631036900296</v>
+        <v>0.003302447813817245</v>
       </c>
       <c r="D82">
-        <v>3.269209734696598e-05</v>
+        <v>-1.532204922603407e-05</v>
       </c>
       <c r="E82">
-        <v>0.00327991261798026</v>
+        <v>0.0005942922694356853</v>
       </c>
       <c r="F82">
-        <v>-0.001913537095328328</v>
+        <v>0.0003467031387944563</v>
       </c>
       <c r="G82">
-        <v>-2.575297989492946e-06</v>
+        <v>2.495510978462537e-07</v>
       </c>
       <c r="H82">
-        <v>0.1044275731056114</v>
+        <v>0.05169468305713736</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.003571666069047362</v>
+        <v>-6.491287778942131e-06</v>
       </c>
       <c r="C83">
-        <v>0.001282322289741254</v>
+        <v>-0.0004624291473971417</v>
       </c>
       <c r="D83">
-        <v>7.329041975690302e-05</v>
+        <v>4.214550294261894e-06</v>
       </c>
       <c r="E83">
-        <v>0.001120161600451884</v>
+        <v>-0.003192201863131745</v>
       </c>
       <c r="F83">
-        <v>-0.002687533276979607</v>
+        <v>-0.00202151455485432</v>
       </c>
       <c r="G83">
-        <v>-1.023459521594316e-06</v>
+        <v>-6.499838170143002e-07</v>
       </c>
       <c r="H83">
-        <v>0.103410238022593</v>
+        <v>0.0997111389163122</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.00997335877108701</v>
+        <v>-0.0004358161382341968</v>
       </c>
       <c r="C84">
-        <v>0.003877441398770318</v>
+        <v>0.0004953690163581345</v>
       </c>
       <c r="D84">
-        <v>6.080579048699505e-05</v>
+        <v>-6.165634867656774e-06</v>
       </c>
       <c r="E84">
-        <v>0.001870204061315356</v>
+        <v>0.0003175645225100866</v>
       </c>
       <c r="F84">
-        <v>-0.001463122585138702</v>
+        <v>0.000126347434879334</v>
       </c>
       <c r="G84">
-        <v>-3.185691924225744e-07</v>
+        <v>4.982375920142146e-07</v>
       </c>
       <c r="H84">
-        <v>0.09024066465356284</v>
+        <v>0.02648489508313941</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.01064913475906717</v>
+        <v>7.5597720136736e-05</v>
       </c>
       <c r="C85">
-        <v>0.001516780805446698</v>
+        <v>0.00154214070696242</v>
       </c>
       <c r="D85">
-        <v>9.756513360210619e-05</v>
+        <v>1.173493205543815e-05</v>
       </c>
       <c r="E85">
-        <v>0.004613124275991747</v>
+        <v>0.0005646088241488545</v>
       </c>
       <c r="F85">
-        <v>-0.002286572999181545</v>
+        <v>-0.0004804511740801255</v>
       </c>
       <c r="G85">
-        <v>-1.074383829237671e-06</v>
+        <v>2.243110832290577e-06</v>
       </c>
       <c r="H85">
-        <v>0.1013232373459932</v>
+        <v>0.05615665424442026</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.008407617319129554</v>
+        <v>0.007442797896911138</v>
       </c>
       <c r="C86">
-        <v>-0.004468040537776211</v>
+        <v>-0.009754699029022436</v>
       </c>
       <c r="D86">
-        <v>3.157200308544037e-05</v>
+        <v>-2.705583604282337e-06</v>
       </c>
       <c r="E86">
-        <v>0.004144182790680524</v>
+        <v>0.0009918565980367999</v>
       </c>
       <c r="F86">
-        <v>-0.002375522576520858</v>
+        <v>-0.003188421586343505</v>
       </c>
       <c r="G86">
-        <v>-7.188236802159698e-07</v>
+        <v>-4.688578450180733e-07</v>
       </c>
       <c r="H86">
-        <v>0.1043320584082741</v>
+        <v>0.125266196230894</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.009508913968432096</v>
+        <v>-0.003328272964396719</v>
       </c>
       <c r="C87">
-        <v>0.005589474819758757</v>
+        <v>0.00232658421423712</v>
       </c>
       <c r="D87">
-        <v>5.851448313702675e-05</v>
+        <v>-5.55121260442081e-05</v>
       </c>
       <c r="E87">
-        <v>0.0005365784143391561</v>
+        <v>0.001801175065969475</v>
       </c>
       <c r="F87">
-        <v>-0.002170751368970721</v>
+        <v>0.0002365752508281141</v>
       </c>
       <c r="G87">
-        <v>-3.911468787519573e-07</v>
+        <v>4.567025555874219e-07</v>
       </c>
       <c r="H87">
-        <v>0.1001497288655871</v>
+        <v>0.08547877956454444</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.008115228221313173</v>
+        <v>-0.006143512975873597</v>
       </c>
       <c r="C88">
-        <v>-0.007404539572596008</v>
+        <v>0.001284285020700093</v>
       </c>
       <c r="D88">
-        <v>8.074392065597318e-05</v>
+        <v>-3.618567402449389e-05</v>
       </c>
       <c r="E88">
-        <v>-7.361825206602529e-05</v>
+        <v>-0.00236891434885847</v>
       </c>
       <c r="F88">
-        <v>-0.002793589514734048</v>
+        <v>0.002270363230424706</v>
       </c>
       <c r="G88">
-        <v>1.24488440858642e-06</v>
+        <v>-6.992114035901761e-07</v>
       </c>
       <c r="H88">
-        <v>0.1020698996984228</v>
+        <v>0.06139674139902474</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.004452520785734279</v>
+        <v>0.00347086300671601</v>
       </c>
       <c r="C89">
-        <v>-0.001069784042941493</v>
+        <v>-0.002321300491168811</v>
       </c>
       <c r="D89">
-        <v>7.269722081129344e-05</v>
+        <v>2.336947127963981e-05</v>
       </c>
       <c r="E89">
-        <v>0.0002729295366546078</v>
+        <v>-0.0004911013671123413</v>
       </c>
       <c r="F89">
-        <v>-0.00196161086634745</v>
+        <v>-0.0004531126925447332</v>
       </c>
       <c r="G89">
-        <v>-8.5309480746862e-07</v>
+        <v>-9.449886950462925e-07</v>
       </c>
       <c r="H89">
-        <v>0.09368274853492051</v>
+        <v>0.06834248764909845</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.008156436815793583</v>
+        <v>0.001331526226580669</v>
       </c>
       <c r="C90">
-        <v>-0.003799094949387945</v>
+        <v>0.001482577633174182</v>
       </c>
       <c r="D90">
-        <v>8.927806340327184e-05</v>
+        <v>2.34166528327802e-05</v>
       </c>
       <c r="E90">
-        <v>0.001238667301385818</v>
+        <v>-0.002023224110224278</v>
       </c>
       <c r="F90">
-        <v>-0.002453118217175437</v>
+        <v>-0.0009512406087016417</v>
       </c>
       <c r="G90">
-        <v>-5.515833442300818e-07</v>
+        <v>1.395459880920257e-06</v>
       </c>
       <c r="H90">
-        <v>0.1002044610968409</v>
+        <v>0.07203935734643546</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.007707019731131168</v>
+        <v>0.0005017134035372184</v>
       </c>
       <c r="C91">
-        <v>-0.003094040804832061</v>
+        <v>-0.005252340998046004</v>
       </c>
       <c r="D91">
-        <v>6.817297021808854e-05</v>
+        <v>-2.208983408915936e-05</v>
       </c>
       <c r="E91">
-        <v>0.003182067068224229</v>
+        <v>-0.0001498913626498191</v>
       </c>
       <c r="F91">
-        <v>-0.002196537765703948</v>
+        <v>-0.0002692317253249646</v>
       </c>
       <c r="G91">
-        <v>3.587311870908741e-07</v>
+        <v>1.560994165735353e-06</v>
       </c>
       <c r="H91">
-        <v>0.09653363816182631</v>
+        <v>0.0688533154458007</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01103565424111096</v>
+        <v>0.002914778715069681</v>
       </c>
       <c r="C92">
-        <v>0.001158709718428908</v>
+        <v>-2.972469166854022e-05</v>
       </c>
       <c r="D92">
-        <v>6.750955888393497e-05</v>
+        <v>-1.327932008117332e-05</v>
       </c>
       <c r="E92">
-        <v>-0.0002193964015825417</v>
+        <v>0.001741355165856974</v>
       </c>
       <c r="F92">
-        <v>-0.001233353767545746</v>
+        <v>-0.0001978288559794372</v>
       </c>
       <c r="G92">
-        <v>4.319031061743534e-07</v>
+        <v>3.316666835646688e-06</v>
       </c>
       <c r="H92">
-        <v>0.08553295011328302</v>
+        <v>0.07546814651741689</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0112347040125671</v>
+        <v>-0.0004443652591563452</v>
       </c>
       <c r="C93">
-        <v>0.002212837145694866</v>
+        <v>0.001512825481366971</v>
       </c>
       <c r="D93">
-        <v>3.315739611243373e-05</v>
+        <v>-7.935268264531397e-06</v>
       </c>
       <c r="E93">
-        <v>0.003244683195704895</v>
+        <v>0.0008841120101926621</v>
       </c>
       <c r="F93">
-        <v>-0.002288145051823819</v>
+        <v>-0.0003287686941650437</v>
       </c>
       <c r="G93">
-        <v>-3.366382926454364e-07</v>
+        <v>1.228782057507322e-06</v>
       </c>
       <c r="H93">
-        <v>0.1042690221001437</v>
+        <v>0.03964019591412143</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.00944761259887876</v>
+        <v>-0.00093420290362918</v>
       </c>
       <c r="C94">
-        <v>-0.002432624336967777</v>
+        <v>8.128863339710907e-06</v>
       </c>
       <c r="D94">
-        <v>0.0001035217521611671</v>
+        <v>7.152217671498965e-06</v>
       </c>
       <c r="E94">
-        <v>0.00334408177523058</v>
+        <v>0.0002494273568221551</v>
       </c>
       <c r="F94">
-        <v>-0.002442804043130253</v>
+        <v>7.697081902089059e-05</v>
       </c>
       <c r="G94">
-        <v>1.520350555079443e-06</v>
+        <v>9.385530063510831e-07</v>
       </c>
       <c r="H94">
-        <v>0.09480161696306912</v>
+        <v>0.03207427095648888</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.005736236768135999</v>
+        <v>0.001650588114861367</v>
       </c>
       <c r="C95">
-        <v>-0.007162783045348194</v>
+        <v>0.001798527402213249</v>
       </c>
       <c r="D95">
-        <v>6.853802670736183e-05</v>
+        <v>-1.835899458914174e-06</v>
       </c>
       <c r="E95">
-        <v>0.001109074476497773</v>
+        <v>-0.0005149540807627417</v>
       </c>
       <c r="F95">
-        <v>-0.002463786882477035</v>
+        <v>-0.0002808222231188687</v>
       </c>
       <c r="G95">
-        <v>-6.795909188330049e-07</v>
+        <v>-7.309011983475329e-07</v>
       </c>
       <c r="H95">
-        <v>0.1021357784607973</v>
+        <v>0.05790643547656515</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.009419474423839459</v>
+        <v>0.0001114517126950265</v>
       </c>
       <c r="C96">
-        <v>-0.001393809835479533</v>
+        <v>0.0003719756043149214</v>
       </c>
       <c r="D96">
-        <v>5.010219660863443e-05</v>
+        <v>1.232927349121472e-06</v>
       </c>
       <c r="E96">
-        <v>0.003054521967968696</v>
+        <v>0.0005612293775768482</v>
       </c>
       <c r="F96">
-        <v>-0.001668908179559849</v>
+        <v>0.0001195197480483585</v>
       </c>
       <c r="G96">
-        <v>-1.156804764571101e-07</v>
+        <v>-4.28115277250275e-07</v>
       </c>
       <c r="H96">
-        <v>0.09210831347800225</v>
+        <v>0.03273152950703619</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.006864327994891241</v>
+        <v>0.004627604006147659</v>
       </c>
       <c r="C97">
-        <v>0.001099705734705418</v>
+        <v>0.003922004491727856</v>
       </c>
       <c r="D97">
-        <v>6.214824738453599e-05</v>
+        <v>2.815296954563998e-05</v>
       </c>
       <c r="E97">
-        <v>0.0002281514535129939</v>
+        <v>0.005490770868867602</v>
       </c>
       <c r="F97">
-        <v>-0.00217449607529224</v>
+        <v>0.0008653892851809418</v>
       </c>
       <c r="G97">
-        <v>-8.537260079542554e-07</v>
+        <v>-2.128851284878619e-06</v>
       </c>
       <c r="H97">
-        <v>0.09950459575721107</v>
+        <v>0.06484441927382641</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.008224787711993031</v>
+        <v>-0.0001635513547268768</v>
       </c>
       <c r="C98">
-        <v>-0.00370508904484521</v>
+        <v>-0.003172397955675501</v>
       </c>
       <c r="D98">
-        <v>7.504072178428008e-05</v>
+        <v>-6.233141216947386e-06</v>
       </c>
       <c r="E98">
-        <v>-0.0006728035498435869</v>
+        <v>0.002588699491258527</v>
       </c>
       <c r="F98">
-        <v>-0.001872060780176411</v>
+        <v>0.0004185954137758026</v>
       </c>
       <c r="G98">
-        <v>-1.74351597779052e-06</v>
+        <v>2.539343971253858e-06</v>
       </c>
       <c r="H98">
-        <v>0.09768143633076479</v>
+        <v>0.05695452717801421</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.007107772610789573</v>
+        <v>0.003689171668156017</v>
       </c>
       <c r="C99">
-        <v>-0.002651945663352888</v>
+        <v>-0.00282851340921754</v>
       </c>
       <c r="D99">
-        <v>6.846419479911953e-05</v>
+        <v>8.323700624287387e-06</v>
       </c>
       <c r="E99">
-        <v>0.003971159756938701</v>
+        <v>0.0004437152523618718</v>
       </c>
       <c r="F99">
-        <v>-0.002669383526863803</v>
+        <v>-0.0005680272613960619</v>
       </c>
       <c r="G99">
-        <v>3.317465299376607e-07</v>
+        <v>-2.450801434146801e-06</v>
       </c>
       <c r="H99">
-        <v>0.1009067428277903</v>
+        <v>0.07264855843885974</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.009446246552967377</v>
+        <v>-0.001053976902619402</v>
       </c>
       <c r="C100">
-        <v>0.002939593653193412</v>
+        <v>1.953695621397422e-05</v>
       </c>
       <c r="D100">
-        <v>8.984882965989205e-05</v>
+        <v>-4.261125216306796e-06</v>
       </c>
       <c r="E100">
-        <v>0.0003153030362695666</v>
+        <v>0.0001770000161398673</v>
       </c>
       <c r="F100">
-        <v>-0.002222927996832118</v>
+        <v>7.618957187518127e-05</v>
       </c>
       <c r="G100">
-        <v>7.433960400745833e-07</v>
+        <v>6.407480483716648e-07</v>
       </c>
       <c r="H100">
-        <v>0.09484325003329774</v>
+        <v>0.02781088266828626</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.009069538718832895</v>
+        <v>-0.0008674695139184916</v>
       </c>
       <c r="C101">
-        <v>0.003197034734427747</v>
+        <v>-0.003919184991530834</v>
       </c>
       <c r="D101">
-        <v>5.537774856527292e-05</v>
+        <v>2.02254676162858e-05</v>
       </c>
       <c r="E101">
-        <v>0.00295631425063967</v>
+        <v>-0.001892447619349591</v>
       </c>
       <c r="F101">
-        <v>-0.001444251181592853</v>
+        <v>0.0006171190777488822</v>
       </c>
       <c r="G101">
-        <v>-7.53459333294722e-07</v>
+        <v>3.167782919399052e-07</v>
       </c>
       <c r="H101">
-        <v>0.09067411834386546</v>
+        <v>0.04608359892886146</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.01056651570552765</v>
+        <v>-0.002481087198692758</v>
       </c>
       <c r="C102">
-        <v>-0.001287632668538972</v>
+        <v>-0.001014591916326322</v>
       </c>
       <c r="D102">
-        <v>7.721960416779073e-05</v>
+        <v>-4.439021600297462e-06</v>
       </c>
       <c r="E102">
-        <v>0.003977917859139091</v>
+        <v>0.0001981951428653879</v>
       </c>
       <c r="F102">
-        <v>-0.002770450620385553</v>
+        <v>0.0001602639167429104</v>
       </c>
       <c r="G102">
-        <v>8.546595149950493e-07</v>
+        <v>1.571532438465929e-06</v>
       </c>
       <c r="H102">
-        <v>0.1029416954499959</v>
+        <v>0.03851061353830998</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.01017165584665354</v>
+        <v>-0.0002815707907043228</v>
       </c>
       <c r="C103">
-        <v>-0.0005722072488859006</v>
+        <v>0.0006073129081109037</v>
       </c>
       <c r="D103">
-        <v>6.10841341000032e-05</v>
+        <v>-5.753096694197663e-07</v>
       </c>
       <c r="E103">
-        <v>0.0002393554986035717</v>
+        <v>-9.027570346237246e-05</v>
       </c>
       <c r="F103">
-        <v>-0.000871213328302446</v>
+        <v>-2.79310365217506e-05</v>
       </c>
       <c r="G103">
-        <v>-1.49851571945869e-06</v>
+        <v>4.900534610705979e-07</v>
       </c>
       <c r="H103">
-        <v>0.0863445103105972</v>
+        <v>0.03051883551785281</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.008083005816690388</v>
+        <v>-1.200784784490243e-05</v>
       </c>
       <c r="C104">
-        <v>-0.003679661932535935</v>
+        <v>5.256839557080952e-06</v>
       </c>
       <c r="D104">
-        <v>6.309226987255459e-05</v>
+        <v>-5.586432197265724e-07</v>
       </c>
       <c r="E104">
-        <v>0.002304909096776907</v>
+        <v>-2.958218519327066e-05</v>
       </c>
       <c r="F104">
-        <v>-0.001937392704277412</v>
+        <v>2.984467155594736e-06</v>
       </c>
       <c r="G104">
-        <v>2.773455390236763e-07</v>
+        <v>7.76433643624946e-08</v>
       </c>
       <c r="H104">
-        <v>0.09412087185250942</v>
+        <v>0.02714310649489194</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.008493623434794506</v>
+        <v>0.004042512855937974</v>
       </c>
       <c r="C105">
-        <v>-0.0009195565822787562</v>
+        <v>-0.001206575550648302</v>
       </c>
       <c r="D105">
-        <v>5.097127686498051e-05</v>
+        <v>1.344362588079276e-05</v>
       </c>
       <c r="E105">
-        <v>0.001186945636208941</v>
+        <v>0.001602367696900218</v>
       </c>
       <c r="F105">
-        <v>-0.002255595526734583</v>
+        <v>-6.292912515903221e-05</v>
       </c>
       <c r="G105">
-        <v>1.686327454885399e-07</v>
+        <v>-1.429094408956416e-06</v>
       </c>
       <c r="H105">
-        <v>0.1006774115394909</v>
+        <v>0.06712116481222737</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.004245379641448156</v>
+        <v>-0.004232931831580035</v>
       </c>
       <c r="C106">
-        <v>-0.002740408369347558</v>
+        <v>-0.003894765802731305</v>
       </c>
       <c r="D106">
-        <v>6.732577872185195e-05</v>
+        <v>1.406824546464975e-05</v>
       </c>
       <c r="E106">
-        <v>-0.001010716586632245</v>
+        <v>-0.0002127733054752556</v>
       </c>
       <c r="F106">
-        <v>-0.003623581848988324</v>
+        <v>-0.0002854302046736684</v>
       </c>
       <c r="G106">
-        <v>-1.998860391163623e-07</v>
+        <v>2.606016307405582e-07</v>
       </c>
       <c r="H106">
-        <v>0.1151046646974665</v>
+        <v>0.08646570128570308</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.007906160478507446</v>
+        <v>-0.0008470400957525936</v>
       </c>
       <c r="C107">
-        <v>0.001058016063200559</v>
+        <v>0.0004174383008301082</v>
       </c>
       <c r="D107">
-        <v>5.520785392290607e-05</v>
+        <v>2.918128735995987e-05</v>
       </c>
       <c r="E107">
-        <v>0.004088583308942816</v>
+        <v>0.0006409183264642487</v>
       </c>
       <c r="F107">
-        <v>-0.001872342653912805</v>
+        <v>-0.0006098553175205267</v>
       </c>
       <c r="G107">
-        <v>-7.925164743714729e-07</v>
+        <v>1.78268732172422e-06</v>
       </c>
       <c r="H107">
-        <v>0.09535425545577557</v>
+        <v>0.0737358910709859</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.008717845396573954</v>
+        <v>0.003233757418988094</v>
       </c>
       <c r="C108">
-        <v>-0.001799461041609454</v>
+        <v>0.005546703501955515</v>
       </c>
       <c r="D108">
-        <v>9.620184008433708e-05</v>
+        <v>-4.767519347153064e-05</v>
       </c>
       <c r="E108">
-        <v>0.0001122485156653807</v>
+        <v>0.003589324358353976</v>
       </c>
       <c r="F108">
-        <v>-0.0008466789897466176</v>
+        <v>0.0002469961011496613</v>
       </c>
       <c r="G108">
-        <v>-1.569649265360306e-06</v>
+        <v>-1.202177529360586e-06</v>
       </c>
       <c r="H108">
-        <v>0.08240453963414904</v>
+        <v>0.07309684679817589</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.01011935864597993</v>
+        <v>-1.523288750047719e-05</v>
       </c>
       <c r="C109">
-        <v>-0.002537592710351899</v>
+        <v>0.0006234596429583652</v>
       </c>
       <c r="D109">
-        <v>5.545849752285466e-05</v>
+        <v>-1.49252673609503e-05</v>
       </c>
       <c r="E109">
-        <v>-0.0005487954514175886</v>
+        <v>0.0008471316043969571</v>
       </c>
       <c r="F109">
-        <v>-0.002795756075615515</v>
+        <v>0.0009302336263320902</v>
       </c>
       <c r="G109">
-        <v>1.227267247454655e-06</v>
+        <v>3.117441203037704e-07</v>
       </c>
       <c r="H109">
-        <v>0.1059092689557012</v>
+        <v>0.04064554592267024</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.009268803728729335</v>
+        <v>0.003457626447955423</v>
       </c>
       <c r="C110">
-        <v>0.003366152089217431</v>
+        <v>0.005261982016678308</v>
       </c>
       <c r="D110">
-        <v>5.413451168648144e-05</v>
+        <v>-7.490288474013397e-05</v>
       </c>
       <c r="E110">
-        <v>-0.0007764376354173139</v>
+        <v>0.004699508879508887</v>
       </c>
       <c r="F110">
-        <v>-0.001699848496526282</v>
+        <v>0.002366790194234405</v>
       </c>
       <c r="G110">
-        <v>-1.030819314835611e-06</v>
+        <v>-5.033662115743603e-06</v>
       </c>
       <c r="H110">
-        <v>0.09494713041934094</v>
+        <v>0.08250280564528265</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.005237123414035698</v>
+        <v>-0.0008527774985165877</v>
       </c>
       <c r="C111">
-        <v>0.004226197097853272</v>
+        <v>-0.001137573614278072</v>
       </c>
       <c r="D111">
-        <v>8.775433664727325e-05</v>
+        <v>6.392694189463605e-06</v>
       </c>
       <c r="E111">
-        <v>-0.0001825394185541104</v>
+        <v>0.0003804170632623928</v>
       </c>
       <c r="F111">
-        <v>-0.001532909826884811</v>
+        <v>-0.0003144890139098046</v>
       </c>
       <c r="G111">
-        <v>-2.920525904755288e-06</v>
+        <v>5.897516042029957e-07</v>
       </c>
       <c r="H111">
-        <v>0.08974610649712635</v>
+        <v>0.03982272052327467</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.006526118820873789</v>
+        <v>-0.001773241983106158</v>
       </c>
       <c r="C112">
-        <v>-0.001717720402024079</v>
+        <v>-0.00461275129133785</v>
       </c>
       <c r="D112">
-        <v>7.417464076165661e-05</v>
+        <v>9.557787397307847e-06</v>
       </c>
       <c r="E112">
-        <v>0.002277142211677692</v>
+        <v>-0.001322004212233475</v>
       </c>
       <c r="F112">
-        <v>-0.002414512650002055</v>
+        <v>-0.001620003015462048</v>
       </c>
       <c r="G112">
-        <v>-1.191491493098488e-06</v>
+        <v>-1.196089929138311e-06</v>
       </c>
       <c r="H112">
-        <v>0.1016662775158311</v>
+        <v>0.09156108048843106</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.005980660309444528</v>
+        <v>-0.00097303480347513</v>
       </c>
       <c r="C113">
-        <v>0.0047870665258505</v>
+        <v>0.0004592017801196832</v>
       </c>
       <c r="D113">
-        <v>7.879003411085956e-05</v>
+        <v>2.665607979083888e-06</v>
       </c>
       <c r="E113">
-        <v>0.00259545070438446</v>
+        <v>-0.000480137598880194</v>
       </c>
       <c r="F113">
-        <v>-0.001412623853785546</v>
+        <v>-0.0001759368655089237</v>
       </c>
       <c r="G113">
-        <v>-1.831510381779872e-06</v>
+        <v>6.909334731671977e-07</v>
       </c>
       <c r="H113">
-        <v>0.08855996239174869</v>
+        <v>0.04152465918180846</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.01275280758523708</v>
+        <v>0.0003099712011699531</v>
       </c>
       <c r="C114">
-        <v>-0.002858977507784287</v>
+        <v>-0.00112452336732622</v>
       </c>
       <c r="D114">
-        <v>4.946282078689228e-05</v>
+        <v>1.936735914806158e-05</v>
       </c>
       <c r="E114">
-        <v>2.594035096676467e-05</v>
+        <v>-0.001013254631938965</v>
       </c>
       <c r="F114">
-        <v>-0.001713308143994414</v>
+        <v>-0.0004635768435157861</v>
       </c>
       <c r="G114">
-        <v>1.80238017713566e-06</v>
+        <v>-7.31230295142123e-08</v>
       </c>
       <c r="H114">
-        <v>0.09294759876778871</v>
+        <v>0.04620808686360572</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.01363730042328515</v>
+        <v>-0.0004685818192505348</v>
       </c>
       <c r="C115">
-        <v>-0.004819258427240002</v>
+        <v>0.001906335284585253</v>
       </c>
       <c r="D115">
-        <v>2.754322394790263e-05</v>
+        <v>-7.943163288876593e-06</v>
       </c>
       <c r="E115">
-        <v>0.003034068278701396</v>
+        <v>-0.0003388741285611854</v>
       </c>
       <c r="F115">
-        <v>-0.001830036081913651</v>
+        <v>0.0001276833032722111</v>
       </c>
       <c r="G115">
-        <v>8.250394630015766e-07</v>
+        <v>2.457381298995386e-07</v>
       </c>
       <c r="H115">
-        <v>0.09771439139802025</v>
+        <v>0.03519224319132248</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.009473527962524968</v>
+        <v>0.001738739176020992</v>
       </c>
       <c r="C116">
-        <v>-0.001895955317462558</v>
+        <v>-0.0119025245235585</v>
       </c>
       <c r="D116">
-        <v>7.360062267917369e-05</v>
+        <v>4.669463768423794e-05</v>
       </c>
       <c r="E116">
-        <v>-0.0008101154861413634</v>
+        <v>0.0009393603874735118</v>
       </c>
       <c r="F116">
-        <v>-0.001071803936639952</v>
+        <v>7.79131885377724e-05</v>
       </c>
       <c r="G116">
-        <v>-5.396117829152577e-07</v>
+        <v>-5.322460578277022e-07</v>
       </c>
       <c r="H116">
-        <v>0.0854063010278803</v>
+        <v>0.07289109127314139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.005987936976804038</v>
+        <v>-0.0003755003086998183</v>
       </c>
       <c r="C117">
-        <v>0.005514961329680675</v>
+        <v>-0.0004317544600646675</v>
       </c>
       <c r="D117">
-        <v>6.20712169952922e-05</v>
+        <v>-5.461331792981303e-06</v>
       </c>
       <c r="E117">
-        <v>0.002226382611142635</v>
+        <v>3.94093671754539e-05</v>
       </c>
       <c r="F117">
-        <v>-0.0009144309062437089</v>
+        <v>1.64579005510466e-05</v>
       </c>
       <c r="G117">
-        <v>-1.172011689615825e-06</v>
+        <v>6.451337623665605e-07</v>
       </c>
       <c r="H117">
-        <v>0.08279488008659117</v>
+        <v>0.02968207755954813</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.007598166809593384</v>
+        <v>-0.00146557602600084</v>
       </c>
       <c r="C118">
-        <v>0.005406589501809072</v>
+        <v>-0.000197875950725387</v>
       </c>
       <c r="D118">
-        <v>5.448813138039767e-05</v>
+        <v>8.173402513307032e-06</v>
       </c>
       <c r="E118">
-        <v>-0.001470419495387079</v>
+        <v>-4.044298031798815e-05</v>
       </c>
       <c r="F118">
-        <v>-0.001650760360878113</v>
+        <v>-0.0009828816367658004</v>
       </c>
       <c r="G118">
-        <v>-2.464852568402228e-06</v>
+        <v>3.094040707092334e-06</v>
       </c>
       <c r="H118">
-        <v>0.09658910432601218</v>
+        <v>0.07133883275423997</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.01257236438457318</v>
+        <v>-0.001457507927017955</v>
       </c>
       <c r="C119">
-        <v>-0.001276020822122947</v>
+        <v>0.0004408456609925938</v>
       </c>
       <c r="D119">
-        <v>4.490885828497022e-05</v>
+        <v>-2.682352275387919e-05</v>
       </c>
       <c r="E119">
-        <v>0.001900207687066988</v>
+        <v>-0.005346966211467956</v>
       </c>
       <c r="F119">
-        <v>-0.001988691546565939</v>
+        <v>0.0005726758183486596</v>
       </c>
       <c r="G119">
-        <v>1.044330163530161e-06</v>
+        <v>-2.339214664416223e-06</v>
       </c>
       <c r="H119">
-        <v>0.09771594039210127</v>
+        <v>0.09407932007558054</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.007322613506994783</v>
+        <v>-0.001940386484330653</v>
       </c>
       <c r="C120">
-        <v>-0.0004947843998984796</v>
+        <v>-0.002325843057169915</v>
       </c>
       <c r="D120">
-        <v>6.309587385594272e-05</v>
+        <v>-7.176808141333708e-06</v>
       </c>
       <c r="E120">
-        <v>0.002832925242206637</v>
+        <v>0.0002126765889015406</v>
       </c>
       <c r="F120">
-        <v>-0.001885211618562376</v>
+        <v>0.000312764789721738</v>
       </c>
       <c r="G120">
-        <v>-2.082337078708646e-06</v>
+        <v>7.053185869847784e-07</v>
       </c>
       <c r="H120">
-        <v>0.09600270697292138</v>
+        <v>0.03938693367552168</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.00753063150685958</v>
+        <v>-0.003943825416491759</v>
       </c>
       <c r="C121">
-        <v>0.002492049841558748</v>
+        <v>0.001442795033796843</v>
       </c>
       <c r="D121">
-        <v>4.693599797479796e-05</v>
+        <v>-6.59620904962113e-05</v>
       </c>
       <c r="E121">
-        <v>0.002928971903889306</v>
+        <v>0.002500173303492226</v>
       </c>
       <c r="F121">
-        <v>-0.001942111175484984</v>
+        <v>0.0002513755744098724</v>
       </c>
       <c r="G121">
-        <v>-1.400469861724445e-06</v>
+        <v>-4.381717162930994e-08</v>
       </c>
       <c r="H121">
-        <v>0.097013075975822</v>
+        <v>0.08590790158917538</v>
       </c>
     </row>
   </sheetData>
